--- a/_LAYOUT.xlsx
+++ b/_LAYOUT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\BinSorting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\BinSortSequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5104B7D-F89F-49E4-837A-8497768DE68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD963D67-659A-492D-9139-3938F5E85F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4484" uniqueCount="4379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4517" uniqueCount="4410">
   <si>
     <t>01-001-1</t>
   </si>
@@ -13172,6 +13172,99 @@
   </si>
   <si>
     <t>28-252-1</t>
+  </si>
+  <si>
+    <t>LaneSingle.0.0.9000</t>
+  </si>
+  <si>
+    <t>9020-001</t>
+  </si>
+  <si>
+    <t>9020-003</t>
+  </si>
+  <si>
+    <t>9020-005</t>
+  </si>
+  <si>
+    <t>9020-007</t>
+  </si>
+  <si>
+    <t>9020-009</t>
+  </si>
+  <si>
+    <t>9020-002</t>
+  </si>
+  <si>
+    <t>9020-004</t>
+  </si>
+  <si>
+    <t>9020-006</t>
+  </si>
+  <si>
+    <t>9020-008</t>
+  </si>
+  <si>
+    <t>9020-010</t>
+  </si>
+  <si>
+    <t>0104-001</t>
+  </si>
+  <si>
+    <t>0104-002</t>
+  </si>
+  <si>
+    <t>0104-003</t>
+  </si>
+  <si>
+    <t>0104-004</t>
+  </si>
+  <si>
+    <t>0104-005</t>
+  </si>
+  <si>
+    <t>0104-006</t>
+  </si>
+  <si>
+    <t>0104-007</t>
+  </si>
+  <si>
+    <t>0104-008</t>
+  </si>
+  <si>
+    <t>0104-009</t>
+  </si>
+  <si>
+    <t>0104-010</t>
+  </si>
+  <si>
+    <t>9010-001</t>
+  </si>
+  <si>
+    <t>9010-002</t>
+  </si>
+  <si>
+    <t>9010-003</t>
+  </si>
+  <si>
+    <t>9010-004</t>
+  </si>
+  <si>
+    <t>9010-005</t>
+  </si>
+  <si>
+    <t>9010-006</t>
+  </si>
+  <si>
+    <t>9010-007</t>
+  </si>
+  <si>
+    <t>9010-008</t>
+  </si>
+  <si>
+    <t>9010-009</t>
+  </si>
+  <si>
+    <t>9010-010</t>
   </si>
 </sst>
 </file>
@@ -14041,10 +14134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC127"/>
+  <dimension ref="A1:BF127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BC7" sqref="BC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14078,10 +14171,11 @@
     <col min="50" max="51" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="53" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="55" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.140625" style="1"/>
+    <col min="56" max="57" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2821</v>
       </c>
@@ -14247,8 +14341,17 @@
       <c r="BC1" s="1" t="s">
         <v>2822</v>
       </c>
+      <c r="BD1" s="1" t="s">
+        <v>4379</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>4379</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>4379</v>
+      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -14414,8 +14517,17 @@
       <c r="BC2" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="BD2" s="1" t="s">
+        <v>4390</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>4400</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>4380</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -14581,8 +14693,17 @@
       <c r="BC3" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="BD3" s="1" t="s">
+        <v>4391</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>4401</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>4385</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
@@ -14748,8 +14869,17 @@
       <c r="BC4" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="BD4" s="1" t="s">
+        <v>4392</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>4402</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>4381</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>165</v>
       </c>
@@ -14915,8 +15045,17 @@
       <c r="BC5" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="BD5" s="1" t="s">
+        <v>4393</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>4403</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>4386</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>220</v>
       </c>
@@ -15082,8 +15221,17 @@
       <c r="BC6" s="1" t="s">
         <v>274</v>
       </c>
+      <c r="BD6" s="1" t="s">
+        <v>4394</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>4404</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>4382</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>275</v>
       </c>
@@ -15249,8 +15397,17 @@
       <c r="BC7" s="1" t="s">
         <v>329</v>
       </c>
+      <c r="BD7" s="1" t="s">
+        <v>4395</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>4405</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>4387</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>330</v>
       </c>
@@ -15416,8 +15573,17 @@
       <c r="BC8" s="1" t="s">
         <v>384</v>
       </c>
+      <c r="BD8" s="1" t="s">
+        <v>4396</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>4406</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>4383</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>385</v>
       </c>
@@ -15583,8 +15749,17 @@
       <c r="BC9" s="1" t="s">
         <v>439</v>
       </c>
+      <c r="BD9" s="1" t="s">
+        <v>4397</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>4407</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>4388</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>440</v>
       </c>
@@ -15750,8 +15925,17 @@
       <c r="BC10" s="1" t="s">
         <v>494</v>
       </c>
+      <c r="BD10" s="1" t="s">
+        <v>4398</v>
+      </c>
+      <c r="BE10" s="1" t="s">
+        <v>4408</v>
+      </c>
+      <c r="BF10" s="1" t="s">
+        <v>4384</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>495</v>
       </c>
@@ -15917,8 +16101,17 @@
       <c r="BC11" s="1" t="s">
         <v>549</v>
       </c>
+      <c r="BD11" s="1" t="s">
+        <v>4399</v>
+      </c>
+      <c r="BE11" s="1" t="s">
+        <v>4409</v>
+      </c>
+      <c r="BF11" s="1" t="s">
+        <v>4389</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>550</v>
       </c>
@@ -16085,7 +16278,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>605</v>
       </c>
@@ -16252,7 +16445,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>660</v>
       </c>
@@ -16419,7 +16612,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>715</v>
       </c>
@@ -16586,7 +16779,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>770</v>
       </c>

--- a/_LAYOUT.xlsx
+++ b/_LAYOUT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\BinSortSequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD963D67-659A-492D-9139-3938F5E85F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6B1B08-84EF-4D94-A6BB-2BAE379DDE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4517" uniqueCount="4410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="4750">
   <si>
     <t>01-001-1</t>
   </si>
@@ -13265,6 +13265,1026 @@
   </si>
   <si>
     <t>9010-010</t>
+  </si>
+  <si>
+    <t>08-103-1</t>
+  </si>
+  <si>
+    <t>08-104-1</t>
+  </si>
+  <si>
+    <t>08-105-1</t>
+  </si>
+  <si>
+    <t>08-106-1</t>
+  </si>
+  <si>
+    <t>08-107-1</t>
+  </si>
+  <si>
+    <t>08-108-1</t>
+  </si>
+  <si>
+    <t>08-109-1</t>
+  </si>
+  <si>
+    <t>08-110-1</t>
+  </si>
+  <si>
+    <t>08-111-1</t>
+  </si>
+  <si>
+    <t>08-112-1</t>
+  </si>
+  <si>
+    <t>08-113-1</t>
+  </si>
+  <si>
+    <t>08-114-1</t>
+  </si>
+  <si>
+    <t>09-103-1</t>
+  </si>
+  <si>
+    <t>09-104-1</t>
+  </si>
+  <si>
+    <t>10-103-1</t>
+  </si>
+  <si>
+    <t>10-104-1</t>
+  </si>
+  <si>
+    <t>11-103-1</t>
+  </si>
+  <si>
+    <t>11-104-1</t>
+  </si>
+  <si>
+    <t>12-103-1</t>
+  </si>
+  <si>
+    <t>12-104-1</t>
+  </si>
+  <si>
+    <t>13-103-1</t>
+  </si>
+  <si>
+    <t>13-104-1</t>
+  </si>
+  <si>
+    <t>14-103-1</t>
+  </si>
+  <si>
+    <t>14-104-1</t>
+  </si>
+  <si>
+    <t>15-103-1</t>
+  </si>
+  <si>
+    <t>15-104-1</t>
+  </si>
+  <si>
+    <t>16-103-1</t>
+  </si>
+  <si>
+    <t>16-104-1</t>
+  </si>
+  <si>
+    <t>17-103-1</t>
+  </si>
+  <si>
+    <t>17-104-1</t>
+  </si>
+  <si>
+    <t>09-105-1</t>
+  </si>
+  <si>
+    <t>09-106-1</t>
+  </si>
+  <si>
+    <t>10-105-1</t>
+  </si>
+  <si>
+    <t>10-106-1</t>
+  </si>
+  <si>
+    <t>11-105-1</t>
+  </si>
+  <si>
+    <t>11-106-1</t>
+  </si>
+  <si>
+    <t>12-105-1</t>
+  </si>
+  <si>
+    <t>12-106-1</t>
+  </si>
+  <si>
+    <t>13-105-1</t>
+  </si>
+  <si>
+    <t>13-106-1</t>
+  </si>
+  <si>
+    <t>14-105-1</t>
+  </si>
+  <si>
+    <t>14-106-1</t>
+  </si>
+  <si>
+    <t>15-105-1</t>
+  </si>
+  <si>
+    <t>15-106-1</t>
+  </si>
+  <si>
+    <t>16-105-1</t>
+  </si>
+  <si>
+    <t>16-106-1</t>
+  </si>
+  <si>
+    <t>17-105-1</t>
+  </si>
+  <si>
+    <t>17-106-1</t>
+  </si>
+  <si>
+    <t>09-107-1</t>
+  </si>
+  <si>
+    <t>09-108-1</t>
+  </si>
+  <si>
+    <t>10-107-1</t>
+  </si>
+  <si>
+    <t>10-108-1</t>
+  </si>
+  <si>
+    <t>11-107-1</t>
+  </si>
+  <si>
+    <t>11-108-1</t>
+  </si>
+  <si>
+    <t>12-107-1</t>
+  </si>
+  <si>
+    <t>12-108-1</t>
+  </si>
+  <si>
+    <t>13-107-1</t>
+  </si>
+  <si>
+    <t>13-108-1</t>
+  </si>
+  <si>
+    <t>14-107-1</t>
+  </si>
+  <si>
+    <t>14-108-1</t>
+  </si>
+  <si>
+    <t>15-107-1</t>
+  </si>
+  <si>
+    <t>15-108-1</t>
+  </si>
+  <si>
+    <t>16-107-1</t>
+  </si>
+  <si>
+    <t>16-108-1</t>
+  </si>
+  <si>
+    <t>17-107-1</t>
+  </si>
+  <si>
+    <t>17-108-1</t>
+  </si>
+  <si>
+    <t>09-109-1</t>
+  </si>
+  <si>
+    <t>09-110-1</t>
+  </si>
+  <si>
+    <t>10-109-1</t>
+  </si>
+  <si>
+    <t>10-110-1</t>
+  </si>
+  <si>
+    <t>11-109-1</t>
+  </si>
+  <si>
+    <t>11-110-1</t>
+  </si>
+  <si>
+    <t>12-109-1</t>
+  </si>
+  <si>
+    <t>12-110-1</t>
+  </si>
+  <si>
+    <t>13-109-1</t>
+  </si>
+  <si>
+    <t>13-110-1</t>
+  </si>
+  <si>
+    <t>14-109-1</t>
+  </si>
+  <si>
+    <t>14-110-1</t>
+  </si>
+  <si>
+    <t>15-109-1</t>
+  </si>
+  <si>
+    <t>15-110-1</t>
+  </si>
+  <si>
+    <t>16-109-1</t>
+  </si>
+  <si>
+    <t>16-110-1</t>
+  </si>
+  <si>
+    <t>17-109-1</t>
+  </si>
+  <si>
+    <t>17-110-1</t>
+  </si>
+  <si>
+    <t>09-111-1</t>
+  </si>
+  <si>
+    <t>09-112-1</t>
+  </si>
+  <si>
+    <t>10-111-1</t>
+  </si>
+  <si>
+    <t>10-112-1</t>
+  </si>
+  <si>
+    <t>11-111-1</t>
+  </si>
+  <si>
+    <t>11-112-1</t>
+  </si>
+  <si>
+    <t>12-111-1</t>
+  </si>
+  <si>
+    <t>12-112-1</t>
+  </si>
+  <si>
+    <t>13-111-1</t>
+  </si>
+  <si>
+    <t>13-112-1</t>
+  </si>
+  <si>
+    <t>14-111-1</t>
+  </si>
+  <si>
+    <t>14-112-1</t>
+  </si>
+  <si>
+    <t>15-111-1</t>
+  </si>
+  <si>
+    <t>15-112-1</t>
+  </si>
+  <si>
+    <t>16-111-1</t>
+  </si>
+  <si>
+    <t>16-112-1</t>
+  </si>
+  <si>
+    <t>17-111-1</t>
+  </si>
+  <si>
+    <t>17-112-1</t>
+  </si>
+  <si>
+    <t>09-113-1</t>
+  </si>
+  <si>
+    <t>09-114-1</t>
+  </si>
+  <si>
+    <t>10-113-1</t>
+  </si>
+  <si>
+    <t>10-114-1</t>
+  </si>
+  <si>
+    <t>11-113-1</t>
+  </si>
+  <si>
+    <t>11-114-1</t>
+  </si>
+  <si>
+    <t>12-113-1</t>
+  </si>
+  <si>
+    <t>12-114-1</t>
+  </si>
+  <si>
+    <t>13-113-1</t>
+  </si>
+  <si>
+    <t>13-114-1</t>
+  </si>
+  <si>
+    <t>14-113-1</t>
+  </si>
+  <si>
+    <t>14-114-1</t>
+  </si>
+  <si>
+    <t>15-113-1</t>
+  </si>
+  <si>
+    <t>15-114-1</t>
+  </si>
+  <si>
+    <t>16-113-1</t>
+  </si>
+  <si>
+    <t>16-114-1</t>
+  </si>
+  <si>
+    <t>17-113-1</t>
+  </si>
+  <si>
+    <t>17-114-1</t>
+  </si>
+  <si>
+    <t>18-157-1</t>
+  </si>
+  <si>
+    <t>18-158-1</t>
+  </si>
+  <si>
+    <t>18-159-1</t>
+  </si>
+  <si>
+    <t>18-160-1</t>
+  </si>
+  <si>
+    <t>18-161-1</t>
+  </si>
+  <si>
+    <t>18-162-1</t>
+  </si>
+  <si>
+    <t>18-163-1</t>
+  </si>
+  <si>
+    <t>18-164-1</t>
+  </si>
+  <si>
+    <t>18-165-1</t>
+  </si>
+  <si>
+    <t>18-166-1</t>
+  </si>
+  <si>
+    <t>18-167-1</t>
+  </si>
+  <si>
+    <t>18-168-1</t>
+  </si>
+  <si>
+    <t>18-169-1</t>
+  </si>
+  <si>
+    <t>18-170-1</t>
+  </si>
+  <si>
+    <t>18-171-1</t>
+  </si>
+  <si>
+    <t>18-172-1</t>
+  </si>
+  <si>
+    <t>18-173-1</t>
+  </si>
+  <si>
+    <t>18-174-1</t>
+  </si>
+  <si>
+    <t>18-175-1</t>
+  </si>
+  <si>
+    <t>18-176-1</t>
+  </si>
+  <si>
+    <t>18-177-1</t>
+  </si>
+  <si>
+    <t>18-178-1</t>
+  </si>
+  <si>
+    <t>18-179-1</t>
+  </si>
+  <si>
+    <t>18-180-1</t>
+  </si>
+  <si>
+    <t>18-181-1</t>
+  </si>
+  <si>
+    <t>18-182-1</t>
+  </si>
+  <si>
+    <t>18-183-1</t>
+  </si>
+  <si>
+    <t>18-184-1</t>
+  </si>
+  <si>
+    <t>18-185-1</t>
+  </si>
+  <si>
+    <t>18-186-1</t>
+  </si>
+  <si>
+    <t>18-187-1</t>
+  </si>
+  <si>
+    <t>18-188-1</t>
+  </si>
+  <si>
+    <t>18-189-1</t>
+  </si>
+  <si>
+    <t>18-190-1</t>
+  </si>
+  <si>
+    <t>18-191-1</t>
+  </si>
+  <si>
+    <t>18-192-1</t>
+  </si>
+  <si>
+    <t>18-193-1</t>
+  </si>
+  <si>
+    <t>18-194-1</t>
+  </si>
+  <si>
+    <t>18-195-1</t>
+  </si>
+  <si>
+    <t>18-196-1</t>
+  </si>
+  <si>
+    <t>18-197-1</t>
+  </si>
+  <si>
+    <t>18-198-1</t>
+  </si>
+  <si>
+    <t>18-199-1</t>
+  </si>
+  <si>
+    <t>18-200-1</t>
+  </si>
+  <si>
+    <t>18-201-1</t>
+  </si>
+  <si>
+    <t>18-202-1</t>
+  </si>
+  <si>
+    <t>18-203-1</t>
+  </si>
+  <si>
+    <t>18-204-1</t>
+  </si>
+  <si>
+    <t>18-205-1</t>
+  </si>
+  <si>
+    <t>18-206-1</t>
+  </si>
+  <si>
+    <t>18-207-1</t>
+  </si>
+  <si>
+    <t>18-208-1</t>
+  </si>
+  <si>
+    <t>18-209-1</t>
+  </si>
+  <si>
+    <t>18-210-1</t>
+  </si>
+  <si>
+    <t>18-211-1</t>
+  </si>
+  <si>
+    <t>18-212-1</t>
+  </si>
+  <si>
+    <t>18-213-1</t>
+  </si>
+  <si>
+    <t>18-214-1</t>
+  </si>
+  <si>
+    <t>18-215-1</t>
+  </si>
+  <si>
+    <t>18-216-1</t>
+  </si>
+  <si>
+    <t>18-217-1</t>
+  </si>
+  <si>
+    <t>18-218-1</t>
+  </si>
+  <si>
+    <t>18-219-1</t>
+  </si>
+  <si>
+    <t>18-220-1</t>
+  </si>
+  <si>
+    <t>18-221-1</t>
+  </si>
+  <si>
+    <t>18-222-1</t>
+  </si>
+  <si>
+    <t>18-223-1</t>
+  </si>
+  <si>
+    <t>18-224-1</t>
+  </si>
+  <si>
+    <t>18-225-1</t>
+  </si>
+  <si>
+    <t>18-226-1</t>
+  </si>
+  <si>
+    <t>18-227-1</t>
+  </si>
+  <si>
+    <t>18-228-1</t>
+  </si>
+  <si>
+    <t>18-229-1</t>
+  </si>
+  <si>
+    <t>18-230-1</t>
+  </si>
+  <si>
+    <t>18-231-1</t>
+  </si>
+  <si>
+    <t>18-232-1</t>
+  </si>
+  <si>
+    <t>18-233-1</t>
+  </si>
+  <si>
+    <t>18-234-1</t>
+  </si>
+  <si>
+    <t>18-235-1</t>
+  </si>
+  <si>
+    <t>18-236-1</t>
+  </si>
+  <si>
+    <t>18-237-1</t>
+  </si>
+  <si>
+    <t>18-238-1</t>
+  </si>
+  <si>
+    <t>18-239-1</t>
+  </si>
+  <si>
+    <t>18-240-1</t>
+  </si>
+  <si>
+    <t>18-241-1</t>
+  </si>
+  <si>
+    <t>18-242-1</t>
+  </si>
+  <si>
+    <t>18-243-1</t>
+  </si>
+  <si>
+    <t>18-244-1</t>
+  </si>
+  <si>
+    <t>18-245-1</t>
+  </si>
+  <si>
+    <t>18-246-1</t>
+  </si>
+  <si>
+    <t>18-247-1</t>
+  </si>
+  <si>
+    <t>18-248-1</t>
+  </si>
+  <si>
+    <t>18-249-1</t>
+  </si>
+  <si>
+    <t>18-250-1</t>
+  </si>
+  <si>
+    <t>18-251-1</t>
+  </si>
+  <si>
+    <t>18-252-1</t>
+  </si>
+  <si>
+    <t>9010-011</t>
+  </si>
+  <si>
+    <t>9010-012</t>
+  </si>
+  <si>
+    <t>9010-013</t>
+  </si>
+  <si>
+    <t>9010-014</t>
+  </si>
+  <si>
+    <t>9010-015</t>
+  </si>
+  <si>
+    <t>9010-016</t>
+  </si>
+  <si>
+    <t>9010-017</t>
+  </si>
+  <si>
+    <t>9010-018</t>
+  </si>
+  <si>
+    <t>9010-019</t>
+  </si>
+  <si>
+    <t>9010-020</t>
+  </si>
+  <si>
+    <t>9010-021</t>
+  </si>
+  <si>
+    <t>9010-022</t>
+  </si>
+  <si>
+    <t>9010-023</t>
+  </si>
+  <si>
+    <t>9010-024</t>
+  </si>
+  <si>
+    <t>9010-025</t>
+  </si>
+  <si>
+    <t>9010-026</t>
+  </si>
+  <si>
+    <t>9010-027</t>
+  </si>
+  <si>
+    <t>9010-028</t>
+  </si>
+  <si>
+    <t>9010-029</t>
+  </si>
+  <si>
+    <t>9010-030</t>
+  </si>
+  <si>
+    <t>9010-031</t>
+  </si>
+  <si>
+    <t>9010-032</t>
+  </si>
+  <si>
+    <t>9010-033</t>
+  </si>
+  <si>
+    <t>9010-034</t>
+  </si>
+  <si>
+    <t>9010-035</t>
+  </si>
+  <si>
+    <t>9010-036</t>
+  </si>
+  <si>
+    <t>9010-037</t>
+  </si>
+  <si>
+    <t>9020-011</t>
+  </si>
+  <si>
+    <t>9020-012</t>
+  </si>
+  <si>
+    <t>9020-013</t>
+  </si>
+  <si>
+    <t>9020-014</t>
+  </si>
+  <si>
+    <t>9020-015</t>
+  </si>
+  <si>
+    <t>9020-016</t>
+  </si>
+  <si>
+    <t>9020-017</t>
+  </si>
+  <si>
+    <t>9020-018</t>
+  </si>
+  <si>
+    <t>9020-019</t>
+  </si>
+  <si>
+    <t>9020-020</t>
+  </si>
+  <si>
+    <t>9020-021</t>
+  </si>
+  <si>
+    <t>9020-022</t>
+  </si>
+  <si>
+    <t>9020-023</t>
+  </si>
+  <si>
+    <t>9020-024</t>
+  </si>
+  <si>
+    <t>9020-025</t>
+  </si>
+  <si>
+    <t>9020-026</t>
+  </si>
+  <si>
+    <t>9020-027</t>
+  </si>
+  <si>
+    <t>9020-028</t>
+  </si>
+  <si>
+    <t>9020-029</t>
+  </si>
+  <si>
+    <t>9020-030</t>
+  </si>
+  <si>
+    <t>9020-031</t>
+  </si>
+  <si>
+    <t>9020-032</t>
+  </si>
+  <si>
+    <t>9020-033</t>
+  </si>
+  <si>
+    <t>9020-034</t>
+  </si>
+  <si>
+    <t>9020-035</t>
+  </si>
+  <si>
+    <t>9020-036</t>
+  </si>
+  <si>
+    <t>9020-037</t>
+  </si>
+  <si>
+    <t>9020-038</t>
+  </si>
+  <si>
+    <t>9020-039</t>
+  </si>
+  <si>
+    <t>9020-040</t>
+  </si>
+  <si>
+    <t>9020-041</t>
+  </si>
+  <si>
+    <t>9020-042</t>
+  </si>
+  <si>
+    <t>9020-043</t>
+  </si>
+  <si>
+    <t>9020-044</t>
+  </si>
+  <si>
+    <t>9020-045</t>
+  </si>
+  <si>
+    <t>9020-046</t>
+  </si>
+  <si>
+    <t>9020-047</t>
+  </si>
+  <si>
+    <t>9020-048</t>
+  </si>
+  <si>
+    <t>9020-049</t>
+  </si>
+  <si>
+    <t>9020-050</t>
+  </si>
+  <si>
+    <t>9020-051</t>
+  </si>
+  <si>
+    <t>9020-052</t>
+  </si>
+  <si>
+    <t>9020-053</t>
+  </si>
+  <si>
+    <t>9020-054</t>
+  </si>
+  <si>
+    <t>9020-055</t>
+  </si>
+  <si>
+    <t>9020-056</t>
+  </si>
+  <si>
+    <t>9020-057</t>
+  </si>
+  <si>
+    <t>9020-058</t>
+  </si>
+  <si>
+    <t>9020-059</t>
+  </si>
+  <si>
+    <t>9020-060</t>
+  </si>
+  <si>
+    <t>9020-061</t>
+  </si>
+  <si>
+    <t>9020-062</t>
+  </si>
+  <si>
+    <t>9020-063</t>
+  </si>
+  <si>
+    <t>9020-064</t>
+  </si>
+  <si>
+    <t>9020-065</t>
+  </si>
+  <si>
+    <t>9020-066</t>
+  </si>
+  <si>
+    <t>9020-067</t>
+  </si>
+  <si>
+    <t>9020-068</t>
+  </si>
+  <si>
+    <t>9020-069</t>
+  </si>
+  <si>
+    <t>9020-070</t>
+  </si>
+  <si>
+    <t>9020-071</t>
+  </si>
+  <si>
+    <t>9020-072</t>
+  </si>
+  <si>
+    <t>9020-073</t>
+  </si>
+  <si>
+    <t>9020-074</t>
+  </si>
+  <si>
+    <t>9020-075</t>
+  </si>
+  <si>
+    <t>9020-076</t>
+  </si>
+  <si>
+    <t>9020-077</t>
+  </si>
+  <si>
+    <t>9020-078</t>
+  </si>
+  <si>
+    <t>9020-079</t>
+  </si>
+  <si>
+    <t>9020-080</t>
+  </si>
+  <si>
+    <t>9020-081</t>
+  </si>
+  <si>
+    <t>9020-082</t>
+  </si>
+  <si>
+    <t>9020-083</t>
+  </si>
+  <si>
+    <t>9020-084</t>
+  </si>
+  <si>
+    <t>9020-085</t>
+  </si>
+  <si>
+    <t>9020-086</t>
+  </si>
+  <si>
+    <t>9020-087</t>
+  </si>
+  <si>
+    <t>9020-088</t>
+  </si>
+  <si>
+    <t>9020-089</t>
+  </si>
+  <si>
+    <t>9020-090</t>
+  </si>
+  <si>
+    <t>9020-091</t>
+  </si>
+  <si>
+    <t>9020-092</t>
+  </si>
+  <si>
+    <t>9020-093</t>
+  </si>
+  <si>
+    <t>9020-094</t>
+  </si>
+  <si>
+    <t>9020-095</t>
+  </si>
+  <si>
+    <t>9020-096</t>
+  </si>
+  <si>
+    <t>9020-097</t>
+  </si>
+  <si>
+    <t>9020-098</t>
+  </si>
+  <si>
+    <t>9020-099</t>
+  </si>
+  <si>
+    <t>9020-100</t>
+  </si>
+  <si>
+    <t>9020-101</t>
+  </si>
+  <si>
+    <t>0103-001</t>
+  </si>
+  <si>
+    <t>0108-001</t>
+  </si>
+  <si>
+    <t>0109-001</t>
+  </si>
+  <si>
+    <t>8040-001</t>
+  </si>
+  <si>
+    <t>8040-002</t>
+  </si>
+  <si>
+    <t>8040-003</t>
   </si>
 </sst>
 </file>
@@ -13754,10 +14774,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -14134,10 +15157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF127"/>
+  <dimension ref="A1:BG127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="BC7" sqref="BC7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14171,11 +15194,11 @@
     <col min="50" max="51" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="53" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="55" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="16384" width="9.140625" style="1"/>
+    <col min="56" max="59" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2821</v>
       </c>
@@ -14350,8 +15373,11 @@
       <c r="BF1" s="1" t="s">
         <v>4379</v>
       </c>
+      <c r="BG1" s="1" t="s">
+        <v>4379</v>
+      </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -14520,14 +15546,17 @@
       <c r="BD2" s="1" t="s">
         <v>4390</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BE2" s="2" t="s">
         <v>4400</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BF2" s="2" t="s">
         <v>4380</v>
       </c>
+      <c r="BG2" s="2" t="s">
+        <v>4744</v>
+      </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -14696,14 +15725,17 @@
       <c r="BD3" s="1" t="s">
         <v>4391</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BE3" s="2" t="s">
         <v>4401</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BF3" s="2" t="s">
         <v>4385</v>
       </c>
+      <c r="BG3" s="2" t="s">
+        <v>4745</v>
+      </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
@@ -14872,14 +15904,17 @@
       <c r="BD4" s="1" t="s">
         <v>4392</v>
       </c>
-      <c r="BE4" s="1" t="s">
+      <c r="BE4" s="2" t="s">
         <v>4402</v>
       </c>
-      <c r="BF4" s="1" t="s">
+      <c r="BF4" s="2" t="s">
         <v>4381</v>
       </c>
+      <c r="BG4" s="2" t="s">
+        <v>4746</v>
+      </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>165</v>
       </c>
@@ -15048,14 +16083,17 @@
       <c r="BD5" s="1" t="s">
         <v>4393</v>
       </c>
-      <c r="BE5" s="1" t="s">
+      <c r="BE5" s="2" t="s">
         <v>4403</v>
       </c>
-      <c r="BF5" s="1" t="s">
+      <c r="BF5" s="2" t="s">
         <v>4386</v>
       </c>
+      <c r="BG5" s="2" t="s">
+        <v>4747</v>
+      </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>220</v>
       </c>
@@ -15224,14 +16262,17 @@
       <c r="BD6" s="1" t="s">
         <v>4394</v>
       </c>
-      <c r="BE6" s="1" t="s">
+      <c r="BE6" s="2" t="s">
         <v>4404</v>
       </c>
-      <c r="BF6" s="1" t="s">
+      <c r="BF6" s="2" t="s">
         <v>4382</v>
       </c>
+      <c r="BG6" s="2" t="s">
+        <v>4748</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>275</v>
       </c>
@@ -15400,14 +16441,17 @@
       <c r="BD7" s="1" t="s">
         <v>4395</v>
       </c>
-      <c r="BE7" s="1" t="s">
+      <c r="BE7" s="2" t="s">
         <v>4405</v>
       </c>
-      <c r="BF7" s="1" t="s">
+      <c r="BF7" s="2" t="s">
         <v>4387</v>
       </c>
+      <c r="BG7" s="2" t="s">
+        <v>4749</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>330</v>
       </c>
@@ -15576,14 +16620,14 @@
       <c r="BD8" s="1" t="s">
         <v>4396</v>
       </c>
-      <c r="BE8" s="1" t="s">
+      <c r="BE8" s="2" t="s">
         <v>4406</v>
       </c>
-      <c r="BF8" s="1" t="s">
+      <c r="BF8" s="2" t="s">
         <v>4383</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>385</v>
       </c>
@@ -15752,14 +16796,14 @@
       <c r="BD9" s="1" t="s">
         <v>4397</v>
       </c>
-      <c r="BE9" s="1" t="s">
+      <c r="BE9" s="2" t="s">
         <v>4407</v>
       </c>
-      <c r="BF9" s="1" t="s">
+      <c r="BF9" s="2" t="s">
         <v>4388</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>440</v>
       </c>
@@ -15928,14 +16972,14 @@
       <c r="BD10" s="1" t="s">
         <v>4398</v>
       </c>
-      <c r="BE10" s="1" t="s">
+      <c r="BE10" s="2" t="s">
         <v>4408</v>
       </c>
-      <c r="BF10" s="1" t="s">
+      <c r="BF10" s="2" t="s">
         <v>4384</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>495</v>
       </c>
@@ -16104,14 +17148,14 @@
       <c r="BD11" s="1" t="s">
         <v>4399</v>
       </c>
-      <c r="BE11" s="1" t="s">
+      <c r="BE11" s="2" t="s">
         <v>4409</v>
       </c>
-      <c r="BF11" s="1" t="s">
+      <c r="BF11" s="2" t="s">
         <v>4389</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>550</v>
       </c>
@@ -16277,8 +17321,14 @@
       <c r="BC12" s="1" t="s">
         <v>604</v>
       </c>
+      <c r="BE12" s="2" t="s">
+        <v>4626</v>
+      </c>
+      <c r="BF12" s="2" t="s">
+        <v>4653</v>
+      </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>605</v>
       </c>
@@ -16444,8 +17494,14 @@
       <c r="BC13" s="1" t="s">
         <v>659</v>
       </c>
+      <c r="BE13" s="2" t="s">
+        <v>4627</v>
+      </c>
+      <c r="BF13" s="2" t="s">
+        <v>4654</v>
+      </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>660</v>
       </c>
@@ -16611,8 +17667,14 @@
       <c r="BC14" s="1" t="s">
         <v>714</v>
       </c>
+      <c r="BE14" s="2" t="s">
+        <v>4628</v>
+      </c>
+      <c r="BF14" s="2" t="s">
+        <v>4655</v>
+      </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>715</v>
       </c>
@@ -16778,8 +17840,14 @@
       <c r="BC15" s="1" t="s">
         <v>769</v>
       </c>
+      <c r="BE15" s="2" t="s">
+        <v>4629</v>
+      </c>
+      <c r="BF15" s="2" t="s">
+        <v>4656</v>
+      </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>770</v>
       </c>
@@ -16945,8 +18013,14 @@
       <c r="BC16" s="1" t="s">
         <v>824</v>
       </c>
+      <c r="BE16" s="2" t="s">
+        <v>4630</v>
+      </c>
+      <c r="BF16" s="2" t="s">
+        <v>4657</v>
+      </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>825</v>
       </c>
@@ -17112,8 +18186,14 @@
       <c r="BC17" s="1" t="s">
         <v>879</v>
       </c>
+      <c r="BE17" s="2" t="s">
+        <v>4631</v>
+      </c>
+      <c r="BF17" s="2" t="s">
+        <v>4658</v>
+      </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>880</v>
       </c>
@@ -17279,8 +18359,14 @@
       <c r="BC18" s="1" t="s">
         <v>934</v>
       </c>
+      <c r="BE18" s="2" t="s">
+        <v>4632</v>
+      </c>
+      <c r="BF18" s="2" t="s">
+        <v>4659</v>
+      </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>935</v>
       </c>
@@ -17446,8 +18532,14 @@
       <c r="BC19" s="1" t="s">
         <v>989</v>
       </c>
+      <c r="BE19" s="2" t="s">
+        <v>4633</v>
+      </c>
+      <c r="BF19" s="2" t="s">
+        <v>4660</v>
+      </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>990</v>
       </c>
@@ -17613,8 +18705,14 @@
       <c r="BC20" s="1" t="s">
         <v>1044</v>
       </c>
+      <c r="BE20" s="2" t="s">
+        <v>4634</v>
+      </c>
+      <c r="BF20" s="2" t="s">
+        <v>4661</v>
+      </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1045</v>
       </c>
@@ -17780,8 +18878,14 @@
       <c r="BC21" s="1" t="s">
         <v>1099</v>
       </c>
+      <c r="BE21" s="2" t="s">
+        <v>4635</v>
+      </c>
+      <c r="BF21" s="2" t="s">
+        <v>4662</v>
+      </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1100</v>
       </c>
@@ -17947,8 +19051,14 @@
       <c r="BC22" s="1" t="s">
         <v>1154</v>
       </c>
+      <c r="BE22" s="2" t="s">
+        <v>4636</v>
+      </c>
+      <c r="BF22" s="2" t="s">
+        <v>4663</v>
+      </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18114,8 +19224,14 @@
       <c r="BC23" s="1" t="s">
         <v>1209</v>
       </c>
+      <c r="BE23" s="2" t="s">
+        <v>4637</v>
+      </c>
+      <c r="BF23" s="2" t="s">
+        <v>4664</v>
+      </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1210</v>
       </c>
@@ -18281,8 +19397,14 @@
       <c r="BC24" s="1" t="s">
         <v>1264</v>
       </c>
+      <c r="BE24" s="2" t="s">
+        <v>4638</v>
+      </c>
+      <c r="BF24" s="2" t="s">
+        <v>4665</v>
+      </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1265</v>
       </c>
@@ -18448,8 +19570,14 @@
       <c r="BC25" s="1" t="s">
         <v>1319</v>
       </c>
+      <c r="BE25" s="2" t="s">
+        <v>4639</v>
+      </c>
+      <c r="BF25" s="2" t="s">
+        <v>4666</v>
+      </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1320</v>
       </c>
@@ -18615,8 +19743,14 @@
       <c r="BC26" s="1" t="s">
         <v>1374</v>
       </c>
+      <c r="BE26" s="2" t="s">
+        <v>4640</v>
+      </c>
+      <c r="BF26" s="2" t="s">
+        <v>4667</v>
+      </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>1375</v>
       </c>
@@ -18782,8 +19916,14 @@
       <c r="BC27" s="1" t="s">
         <v>1429</v>
       </c>
+      <c r="BE27" s="2" t="s">
+        <v>4641</v>
+      </c>
+      <c r="BF27" s="2" t="s">
+        <v>4668</v>
+      </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1430</v>
       </c>
@@ -18949,8 +20089,14 @@
       <c r="BC28" s="1" t="s">
         <v>1484</v>
       </c>
+      <c r="BE28" s="2" t="s">
+        <v>4642</v>
+      </c>
+      <c r="BF28" s="2" t="s">
+        <v>4669</v>
+      </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1485</v>
       </c>
@@ -19116,8 +20262,14 @@
       <c r="BC29" s="1" t="s">
         <v>1539</v>
       </c>
+      <c r="BE29" s="2" t="s">
+        <v>4643</v>
+      </c>
+      <c r="BF29" s="2" t="s">
+        <v>4670</v>
+      </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1540</v>
       </c>
@@ -19283,8 +20435,14 @@
       <c r="BC30" s="1" t="s">
         <v>1594</v>
       </c>
+      <c r="BE30" s="2" t="s">
+        <v>4644</v>
+      </c>
+      <c r="BF30" s="2" t="s">
+        <v>4671</v>
+      </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>1595</v>
       </c>
@@ -19450,8 +20608,14 @@
       <c r="BC31" s="1" t="s">
         <v>1649</v>
       </c>
+      <c r="BE31" s="2" t="s">
+        <v>4645</v>
+      </c>
+      <c r="BF31" s="2" t="s">
+        <v>4672</v>
+      </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1650</v>
       </c>
@@ -19617,8 +20781,14 @@
       <c r="BC32" s="1" t="s">
         <v>1704</v>
       </c>
+      <c r="BE32" s="2" t="s">
+        <v>4646</v>
+      </c>
+      <c r="BF32" s="2" t="s">
+        <v>4673</v>
+      </c>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1705</v>
       </c>
@@ -19784,8 +20954,14 @@
       <c r="BC33" s="1" t="s">
         <v>1759</v>
       </c>
+      <c r="BE33" s="2" t="s">
+        <v>4647</v>
+      </c>
+      <c r="BF33" s="2" t="s">
+        <v>4674</v>
+      </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1760</v>
       </c>
@@ -19951,8 +21127,14 @@
       <c r="BC34" s="1" t="s">
         <v>1814</v>
       </c>
+      <c r="BE34" s="2" t="s">
+        <v>4648</v>
+      </c>
+      <c r="BF34" s="2" t="s">
+        <v>4675</v>
+      </c>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>1815</v>
       </c>
@@ -20118,8 +21300,14 @@
       <c r="BC35" s="1" t="s">
         <v>1869</v>
       </c>
+      <c r="BE35" s="2" t="s">
+        <v>4649</v>
+      </c>
+      <c r="BF35" s="2" t="s">
+        <v>4676</v>
+      </c>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1870</v>
       </c>
@@ -20285,8 +21473,14 @@
       <c r="BC36" s="1" t="s">
         <v>1924</v>
       </c>
+      <c r="BE36" s="2" t="s">
+        <v>4650</v>
+      </c>
+      <c r="BF36" s="2" t="s">
+        <v>4677</v>
+      </c>
     </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>1925</v>
       </c>
@@ -20452,8 +21646,14 @@
       <c r="BC37" s="1" t="s">
         <v>1979</v>
       </c>
+      <c r="BE37" s="2" t="s">
+        <v>4651</v>
+      </c>
+      <c r="BF37" s="2" t="s">
+        <v>4678</v>
+      </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>1980</v>
       </c>
@@ -20619,8 +21819,14 @@
       <c r="BC38" s="1" t="s">
         <v>2034</v>
       </c>
+      <c r="BE38" s="2" t="s">
+        <v>4652</v>
+      </c>
+      <c r="BF38" s="2" t="s">
+        <v>4679</v>
+      </c>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>2035</v>
       </c>
@@ -20786,8 +21992,11 @@
       <c r="BC39" s="1" t="s">
         <v>2089</v>
       </c>
+      <c r="BF39" s="2" t="s">
+        <v>4680</v>
+      </c>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>2090</v>
       </c>
@@ -20953,8 +22162,11 @@
       <c r="BC40" s="1" t="s">
         <v>2144</v>
       </c>
+      <c r="BF40" s="2" t="s">
+        <v>4681</v>
+      </c>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>2145</v>
       </c>
@@ -21120,8 +22332,11 @@
       <c r="BC41" s="1" t="s">
         <v>2199</v>
       </c>
+      <c r="BF41" s="2" t="s">
+        <v>4682</v>
+      </c>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>2200</v>
       </c>
@@ -21287,8 +22502,11 @@
       <c r="BC42" s="1" t="s">
         <v>2254</v>
       </c>
+      <c r="BF42" s="2" t="s">
+        <v>4683</v>
+      </c>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>2255</v>
       </c>
@@ -21454,8 +22672,11 @@
       <c r="BC43" s="1" t="s">
         <v>2309</v>
       </c>
+      <c r="BF43" s="2" t="s">
+        <v>4684</v>
+      </c>
     </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>2310</v>
       </c>
@@ -21621,8 +22842,11 @@
       <c r="BC44" s="1" t="s">
         <v>2364</v>
       </c>
+      <c r="BF44" s="2" t="s">
+        <v>4685</v>
+      </c>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>2365</v>
       </c>
@@ -21788,8 +23012,11 @@
       <c r="BC45" s="1" t="s">
         <v>2419</v>
       </c>
+      <c r="BF45" s="2" t="s">
+        <v>4686</v>
+      </c>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>2420</v>
       </c>
@@ -21955,8 +23182,11 @@
       <c r="BC46" s="1" t="s">
         <v>2474</v>
       </c>
+      <c r="BF46" s="2" t="s">
+        <v>4687</v>
+      </c>
     </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>2475</v>
       </c>
@@ -22122,8 +23352,11 @@
       <c r="BC47" s="1" t="s">
         <v>2529</v>
       </c>
+      <c r="BF47" s="2" t="s">
+        <v>4688</v>
+      </c>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>2530</v>
       </c>
@@ -22289,8 +23522,11 @@
       <c r="BC48" s="1" t="s">
         <v>2584</v>
       </c>
+      <c r="BF48" s="2" t="s">
+        <v>4689</v>
+      </c>
     </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>2585</v>
       </c>
@@ -22456,8 +23692,11 @@
       <c r="BC49" s="1" t="s">
         <v>2639</v>
       </c>
+      <c r="BF49" s="2" t="s">
+        <v>4690</v>
+      </c>
     </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>2640</v>
       </c>
@@ -22623,8 +23862,11 @@
       <c r="BC50" s="1" t="s">
         <v>2694</v>
       </c>
+      <c r="BF50" s="2" t="s">
+        <v>4691</v>
+      </c>
     </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>2695</v>
       </c>
@@ -22790,8 +24032,11 @@
       <c r="BC51" s="1" t="s">
         <v>2749</v>
       </c>
+      <c r="BF51" s="2" t="s">
+        <v>4692</v>
+      </c>
     </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>2750</v>
       </c>
@@ -22957,10 +24202,76 @@
       <c r="BC52" s="1" t="s">
         <v>2804</v>
       </c>
+      <c r="BF52" s="2" t="s">
+        <v>4693</v>
+      </c>
     </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AI53" s="1" t="s">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="N53" s="2" t="s">
+        <v>4410</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>4411</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>4422</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>4423</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>4424</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>4425</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>4426</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>4427</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>4428</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>4429</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>4430</v>
+      </c>
+      <c r="Y53" s="2" t="s">
+        <v>4431</v>
+      </c>
+      <c r="Z53" s="2" t="s">
+        <v>4432</v>
+      </c>
+      <c r="AA53" s="2" t="s">
+        <v>4433</v>
+      </c>
+      <c r="AB53" s="2" t="s">
+        <v>4434</v>
+      </c>
+      <c r="AC53" s="2" t="s">
+        <v>4435</v>
+      </c>
+      <c r="AD53" s="2" t="s">
+        <v>4436</v>
+      </c>
+      <c r="AE53" s="2" t="s">
+        <v>4437</v>
+      </c>
+      <c r="AF53" s="2" t="s">
+        <v>4438</v>
+      </c>
+      <c r="AG53" s="2" t="s">
+        <v>4439</v>
+      </c>
+      <c r="AH53" s="2" t="s">
         <v>2825</v>
+      </c>
+      <c r="AI53" s="2" t="s">
+        <v>2826</v>
       </c>
       <c r="AJ53" s="1" t="s">
         <v>2879</v>
@@ -23022,10 +24333,76 @@
       <c r="BC53" s="1" t="s">
         <v>3046</v>
       </c>
+      <c r="BF53" s="2" t="s">
+        <v>4694</v>
+      </c>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AI54" s="1" t="s">
-        <v>2826</v>
+    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="N54" s="2" t="s">
+        <v>4412</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>4413</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>4440</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>4441</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>4442</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>4443</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>4444</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>4445</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>4446</v>
+      </c>
+      <c r="W54" s="2" t="s">
+        <v>4447</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>4448</v>
+      </c>
+      <c r="Y54" s="2" t="s">
+        <v>4449</v>
+      </c>
+      <c r="Z54" s="2" t="s">
+        <v>4450</v>
+      </c>
+      <c r="AA54" s="2" t="s">
+        <v>4451</v>
+      </c>
+      <c r="AB54" s="2" t="s">
+        <v>4452</v>
+      </c>
+      <c r="AC54" s="2" t="s">
+        <v>4453</v>
+      </c>
+      <c r="AD54" s="2" t="s">
+        <v>4454</v>
+      </c>
+      <c r="AE54" s="2" t="s">
+        <v>4455</v>
+      </c>
+      <c r="AF54" s="2" t="s">
+        <v>4456</v>
+      </c>
+      <c r="AG54" s="2" t="s">
+        <v>4457</v>
+      </c>
+      <c r="AH54" s="2" t="s">
+        <v>2827</v>
+      </c>
+      <c r="AI54" s="2" t="s">
+        <v>2828</v>
       </c>
       <c r="AJ54" s="1" t="s">
         <v>2881</v>
@@ -23087,10 +24464,76 @@
       <c r="BC54" s="1" t="s">
         <v>3064</v>
       </c>
+      <c r="BF54" s="2" t="s">
+        <v>4695</v>
+      </c>
     </row>
-    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AI55" s="1" t="s">
-        <v>2827</v>
+    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="N55" s="2" t="s">
+        <v>4414</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>4415</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>4458</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>4459</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>4460</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>4461</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>4462</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>4463</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>4464</v>
+      </c>
+      <c r="W55" s="2" t="s">
+        <v>4465</v>
+      </c>
+      <c r="X55" s="2" t="s">
+        <v>4466</v>
+      </c>
+      <c r="Y55" s="2" t="s">
+        <v>4467</v>
+      </c>
+      <c r="Z55" s="2" t="s">
+        <v>4468</v>
+      </c>
+      <c r="AA55" s="2" t="s">
+        <v>4469</v>
+      </c>
+      <c r="AB55" s="2" t="s">
+        <v>4470</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>4471</v>
+      </c>
+      <c r="AD55" s="2" t="s">
+        <v>4472</v>
+      </c>
+      <c r="AE55" s="2" t="s">
+        <v>4473</v>
+      </c>
+      <c r="AF55" s="2" t="s">
+        <v>4474</v>
+      </c>
+      <c r="AG55" s="2" t="s">
+        <v>4475</v>
+      </c>
+      <c r="AH55" s="2" t="s">
+        <v>2829</v>
+      </c>
+      <c r="AI55" s="2" t="s">
+        <v>2830</v>
       </c>
       <c r="AJ55" s="1" t="s">
         <v>2883</v>
@@ -23152,10 +24595,76 @@
       <c r="BC55" s="1" t="s">
         <v>3082</v>
       </c>
+      <c r="BF55" s="2" t="s">
+        <v>4696</v>
+      </c>
     </row>
-    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AI56" s="1" t="s">
-        <v>2828</v>
+    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="N56" s="2" t="s">
+        <v>4416</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>4417</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>4476</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>4477</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>4478</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>4479</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>4480</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>4481</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>4482</v>
+      </c>
+      <c r="W56" s="2" t="s">
+        <v>4483</v>
+      </c>
+      <c r="X56" s="2" t="s">
+        <v>4484</v>
+      </c>
+      <c r="Y56" s="2" t="s">
+        <v>4485</v>
+      </c>
+      <c r="Z56" s="2" t="s">
+        <v>4486</v>
+      </c>
+      <c r="AA56" s="2" t="s">
+        <v>4487</v>
+      </c>
+      <c r="AB56" s="2" t="s">
+        <v>4488</v>
+      </c>
+      <c r="AC56" s="2" t="s">
+        <v>4489</v>
+      </c>
+      <c r="AD56" s="2" t="s">
+        <v>4490</v>
+      </c>
+      <c r="AE56" s="2" t="s">
+        <v>4491</v>
+      </c>
+      <c r="AF56" s="2" t="s">
+        <v>4492</v>
+      </c>
+      <c r="AG56" s="2" t="s">
+        <v>4493</v>
+      </c>
+      <c r="AH56" s="2" t="s">
+        <v>2831</v>
+      </c>
+      <c r="AI56" s="2" t="s">
+        <v>2832</v>
       </c>
       <c r="AJ56" s="1" t="s">
         <v>2885</v>
@@ -23217,10 +24726,76 @@
       <c r="BC56" s="1" t="s">
         <v>3100</v>
       </c>
+      <c r="BF56" s="2" t="s">
+        <v>4697</v>
+      </c>
     </row>
-    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AI57" s="1" t="s">
-        <v>2829</v>
+    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="N57" s="2" t="s">
+        <v>4418</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>4419</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>4494</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>4495</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>4496</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>4497</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>4498</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>4499</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>4500</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>4501</v>
+      </c>
+      <c r="X57" s="2" t="s">
+        <v>4502</v>
+      </c>
+      <c r="Y57" s="2" t="s">
+        <v>4503</v>
+      </c>
+      <c r="Z57" s="2" t="s">
+        <v>4504</v>
+      </c>
+      <c r="AA57" s="2" t="s">
+        <v>4505</v>
+      </c>
+      <c r="AB57" s="2" t="s">
+        <v>4506</v>
+      </c>
+      <c r="AC57" s="2" t="s">
+        <v>4507</v>
+      </c>
+      <c r="AD57" s="2" t="s">
+        <v>4508</v>
+      </c>
+      <c r="AE57" s="2" t="s">
+        <v>4509</v>
+      </c>
+      <c r="AF57" s="2" t="s">
+        <v>4510</v>
+      </c>
+      <c r="AG57" s="2" t="s">
+        <v>4511</v>
+      </c>
+      <c r="AH57" s="2" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AI57" s="2" t="s">
+        <v>2834</v>
       </c>
       <c r="AJ57" s="1" t="s">
         <v>2887</v>
@@ -23282,10 +24857,76 @@
       <c r="BC57" s="1" t="s">
         <v>3118</v>
       </c>
+      <c r="BF57" s="2" t="s">
+        <v>4698</v>
+      </c>
     </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AI58" s="1" t="s">
-        <v>2830</v>
+    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="N58" s="2" t="s">
+        <v>4420</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>4421</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>4512</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>4513</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>4514</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>4515</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>4516</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>4517</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>4518</v>
+      </c>
+      <c r="W58" s="2" t="s">
+        <v>4519</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>4520</v>
+      </c>
+      <c r="Y58" s="2" t="s">
+        <v>4521</v>
+      </c>
+      <c r="Z58" s="2" t="s">
+        <v>4522</v>
+      </c>
+      <c r="AA58" s="2" t="s">
+        <v>4523</v>
+      </c>
+      <c r="AB58" s="2" t="s">
+        <v>4524</v>
+      </c>
+      <c r="AC58" s="2" t="s">
+        <v>4525</v>
+      </c>
+      <c r="AD58" s="2" t="s">
+        <v>4526</v>
+      </c>
+      <c r="AE58" s="2" t="s">
+        <v>4527</v>
+      </c>
+      <c r="AF58" s="2" t="s">
+        <v>4528</v>
+      </c>
+      <c r="AG58" s="2" t="s">
+        <v>4529</v>
+      </c>
+      <c r="AH58" s="2" t="s">
+        <v>2835</v>
+      </c>
+      <c r="AI58" s="2" t="s">
+        <v>2836</v>
       </c>
       <c r="AJ58" s="1" t="s">
         <v>2889</v>
@@ -23347,10 +24988,18 @@
       <c r="BC58" s="1" t="s">
         <v>3136</v>
       </c>
+      <c r="BF58" s="2" t="s">
+        <v>4699</v>
+      </c>
     </row>
-    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AI59" s="1" t="s">
-        <v>2831</v>
+    <row r="59" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="AH59" s="2" t="s">
+        <v>2837</v>
+      </c>
+      <c r="AI59" s="2" t="s">
+        <v>2838</v>
       </c>
       <c r="AJ59" s="1" t="s">
         <v>2891</v>
@@ -23412,10 +25061,18 @@
       <c r="BC59" s="1" t="s">
         <v>3154</v>
       </c>
+      <c r="BF59" s="2" t="s">
+        <v>4700</v>
+      </c>
     </row>
-    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AI60" s="1" t="s">
-        <v>2832</v>
+    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="AH60" s="2" t="s">
+        <v>2839</v>
+      </c>
+      <c r="AI60" s="2" t="s">
+        <v>2840</v>
       </c>
       <c r="AJ60" s="1" t="s">
         <v>2893</v>
@@ -23477,10 +25134,18 @@
       <c r="BC60" s="1" t="s">
         <v>3172</v>
       </c>
+      <c r="BF60" s="2" t="s">
+        <v>4701</v>
+      </c>
     </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AI61" s="1" t="s">
-        <v>2833</v>
+    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="AH61" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="AI61" s="2" t="s">
+        <v>2842</v>
       </c>
       <c r="AJ61" s="1" t="s">
         <v>2895</v>
@@ -23542,10 +25207,18 @@
       <c r="BC61" s="1" t="s">
         <v>3190</v>
       </c>
+      <c r="BF61" s="2" t="s">
+        <v>4702</v>
+      </c>
     </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AI62" s="1" t="s">
-        <v>2834</v>
+    <row r="62" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="AH62" s="2" t="s">
+        <v>2843</v>
+      </c>
+      <c r="AI62" s="2" t="s">
+        <v>2844</v>
       </c>
       <c r="AJ62" s="1" t="s">
         <v>2897</v>
@@ -23607,10 +25280,18 @@
       <c r="BC62" s="1" t="s">
         <v>3208</v>
       </c>
+      <c r="BF62" s="2" t="s">
+        <v>4703</v>
+      </c>
     </row>
-    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AI63" s="1" t="s">
-        <v>2835</v>
+    <row r="63" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="AH63" s="2" t="s">
+        <v>2845</v>
+      </c>
+      <c r="AI63" s="2" t="s">
+        <v>2846</v>
       </c>
       <c r="AJ63" s="1" t="s">
         <v>2899</v>
@@ -23672,10 +25353,18 @@
       <c r="BC63" s="1" t="s">
         <v>3226</v>
       </c>
+      <c r="BF63" s="2" t="s">
+        <v>4704</v>
+      </c>
     </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AI64" s="1" t="s">
-        <v>2836</v>
+    <row r="64" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="AH64" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="AI64" s="2" t="s">
+        <v>2848</v>
       </c>
       <c r="AJ64" s="1" t="s">
         <v>2901</v>
@@ -23737,10 +25426,16 @@
       <c r="BC64" s="1" t="s">
         <v>3244</v>
       </c>
+      <c r="BF64" s="2" t="s">
+        <v>4705</v>
+      </c>
     </row>
-    <row r="65" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI65" s="1" t="s">
-        <v>2837</v>
+    <row r="65" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH65" s="2" t="s">
+        <v>2849</v>
+      </c>
+      <c r="AI65" s="2" t="s">
+        <v>2850</v>
       </c>
       <c r="AJ65" s="1" t="s">
         <v>2903</v>
@@ -23802,10 +25497,16 @@
       <c r="BC65" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="BF65" s="2" t="s">
+        <v>4706</v>
+      </c>
     </row>
-    <row r="66" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI66" s="1" t="s">
-        <v>2838</v>
+    <row r="66" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH66" s="2" t="s">
+        <v>2851</v>
+      </c>
+      <c r="AI66" s="2" t="s">
+        <v>2852</v>
       </c>
       <c r="AJ66" s="1" t="s">
         <v>2905</v>
@@ -23867,10 +25568,16 @@
       <c r="BC66" s="1" t="s">
         <v>3280</v>
       </c>
+      <c r="BF66" s="2" t="s">
+        <v>4707</v>
+      </c>
     </row>
-    <row r="67" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI67" s="1" t="s">
-        <v>2839</v>
+    <row r="67" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH67" s="2" t="s">
+        <v>2853</v>
+      </c>
+      <c r="AI67" s="2" t="s">
+        <v>2854</v>
       </c>
       <c r="AJ67" s="1" t="s">
         <v>2907</v>
@@ -23932,10 +25639,16 @@
       <c r="BC67" s="1" t="s">
         <v>3298</v>
       </c>
+      <c r="BF67" s="2" t="s">
+        <v>4708</v>
+      </c>
     </row>
-    <row r="68" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI68" s="1" t="s">
-        <v>2840</v>
+    <row r="68" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH68" s="2" t="s">
+        <v>2855</v>
+      </c>
+      <c r="AI68" s="2" t="s">
+        <v>2856</v>
       </c>
       <c r="AJ68" s="1" t="s">
         <v>2909</v>
@@ -23997,10 +25710,16 @@
       <c r="BC68" s="1" t="s">
         <v>3316</v>
       </c>
+      <c r="BF68" s="2" t="s">
+        <v>4709</v>
+      </c>
     </row>
-    <row r="69" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI69" s="1" t="s">
-        <v>2841</v>
+    <row r="69" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH69" s="2" t="s">
+        <v>2857</v>
+      </c>
+      <c r="AI69" s="2" t="s">
+        <v>2858</v>
       </c>
       <c r="AJ69" s="1" t="s">
         <v>2911</v>
@@ -24062,10 +25781,16 @@
       <c r="BC69" s="1" t="s">
         <v>3334</v>
       </c>
+      <c r="BF69" s="2" t="s">
+        <v>4710</v>
+      </c>
     </row>
-    <row r="70" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI70" s="1" t="s">
-        <v>2842</v>
+    <row r="70" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH70" s="2" t="s">
+        <v>2859</v>
+      </c>
+      <c r="AI70" s="2" t="s">
+        <v>2860</v>
       </c>
       <c r="AJ70" s="1" t="s">
         <v>2913</v>
@@ -24127,10 +25852,16 @@
       <c r="BC70" s="1" t="s">
         <v>3352</v>
       </c>
+      <c r="BF70" s="2" t="s">
+        <v>4711</v>
+      </c>
     </row>
-    <row r="71" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI71" s="1" t="s">
-        <v>2843</v>
+    <row r="71" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH71" s="2" t="s">
+        <v>2861</v>
+      </c>
+      <c r="AI71" s="2" t="s">
+        <v>2862</v>
       </c>
       <c r="AJ71" s="1" t="s">
         <v>2915</v>
@@ -24192,10 +25923,16 @@
       <c r="BC71" s="1" t="s">
         <v>3370</v>
       </c>
+      <c r="BF71" s="2" t="s">
+        <v>4712</v>
+      </c>
     </row>
-    <row r="72" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI72" s="1" t="s">
-        <v>2844</v>
+    <row r="72" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH72" s="2" t="s">
+        <v>2863</v>
+      </c>
+      <c r="AI72" s="2" t="s">
+        <v>2864</v>
       </c>
       <c r="AJ72" s="1" t="s">
         <v>2917</v>
@@ -24257,10 +25994,16 @@
       <c r="BC72" s="1" t="s">
         <v>3388</v>
       </c>
+      <c r="BF72" s="2" t="s">
+        <v>4713</v>
+      </c>
     </row>
-    <row r="73" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI73" s="1" t="s">
-        <v>2845</v>
+    <row r="73" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH73" s="2" t="s">
+        <v>2865</v>
+      </c>
+      <c r="AI73" s="2" t="s">
+        <v>2866</v>
       </c>
       <c r="AJ73" s="1" t="s">
         <v>2919</v>
@@ -24322,10 +26065,16 @@
       <c r="BC73" s="1" t="s">
         <v>3406</v>
       </c>
+      <c r="BF73" s="2" t="s">
+        <v>4714</v>
+      </c>
     </row>
-    <row r="74" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI74" s="1" t="s">
-        <v>2846</v>
+    <row r="74" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH74" s="2" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AI74" s="2" t="s">
+        <v>2868</v>
       </c>
       <c r="AJ74" s="1" t="s">
         <v>2921</v>
@@ -24387,10 +26136,16 @@
       <c r="BC74" s="1" t="s">
         <v>3424</v>
       </c>
+      <c r="BF74" s="2" t="s">
+        <v>4715</v>
+      </c>
     </row>
-    <row r="75" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI75" s="1" t="s">
-        <v>2847</v>
+    <row r="75" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH75" s="2" t="s">
+        <v>2869</v>
+      </c>
+      <c r="AI75" s="2" t="s">
+        <v>2870</v>
       </c>
       <c r="AJ75" s="1" t="s">
         <v>2923</v>
@@ -24452,10 +26207,16 @@
       <c r="BC75" s="1" t="s">
         <v>3442</v>
       </c>
+      <c r="BF75" s="2" t="s">
+        <v>4716</v>
+      </c>
     </row>
-    <row r="76" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI76" s="1" t="s">
-        <v>2848</v>
+    <row r="76" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH76" s="2" t="s">
+        <v>2871</v>
+      </c>
+      <c r="AI76" s="2" t="s">
+        <v>2872</v>
       </c>
       <c r="AJ76" s="1" t="s">
         <v>2925</v>
@@ -24517,10 +26278,16 @@
       <c r="BC76" s="1" t="s">
         <v>3460</v>
       </c>
+      <c r="BF76" s="2" t="s">
+        <v>4717</v>
+      </c>
     </row>
-    <row r="77" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI77" s="1" t="s">
-        <v>2849</v>
+    <row r="77" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH77" s="2" t="s">
+        <v>2873</v>
+      </c>
+      <c r="AI77" s="2" t="s">
+        <v>2874</v>
       </c>
       <c r="AJ77" s="1" t="s">
         <v>2927</v>
@@ -24582,10 +26349,16 @@
       <c r="BC77" s="1" t="s">
         <v>3478</v>
       </c>
+      <c r="BF77" s="2" t="s">
+        <v>4718</v>
+      </c>
     </row>
-    <row r="78" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI78" s="1" t="s">
-        <v>2850</v>
+    <row r="78" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH78" s="2" t="s">
+        <v>2875</v>
+      </c>
+      <c r="AI78" s="2" t="s">
+        <v>2876</v>
       </c>
       <c r="AJ78" s="1" t="s">
         <v>2929</v>
@@ -24647,10 +26420,16 @@
       <c r="BC78" s="1" t="s">
         <v>3496</v>
       </c>
+      <c r="BF78" s="2" t="s">
+        <v>4719</v>
+      </c>
     </row>
-    <row r="79" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI79" s="1" t="s">
-        <v>2851</v>
+    <row r="79" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH79" s="2" t="s">
+        <v>2877</v>
+      </c>
+      <c r="AI79" s="2" t="s">
+        <v>2878</v>
       </c>
       <c r="AJ79" s="1" t="s">
         <v>2931</v>
@@ -24712,10 +26491,16 @@
       <c r="BC79" s="1" t="s">
         <v>3514</v>
       </c>
+      <c r="BF79" s="2" t="s">
+        <v>4720</v>
+      </c>
     </row>
-    <row r="80" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI80" s="1" t="s">
-        <v>2852</v>
+    <row r="80" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH80" s="2" t="s">
+        <v>4530</v>
+      </c>
+      <c r="AI80" s="2" t="s">
+        <v>4531</v>
       </c>
       <c r="AJ80" s="1" t="s">
         <v>2933</v>
@@ -24777,10 +26562,16 @@
       <c r="BC80" s="1" t="s">
         <v>3532</v>
       </c>
+      <c r="BF80" s="2" t="s">
+        <v>4721</v>
+      </c>
     </row>
-    <row r="81" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI81" s="1" t="s">
-        <v>2853</v>
+    <row r="81" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH81" s="2" t="s">
+        <v>4532</v>
+      </c>
+      <c r="AI81" s="2" t="s">
+        <v>4533</v>
       </c>
       <c r="AJ81" s="1" t="s">
         <v>2935</v>
@@ -24842,10 +26633,16 @@
       <c r="BC81" s="1" t="s">
         <v>3550</v>
       </c>
+      <c r="BF81" s="2" t="s">
+        <v>4722</v>
+      </c>
     </row>
-    <row r="82" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI82" s="1" t="s">
-        <v>2854</v>
+    <row r="82" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH82" s="2" t="s">
+        <v>4534</v>
+      </c>
+      <c r="AI82" s="2" t="s">
+        <v>4535</v>
       </c>
       <c r="AJ82" s="1" t="s">
         <v>2937</v>
@@ -24907,10 +26704,16 @@
       <c r="BC82" s="1" t="s">
         <v>3568</v>
       </c>
+      <c r="BF82" s="2" t="s">
+        <v>4723</v>
+      </c>
     </row>
-    <row r="83" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI83" s="1" t="s">
-        <v>2855</v>
+    <row r="83" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH83" s="2" t="s">
+        <v>4536</v>
+      </c>
+      <c r="AI83" s="2" t="s">
+        <v>4537</v>
       </c>
       <c r="AJ83" s="1" t="s">
         <v>2939</v>
@@ -24972,10 +26775,16 @@
       <c r="BC83" s="1" t="s">
         <v>3586</v>
       </c>
+      <c r="BF83" s="2" t="s">
+        <v>4724</v>
+      </c>
     </row>
-    <row r="84" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI84" s="1" t="s">
-        <v>2856</v>
+    <row r="84" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH84" s="2" t="s">
+        <v>4538</v>
+      </c>
+      <c r="AI84" s="2" t="s">
+        <v>4539</v>
       </c>
       <c r="AJ84" s="1" t="s">
         <v>2941</v>
@@ -25037,10 +26846,16 @@
       <c r="BC84" s="1" t="s">
         <v>3604</v>
       </c>
+      <c r="BF84" s="2" t="s">
+        <v>4725</v>
+      </c>
     </row>
-    <row r="85" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI85" s="1" t="s">
-        <v>2857</v>
+    <row r="85" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH85" s="2" t="s">
+        <v>4540</v>
+      </c>
+      <c r="AI85" s="2" t="s">
+        <v>4541</v>
       </c>
       <c r="AJ85" s="1" t="s">
         <v>2943</v>
@@ -25102,10 +26917,16 @@
       <c r="BC85" s="1" t="s">
         <v>3622</v>
       </c>
+      <c r="BF85" s="2" t="s">
+        <v>4726</v>
+      </c>
     </row>
-    <row r="86" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI86" s="1" t="s">
-        <v>2858</v>
+    <row r="86" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH86" s="2" t="s">
+        <v>4542</v>
+      </c>
+      <c r="AI86" s="2" t="s">
+        <v>4543</v>
       </c>
       <c r="AJ86" s="1" t="s">
         <v>2945</v>
@@ -25167,10 +26988,16 @@
       <c r="BC86" s="1" t="s">
         <v>3640</v>
       </c>
+      <c r="BF86" s="2" t="s">
+        <v>4727</v>
+      </c>
     </row>
-    <row r="87" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI87" s="1" t="s">
-        <v>2859</v>
+    <row r="87" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH87" s="2" t="s">
+        <v>4544</v>
+      </c>
+      <c r="AI87" s="2" t="s">
+        <v>4545</v>
       </c>
       <c r="AJ87" s="1" t="s">
         <v>2947</v>
@@ -25232,10 +27059,16 @@
       <c r="BC87" s="1" t="s">
         <v>3658</v>
       </c>
+      <c r="BF87" s="2" t="s">
+        <v>4728</v>
+      </c>
     </row>
-    <row r="88" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI88" s="1" t="s">
-        <v>2860</v>
+    <row r="88" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH88" s="2" t="s">
+        <v>4546</v>
+      </c>
+      <c r="AI88" s="2" t="s">
+        <v>4547</v>
       </c>
       <c r="AJ88" s="1" t="s">
         <v>2949</v>
@@ -25297,10 +27130,16 @@
       <c r="BC88" s="1" t="s">
         <v>3676</v>
       </c>
+      <c r="BF88" s="2" t="s">
+        <v>4729</v>
+      </c>
     </row>
-    <row r="89" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI89" s="1" t="s">
-        <v>2861</v>
+    <row r="89" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH89" s="2" t="s">
+        <v>4548</v>
+      </c>
+      <c r="AI89" s="2" t="s">
+        <v>4549</v>
       </c>
       <c r="AJ89" s="1" t="s">
         <v>2951</v>
@@ -25362,10 +27201,16 @@
       <c r="BC89" s="1" t="s">
         <v>3694</v>
       </c>
+      <c r="BF89" s="2" t="s">
+        <v>4730</v>
+      </c>
     </row>
-    <row r="90" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI90" s="1" t="s">
-        <v>2862</v>
+    <row r="90" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH90" s="2" t="s">
+        <v>4550</v>
+      </c>
+      <c r="AI90" s="2" t="s">
+        <v>4551</v>
       </c>
       <c r="AJ90" s="1" t="s">
         <v>2953</v>
@@ -25427,10 +27272,16 @@
       <c r="BC90" s="1" t="s">
         <v>3712</v>
       </c>
+      <c r="BF90" s="2" t="s">
+        <v>4731</v>
+      </c>
     </row>
-    <row r="91" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI91" s="1" t="s">
-        <v>2863</v>
+    <row r="91" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH91" s="2" t="s">
+        <v>4552</v>
+      </c>
+      <c r="AI91" s="2" t="s">
+        <v>4553</v>
       </c>
       <c r="AJ91" s="1" t="s">
         <v>2955</v>
@@ -25492,10 +27343,16 @@
       <c r="BC91" s="1" t="s">
         <v>3730</v>
       </c>
+      <c r="BF91" s="2" t="s">
+        <v>4732</v>
+      </c>
     </row>
-    <row r="92" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI92" s="1" t="s">
-        <v>2864</v>
+    <row r="92" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH92" s="2" t="s">
+        <v>4554</v>
+      </c>
+      <c r="AI92" s="2" t="s">
+        <v>4555</v>
       </c>
       <c r="AJ92" s="1" t="s">
         <v>2957</v>
@@ -25557,10 +27414,16 @@
       <c r="BC92" s="1" t="s">
         <v>3748</v>
       </c>
+      <c r="BF92" s="2" t="s">
+        <v>4733</v>
+      </c>
     </row>
-    <row r="93" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI93" s="1" t="s">
-        <v>2865</v>
+    <row r="93" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH93" s="2" t="s">
+        <v>4556</v>
+      </c>
+      <c r="AI93" s="2" t="s">
+        <v>4557</v>
       </c>
       <c r="AJ93" s="1" t="s">
         <v>2959</v>
@@ -25622,10 +27485,16 @@
       <c r="BC93" s="1" t="s">
         <v>3766</v>
       </c>
+      <c r="BF93" s="2" t="s">
+        <v>4734</v>
+      </c>
     </row>
-    <row r="94" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI94" s="1" t="s">
-        <v>2866</v>
+    <row r="94" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH94" s="2" t="s">
+        <v>4558</v>
+      </c>
+      <c r="AI94" s="2" t="s">
+        <v>4559</v>
       </c>
       <c r="AJ94" s="1" t="s">
         <v>2961</v>
@@ -25687,10 +27556,16 @@
       <c r="BC94" s="1" t="s">
         <v>3784</v>
       </c>
+      <c r="BF94" s="2" t="s">
+        <v>4735</v>
+      </c>
     </row>
-    <row r="95" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI95" s="1" t="s">
-        <v>2867</v>
+    <row r="95" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH95" s="2" t="s">
+        <v>4560</v>
+      </c>
+      <c r="AI95" s="2" t="s">
+        <v>4561</v>
       </c>
       <c r="AJ95" s="1" t="s">
         <v>2963</v>
@@ -25752,10 +27627,16 @@
       <c r="BC95" s="1" t="s">
         <v>3802</v>
       </c>
+      <c r="BF95" s="2" t="s">
+        <v>4736</v>
+      </c>
     </row>
-    <row r="96" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI96" s="1" t="s">
-        <v>2868</v>
+    <row r="96" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH96" s="2" t="s">
+        <v>4562</v>
+      </c>
+      <c r="AI96" s="2" t="s">
+        <v>4563</v>
       </c>
       <c r="AJ96" s="1" t="s">
         <v>2965</v>
@@ -25817,10 +27698,16 @@
       <c r="BC96" s="1" t="s">
         <v>3820</v>
       </c>
+      <c r="BF96" s="2" t="s">
+        <v>4737</v>
+      </c>
     </row>
-    <row r="97" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI97" s="1" t="s">
-        <v>2869</v>
+    <row r="97" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH97" s="2" t="s">
+        <v>4564</v>
+      </c>
+      <c r="AI97" s="2" t="s">
+        <v>4565</v>
       </c>
       <c r="AJ97" s="1" t="s">
         <v>2967</v>
@@ -25882,10 +27769,16 @@
       <c r="BC97" s="1" t="s">
         <v>3838</v>
       </c>
+      <c r="BF97" s="2" t="s">
+        <v>4738</v>
+      </c>
     </row>
-    <row r="98" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI98" s="1" t="s">
-        <v>2870</v>
+    <row r="98" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH98" s="2" t="s">
+        <v>4566</v>
+      </c>
+      <c r="AI98" s="2" t="s">
+        <v>4567</v>
       </c>
       <c r="AJ98" s="1" t="s">
         <v>2969</v>
@@ -25947,10 +27840,16 @@
       <c r="BC98" s="1" t="s">
         <v>3856</v>
       </c>
+      <c r="BF98" s="2" t="s">
+        <v>4739</v>
+      </c>
     </row>
-    <row r="99" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI99" s="1" t="s">
-        <v>2871</v>
+    <row r="99" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH99" s="2" t="s">
+        <v>4568</v>
+      </c>
+      <c r="AI99" s="2" t="s">
+        <v>4569</v>
       </c>
       <c r="AJ99" s="1" t="s">
         <v>2971</v>
@@ -26012,10 +27911,16 @@
       <c r="BC99" s="1" t="s">
         <v>3874</v>
       </c>
+      <c r="BF99" s="2" t="s">
+        <v>4740</v>
+      </c>
     </row>
-    <row r="100" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI100" s="1" t="s">
-        <v>2872</v>
+    <row r="100" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH100" s="2" t="s">
+        <v>4570</v>
+      </c>
+      <c r="AI100" s="2" t="s">
+        <v>4571</v>
       </c>
       <c r="AJ100" s="1" t="s">
         <v>2973</v>
@@ -26077,10 +27982,16 @@
       <c r="BC100" s="1" t="s">
         <v>3892</v>
       </c>
+      <c r="BF100" s="2" t="s">
+        <v>4741</v>
+      </c>
     </row>
-    <row r="101" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI101" s="1" t="s">
-        <v>2873</v>
+    <row r="101" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH101" s="2" t="s">
+        <v>4572</v>
+      </c>
+      <c r="AI101" s="2" t="s">
+        <v>4573</v>
       </c>
       <c r="AJ101" s="1" t="s">
         <v>2975</v>
@@ -26142,10 +28053,16 @@
       <c r="BC101" s="1" t="s">
         <v>3910</v>
       </c>
+      <c r="BF101" s="2" t="s">
+        <v>4742</v>
+      </c>
     </row>
-    <row r="102" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI102" s="1" t="s">
-        <v>2874</v>
+    <row r="102" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH102" s="2" t="s">
+        <v>4574</v>
+      </c>
+      <c r="AI102" s="2" t="s">
+        <v>4575</v>
       </c>
       <c r="AJ102" s="1" t="s">
         <v>2977</v>
@@ -26207,10 +28124,16 @@
       <c r="BC102" s="1" t="s">
         <v>3928</v>
       </c>
+      <c r="BF102" s="2" t="s">
+        <v>4743</v>
+      </c>
     </row>
-    <row r="103" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI103" s="1" t="s">
-        <v>2875</v>
+    <row r="103" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH103" s="2" t="s">
+        <v>4576</v>
+      </c>
+      <c r="AI103" s="2" t="s">
+        <v>4577</v>
       </c>
       <c r="AJ103" s="1" t="s">
         <v>2979</v>
@@ -26273,9 +28196,12 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="104" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI104" s="1" t="s">
-        <v>2876</v>
+    <row r="104" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH104" s="2" t="s">
+        <v>4578</v>
+      </c>
+      <c r="AI104" s="2" t="s">
+        <v>4579</v>
       </c>
       <c r="AJ104" s="1" t="s">
         <v>2981</v>
@@ -26338,9 +28264,12 @@
         <v>3964</v>
       </c>
     </row>
-    <row r="105" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI105" s="1" t="s">
-        <v>2877</v>
+    <row r="105" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH105" s="2" t="s">
+        <v>4580</v>
+      </c>
+      <c r="AI105" s="2" t="s">
+        <v>4581</v>
       </c>
       <c r="AJ105" s="1" t="s">
         <v>2983</v>
@@ -26403,9 +28332,12 @@
         <v>3982</v>
       </c>
     </row>
-    <row r="106" spans="35:55" x14ac:dyDescent="0.25">
-      <c r="AI106" s="1" t="s">
-        <v>2878</v>
+    <row r="106" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH106" s="2" t="s">
+        <v>4582</v>
+      </c>
+      <c r="AI106" s="2" t="s">
+        <v>4583</v>
       </c>
       <c r="AJ106" s="1" t="s">
         <v>2985</v>
@@ -26468,7 +28400,13 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="107" spans="35:55" x14ac:dyDescent="0.25">
+    <row r="107" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH107" s="2" t="s">
+        <v>4584</v>
+      </c>
+      <c r="AI107" s="2" t="s">
+        <v>4585</v>
+      </c>
       <c r="AJ107" s="1" t="s">
         <v>2987</v>
       </c>
@@ -26530,7 +28468,13 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="108" spans="35:55" x14ac:dyDescent="0.25">
+    <row r="108" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH108" s="2" t="s">
+        <v>4586</v>
+      </c>
+      <c r="AI108" s="2" t="s">
+        <v>4587</v>
+      </c>
       <c r="AJ108" s="1" t="s">
         <v>2989</v>
       </c>
@@ -26592,7 +28536,13 @@
         <v>4036</v>
       </c>
     </row>
-    <row r="109" spans="35:55" x14ac:dyDescent="0.25">
+    <row r="109" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH109" s="2" t="s">
+        <v>4588</v>
+      </c>
+      <c r="AI109" s="2" t="s">
+        <v>4589</v>
+      </c>
       <c r="AJ109" s="1" t="s">
         <v>2991</v>
       </c>
@@ -26654,7 +28604,13 @@
         <v>4054</v>
       </c>
     </row>
-    <row r="110" spans="35:55" x14ac:dyDescent="0.25">
+    <row r="110" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH110" s="2" t="s">
+        <v>4590</v>
+      </c>
+      <c r="AI110" s="2" t="s">
+        <v>4591</v>
+      </c>
       <c r="AJ110" s="1" t="s">
         <v>2993</v>
       </c>
@@ -26716,7 +28672,13 @@
         <v>4072</v>
       </c>
     </row>
-    <row r="111" spans="35:55" x14ac:dyDescent="0.25">
+    <row r="111" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH111" s="2" t="s">
+        <v>4592</v>
+      </c>
+      <c r="AI111" s="2" t="s">
+        <v>4593</v>
+      </c>
       <c r="AJ111" s="1" t="s">
         <v>2995</v>
       </c>
@@ -26778,7 +28740,13 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="112" spans="35:55" x14ac:dyDescent="0.25">
+    <row r="112" spans="34:58" x14ac:dyDescent="0.25">
+      <c r="AH112" s="2" t="s">
+        <v>4594</v>
+      </c>
+      <c r="AI112" s="2" t="s">
+        <v>4595</v>
+      </c>
       <c r="AJ112" s="1" t="s">
         <v>2997</v>
       </c>
@@ -26840,7 +28808,13 @@
         <v>4108</v>
       </c>
     </row>
-    <row r="113" spans="36:55" x14ac:dyDescent="0.25">
+    <row r="113" spans="34:55" x14ac:dyDescent="0.25">
+      <c r="AH113" s="2" t="s">
+        <v>4596</v>
+      </c>
+      <c r="AI113" s="2" t="s">
+        <v>4597</v>
+      </c>
       <c r="AJ113" s="1" t="s">
         <v>2999</v>
       </c>
@@ -26902,7 +28876,13 @@
         <v>4126</v>
       </c>
     </row>
-    <row r="114" spans="36:55" x14ac:dyDescent="0.25">
+    <row r="114" spans="34:55" x14ac:dyDescent="0.25">
+      <c r="AH114" s="2" t="s">
+        <v>4598</v>
+      </c>
+      <c r="AI114" s="2" t="s">
+        <v>4599</v>
+      </c>
       <c r="AJ114" s="1" t="s">
         <v>3001</v>
       </c>
@@ -26964,7 +28944,13 @@
         <v>4144</v>
       </c>
     </row>
-    <row r="115" spans="36:55" x14ac:dyDescent="0.25">
+    <row r="115" spans="34:55" x14ac:dyDescent="0.25">
+      <c r="AH115" s="2" t="s">
+        <v>4600</v>
+      </c>
+      <c r="AI115" s="2" t="s">
+        <v>4601</v>
+      </c>
       <c r="AJ115" s="1" t="s">
         <v>3003</v>
       </c>
@@ -27026,7 +29012,13 @@
         <v>4162</v>
       </c>
     </row>
-    <row r="116" spans="36:55" x14ac:dyDescent="0.25">
+    <row r="116" spans="34:55" x14ac:dyDescent="0.25">
+      <c r="AH116" s="2" t="s">
+        <v>4602</v>
+      </c>
+      <c r="AI116" s="2" t="s">
+        <v>4603</v>
+      </c>
       <c r="AJ116" s="1" t="s">
         <v>3005</v>
       </c>
@@ -27088,7 +29080,13 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="117" spans="36:55" x14ac:dyDescent="0.25">
+    <row r="117" spans="34:55" x14ac:dyDescent="0.25">
+      <c r="AH117" s="2" t="s">
+        <v>4604</v>
+      </c>
+      <c r="AI117" s="2" t="s">
+        <v>4605</v>
+      </c>
       <c r="AJ117" s="1" t="s">
         <v>3007</v>
       </c>
@@ -27150,7 +29148,13 @@
         <v>4198</v>
       </c>
     </row>
-    <row r="118" spans="36:55" x14ac:dyDescent="0.25">
+    <row r="118" spans="34:55" x14ac:dyDescent="0.25">
+      <c r="AH118" s="2" t="s">
+        <v>4606</v>
+      </c>
+      <c r="AI118" s="2" t="s">
+        <v>4607</v>
+      </c>
       <c r="AJ118" s="1" t="s">
         <v>3009</v>
       </c>
@@ -27212,7 +29216,13 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="119" spans="36:55" x14ac:dyDescent="0.25">
+    <row r="119" spans="34:55" x14ac:dyDescent="0.25">
+      <c r="AH119" s="2" t="s">
+        <v>4608</v>
+      </c>
+      <c r="AI119" s="2" t="s">
+        <v>4609</v>
+      </c>
       <c r="AJ119" s="1" t="s">
         <v>3011</v>
       </c>
@@ -27274,7 +29284,13 @@
         <v>4234</v>
       </c>
     </row>
-    <row r="120" spans="36:55" x14ac:dyDescent="0.25">
+    <row r="120" spans="34:55" x14ac:dyDescent="0.25">
+      <c r="AH120" s="2" t="s">
+        <v>4610</v>
+      </c>
+      <c r="AI120" s="2" t="s">
+        <v>4611</v>
+      </c>
       <c r="AJ120" s="1" t="s">
         <v>3013</v>
       </c>
@@ -27336,7 +29352,13 @@
         <v>4252</v>
       </c>
     </row>
-    <row r="121" spans="36:55" x14ac:dyDescent="0.25">
+    <row r="121" spans="34:55" x14ac:dyDescent="0.25">
+      <c r="AH121" s="2" t="s">
+        <v>4612</v>
+      </c>
+      <c r="AI121" s="2" t="s">
+        <v>4613</v>
+      </c>
       <c r="AJ121" s="1" t="s">
         <v>3015</v>
       </c>
@@ -27398,7 +29420,13 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="122" spans="36:55" x14ac:dyDescent="0.25">
+    <row r="122" spans="34:55" x14ac:dyDescent="0.25">
+      <c r="AH122" s="2" t="s">
+        <v>4614</v>
+      </c>
+      <c r="AI122" s="2" t="s">
+        <v>4615</v>
+      </c>
       <c r="AJ122" s="1" t="s">
         <v>3017</v>
       </c>
@@ -27460,7 +29488,13 @@
         <v>4288</v>
       </c>
     </row>
-    <row r="123" spans="36:55" x14ac:dyDescent="0.25">
+    <row r="123" spans="34:55" x14ac:dyDescent="0.25">
+      <c r="AH123" s="2" t="s">
+        <v>4616</v>
+      </c>
+      <c r="AI123" s="2" t="s">
+        <v>4617</v>
+      </c>
       <c r="AJ123" s="1" t="s">
         <v>3019</v>
       </c>
@@ -27522,7 +29556,13 @@
         <v>4306</v>
       </c>
     </row>
-    <row r="124" spans="36:55" x14ac:dyDescent="0.25">
+    <row r="124" spans="34:55" x14ac:dyDescent="0.25">
+      <c r="AH124" s="2" t="s">
+        <v>4618</v>
+      </c>
+      <c r="AI124" s="2" t="s">
+        <v>4619</v>
+      </c>
       <c r="AJ124" s="1" t="s">
         <v>3021</v>
       </c>
@@ -27584,7 +29624,13 @@
         <v>4324</v>
       </c>
     </row>
-    <row r="125" spans="36:55" x14ac:dyDescent="0.25">
+    <row r="125" spans="34:55" x14ac:dyDescent="0.25">
+      <c r="AH125" s="2" t="s">
+        <v>4620</v>
+      </c>
+      <c r="AI125" s="2" t="s">
+        <v>4621</v>
+      </c>
       <c r="AJ125" s="1" t="s">
         <v>3023</v>
       </c>
@@ -27646,7 +29692,13 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="126" spans="36:55" x14ac:dyDescent="0.25">
+    <row r="126" spans="34:55" x14ac:dyDescent="0.25">
+      <c r="AH126" s="2" t="s">
+        <v>4622</v>
+      </c>
+      <c r="AI126" s="2" t="s">
+        <v>4623</v>
+      </c>
       <c r="AJ126" s="1" t="s">
         <v>3025</v>
       </c>
@@ -27708,7 +29760,13 @@
         <v>4360</v>
       </c>
     </row>
-    <row r="127" spans="36:55" x14ac:dyDescent="0.25">
+    <row r="127" spans="34:55" x14ac:dyDescent="0.25">
+      <c r="AH127" s="2" t="s">
+        <v>4624</v>
+      </c>
+      <c r="AI127" s="2" t="s">
+        <v>4625</v>
+      </c>
       <c r="AJ127" s="1" t="s">
         <v>3027</v>
       </c>

--- a/_LAYOUT.xlsx
+++ b/_LAYOUT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\BinSortSequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6B1B08-84EF-4D94-A6BB-2BAE379DDE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479B903C-96C0-4116-8CC6-65C64FA711A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WAREHOUSE_LAYOUT" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="4750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4862" uniqueCount="4754">
   <si>
     <t>01-001-1</t>
   </si>
@@ -14285,6 +14285,18 @@
   </si>
   <si>
     <t>8040-003</t>
+  </si>
+  <si>
+    <t>AisleUPick#</t>
+  </si>
+  <si>
+    <t>U-pick pattern sorting of # length in ascending order</t>
+  </si>
+  <si>
+    <t>U-pick pattern sorting of # length in descending order</t>
+  </si>
+  <si>
+    <t>AisleReverseUPick#</t>
   </si>
 </sst>
 </file>
@@ -15159,7 +15171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -30788,10 +30800,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEB32EA-3168-4C84-A276-945E883034DE}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30840,6 +30852,22 @@
         <v>2814</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4750</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4753</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4752</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_LAYOUT.xlsx
+++ b/_LAYOUT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\BinSortSequence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479B903C-96C0-4116-8CC6-65C64FA711A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54633789-69C5-485A-B953-62BA215DCB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WAREHOUSE_LAYOUT" sheetId="1" r:id="rId1"/>
@@ -8491,9 +8491,6 @@
     <t>Reserves</t>
   </si>
   <si>
-    <t>AisleZig:</t>
-  </si>
-  <si>
     <t>CONFIG</t>
   </si>
   <si>
@@ -8503,15 +8500,6 @@
     <t>LaneSingle.1.6.9000</t>
   </si>
   <si>
-    <t>AisleReverseZig.1.6.9000</t>
-  </si>
-  <si>
-    <t>AisleZig.1.6.9000</t>
-  </si>
-  <si>
-    <t>AisleZig:.1.6.9000</t>
-  </si>
-  <si>
     <t>18-103-1</t>
   </si>
   <si>
@@ -14297,6 +14285,18 @@
   </si>
   <si>
     <t>AisleReverseUPick#</t>
+  </si>
+  <si>
+    <t>AisleUPick3</t>
+  </si>
+  <si>
+    <t>AisleReverseUPick3</t>
+  </si>
+  <si>
+    <t>AisleUPick3.1.6.9000</t>
+  </si>
+  <si>
+    <t>AisleReverseUPick3.1.6.9000</t>
   </si>
 </sst>
 </file>
@@ -15171,8 +15171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15212,181 +15212,181 @@
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2824</v>
+        <v>4753</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>2823</v>
+        <v>4753</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>2822</v>
+        <v>4752</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>4379</v>
+        <v>4375</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>4379</v>
+        <v>4375</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>4379</v>
+        <v>4375</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>4379</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
@@ -15556,16 +15556,16 @@
         <v>54</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>4390</v>
+        <v>4386</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>4400</v>
+        <v>4396</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>4380</v>
+        <v>4376</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>4744</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -15735,16 +15735,16 @@
         <v>109</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>4391</v>
+        <v>4387</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>4401</v>
+        <v>4397</v>
       </c>
       <c r="BF3" s="2" t="s">
-        <v>4385</v>
+        <v>4381</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>4745</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
@@ -15914,16 +15914,16 @@
         <v>164</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>4392</v>
+        <v>4388</v>
       </c>
       <c r="BE4" s="2" t="s">
-        <v>4402</v>
+        <v>4398</v>
       </c>
       <c r="BF4" s="2" t="s">
-        <v>4381</v>
+        <v>4377</v>
       </c>
       <c r="BG4" s="2" t="s">
-        <v>4746</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
@@ -16093,16 +16093,16 @@
         <v>219</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>4393</v>
+        <v>4389</v>
       </c>
       <c r="BE5" s="2" t="s">
-        <v>4403</v>
+        <v>4399</v>
       </c>
       <c r="BF5" s="2" t="s">
-        <v>4386</v>
+        <v>4382</v>
       </c>
       <c r="BG5" s="2" t="s">
-        <v>4747</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
@@ -16272,16 +16272,16 @@
         <v>274</v>
       </c>
       <c r="BD6" s="1" t="s">
-        <v>4394</v>
+        <v>4390</v>
       </c>
       <c r="BE6" s="2" t="s">
-        <v>4404</v>
+        <v>4400</v>
       </c>
       <c r="BF6" s="2" t="s">
-        <v>4382</v>
+        <v>4378</v>
       </c>
       <c r="BG6" s="2" t="s">
-        <v>4748</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
@@ -16451,16 +16451,16 @@
         <v>329</v>
       </c>
       <c r="BD7" s="1" t="s">
-        <v>4395</v>
+        <v>4391</v>
       </c>
       <c r="BE7" s="2" t="s">
-        <v>4405</v>
+        <v>4401</v>
       </c>
       <c r="BF7" s="2" t="s">
-        <v>4387</v>
+        <v>4383</v>
       </c>
       <c r="BG7" s="2" t="s">
-        <v>4749</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
@@ -16630,13 +16630,13 @@
         <v>384</v>
       </c>
       <c r="BD8" s="1" t="s">
-        <v>4396</v>
+        <v>4392</v>
       </c>
       <c r="BE8" s="2" t="s">
-        <v>4406</v>
+        <v>4402</v>
       </c>
       <c r="BF8" s="2" t="s">
-        <v>4383</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
@@ -16806,13 +16806,13 @@
         <v>439</v>
       </c>
       <c r="BD9" s="1" t="s">
-        <v>4397</v>
+        <v>4393</v>
       </c>
       <c r="BE9" s="2" t="s">
-        <v>4407</v>
+        <v>4403</v>
       </c>
       <c r="BF9" s="2" t="s">
-        <v>4388</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
@@ -16982,13 +16982,13 @@
         <v>494</v>
       </c>
       <c r="BD10" s="1" t="s">
-        <v>4398</v>
+        <v>4394</v>
       </c>
       <c r="BE10" s="2" t="s">
-        <v>4408</v>
+        <v>4404</v>
       </c>
       <c r="BF10" s="2" t="s">
-        <v>4384</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
@@ -17158,13 +17158,13 @@
         <v>549</v>
       </c>
       <c r="BD11" s="1" t="s">
-        <v>4399</v>
+        <v>4395</v>
       </c>
       <c r="BE11" s="2" t="s">
-        <v>4409</v>
+        <v>4405</v>
       </c>
       <c r="BF11" s="2" t="s">
-        <v>4389</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
@@ -17334,10 +17334,10 @@
         <v>604</v>
       </c>
       <c r="BE12" s="2" t="s">
-        <v>4626</v>
+        <v>4622</v>
       </c>
       <c r="BF12" s="2" t="s">
-        <v>4653</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
@@ -17507,10 +17507,10 @@
         <v>659</v>
       </c>
       <c r="BE13" s="2" t="s">
-        <v>4627</v>
+        <v>4623</v>
       </c>
       <c r="BF13" s="2" t="s">
-        <v>4654</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
@@ -17680,10 +17680,10 @@
         <v>714</v>
       </c>
       <c r="BE14" s="2" t="s">
-        <v>4628</v>
+        <v>4624</v>
       </c>
       <c r="BF14" s="2" t="s">
-        <v>4655</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
@@ -17853,10 +17853,10 @@
         <v>769</v>
       </c>
       <c r="BE15" s="2" t="s">
-        <v>4629</v>
+        <v>4625</v>
       </c>
       <c r="BF15" s="2" t="s">
-        <v>4656</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -18026,10 +18026,10 @@
         <v>824</v>
       </c>
       <c r="BE16" s="2" t="s">
-        <v>4630</v>
+        <v>4626</v>
       </c>
       <c r="BF16" s="2" t="s">
-        <v>4657</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
@@ -18199,10 +18199,10 @@
         <v>879</v>
       </c>
       <c r="BE17" s="2" t="s">
-        <v>4631</v>
+        <v>4627</v>
       </c>
       <c r="BF17" s="2" t="s">
-        <v>4658</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
@@ -18372,10 +18372,10 @@
         <v>934</v>
       </c>
       <c r="BE18" s="2" t="s">
-        <v>4632</v>
+        <v>4628</v>
       </c>
       <c r="BF18" s="2" t="s">
-        <v>4659</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
@@ -18545,10 +18545,10 @@
         <v>989</v>
       </c>
       <c r="BE19" s="2" t="s">
-        <v>4633</v>
+        <v>4629</v>
       </c>
       <c r="BF19" s="2" t="s">
-        <v>4660</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
@@ -18718,10 +18718,10 @@
         <v>1044</v>
       </c>
       <c r="BE20" s="2" t="s">
-        <v>4634</v>
+        <v>4630</v>
       </c>
       <c r="BF20" s="2" t="s">
-        <v>4661</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
@@ -18891,10 +18891,10 @@
         <v>1099</v>
       </c>
       <c r="BE21" s="2" t="s">
-        <v>4635</v>
+        <v>4631</v>
       </c>
       <c r="BF21" s="2" t="s">
-        <v>4662</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
@@ -19064,10 +19064,10 @@
         <v>1154</v>
       </c>
       <c r="BE22" s="2" t="s">
-        <v>4636</v>
+        <v>4632</v>
       </c>
       <c r="BF22" s="2" t="s">
-        <v>4663</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
@@ -19237,10 +19237,10 @@
         <v>1209</v>
       </c>
       <c r="BE23" s="2" t="s">
-        <v>4637</v>
+        <v>4633</v>
       </c>
       <c r="BF23" s="2" t="s">
-        <v>4664</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
@@ -19410,10 +19410,10 @@
         <v>1264</v>
       </c>
       <c r="BE24" s="2" t="s">
-        <v>4638</v>
+        <v>4634</v>
       </c>
       <c r="BF24" s="2" t="s">
-        <v>4665</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
@@ -19583,10 +19583,10 @@
         <v>1319</v>
       </c>
       <c r="BE25" s="2" t="s">
-        <v>4639</v>
+        <v>4635</v>
       </c>
       <c r="BF25" s="2" t="s">
-        <v>4666</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
@@ -19756,10 +19756,10 @@
         <v>1374</v>
       </c>
       <c r="BE26" s="2" t="s">
-        <v>4640</v>
+        <v>4636</v>
       </c>
       <c r="BF26" s="2" t="s">
-        <v>4667</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
@@ -19929,10 +19929,10 @@
         <v>1429</v>
       </c>
       <c r="BE27" s="2" t="s">
-        <v>4641</v>
+        <v>4637</v>
       </c>
       <c r="BF27" s="2" t="s">
-        <v>4668</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
@@ -20102,10 +20102,10 @@
         <v>1484</v>
       </c>
       <c r="BE28" s="2" t="s">
-        <v>4642</v>
+        <v>4638</v>
       </c>
       <c r="BF28" s="2" t="s">
-        <v>4669</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.25">
@@ -20275,10 +20275,10 @@
         <v>1539</v>
       </c>
       <c r="BE29" s="2" t="s">
-        <v>4643</v>
+        <v>4639</v>
       </c>
       <c r="BF29" s="2" t="s">
-        <v>4670</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.25">
@@ -20448,10 +20448,10 @@
         <v>1594</v>
       </c>
       <c r="BE30" s="2" t="s">
-        <v>4644</v>
+        <v>4640</v>
       </c>
       <c r="BF30" s="2" t="s">
-        <v>4671</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.25">
@@ -20621,10 +20621,10 @@
         <v>1649</v>
       </c>
       <c r="BE31" s="2" t="s">
-        <v>4645</v>
+        <v>4641</v>
       </c>
       <c r="BF31" s="2" t="s">
-        <v>4672</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.25">
@@ -20794,10 +20794,10 @@
         <v>1704</v>
       </c>
       <c r="BE32" s="2" t="s">
-        <v>4646</v>
+        <v>4642</v>
       </c>
       <c r="BF32" s="2" t="s">
-        <v>4673</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="33" spans="1:58" x14ac:dyDescent="0.25">
@@ -20967,10 +20967,10 @@
         <v>1759</v>
       </c>
       <c r="BE33" s="2" t="s">
-        <v>4647</v>
+        <v>4643</v>
       </c>
       <c r="BF33" s="2" t="s">
-        <v>4674</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="34" spans="1:58" x14ac:dyDescent="0.25">
@@ -21140,10 +21140,10 @@
         <v>1814</v>
       </c>
       <c r="BE34" s="2" t="s">
-        <v>4648</v>
+        <v>4644</v>
       </c>
       <c r="BF34" s="2" t="s">
-        <v>4675</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="35" spans="1:58" x14ac:dyDescent="0.25">
@@ -21313,10 +21313,10 @@
         <v>1869</v>
       </c>
       <c r="BE35" s="2" t="s">
-        <v>4649</v>
+        <v>4645</v>
       </c>
       <c r="BF35" s="2" t="s">
-        <v>4676</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="36" spans="1:58" x14ac:dyDescent="0.25">
@@ -21486,10 +21486,10 @@
         <v>1924</v>
       </c>
       <c r="BE36" s="2" t="s">
-        <v>4650</v>
+        <v>4646</v>
       </c>
       <c r="BF36" s="2" t="s">
-        <v>4677</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="37" spans="1:58" x14ac:dyDescent="0.25">
@@ -21659,10 +21659,10 @@
         <v>1979</v>
       </c>
       <c r="BE37" s="2" t="s">
-        <v>4651</v>
+        <v>4647</v>
       </c>
       <c r="BF37" s="2" t="s">
-        <v>4678</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="38" spans="1:58" x14ac:dyDescent="0.25">
@@ -21832,10 +21832,10 @@
         <v>2034</v>
       </c>
       <c r="BE38" s="2" t="s">
-        <v>4652</v>
+        <v>4648</v>
       </c>
       <c r="BF38" s="2" t="s">
-        <v>4679</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="39" spans="1:58" x14ac:dyDescent="0.25">
@@ -22005,7 +22005,7 @@
         <v>2089</v>
       </c>
       <c r="BF39" s="2" t="s">
-        <v>4680</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="40" spans="1:58" x14ac:dyDescent="0.25">
@@ -22175,7 +22175,7 @@
         <v>2144</v>
       </c>
       <c r="BF40" s="2" t="s">
-        <v>4681</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="41" spans="1:58" x14ac:dyDescent="0.25">
@@ -22345,7 +22345,7 @@
         <v>2199</v>
       </c>
       <c r="BF41" s="2" t="s">
-        <v>4682</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="42" spans="1:58" x14ac:dyDescent="0.25">
@@ -22515,7 +22515,7 @@
         <v>2254</v>
       </c>
       <c r="BF42" s="2" t="s">
-        <v>4683</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="43" spans="1:58" x14ac:dyDescent="0.25">
@@ -22685,7 +22685,7 @@
         <v>2309</v>
       </c>
       <c r="BF43" s="2" t="s">
-        <v>4684</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="44" spans="1:58" x14ac:dyDescent="0.25">
@@ -22855,7 +22855,7 @@
         <v>2364</v>
       </c>
       <c r="BF44" s="2" t="s">
-        <v>4685</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="45" spans="1:58" x14ac:dyDescent="0.25">
@@ -23025,7 +23025,7 @@
         <v>2419</v>
       </c>
       <c r="BF45" s="2" t="s">
-        <v>4686</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="46" spans="1:58" x14ac:dyDescent="0.25">
@@ -23195,7 +23195,7 @@
         <v>2474</v>
       </c>
       <c r="BF46" s="2" t="s">
-        <v>4687</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="47" spans="1:58" x14ac:dyDescent="0.25">
@@ -23365,7 +23365,7 @@
         <v>2529</v>
       </c>
       <c r="BF47" s="2" t="s">
-        <v>4688</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="48" spans="1:58" x14ac:dyDescent="0.25">
@@ -23535,7 +23535,7 @@
         <v>2584</v>
       </c>
       <c r="BF48" s="2" t="s">
-        <v>4689</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="49" spans="1:58" x14ac:dyDescent="0.25">
@@ -23705,7 +23705,7 @@
         <v>2639</v>
       </c>
       <c r="BF49" s="2" t="s">
-        <v>4690</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="50" spans="1:58" x14ac:dyDescent="0.25">
@@ -23875,7 +23875,7 @@
         <v>2694</v>
       </c>
       <c r="BF50" s="2" t="s">
-        <v>4691</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="51" spans="1:58" x14ac:dyDescent="0.25">
@@ -24045,7 +24045,7 @@
         <v>2749</v>
       </c>
       <c r="BF51" s="2" t="s">
-        <v>4692</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="52" spans="1:58" x14ac:dyDescent="0.25">
@@ -24215,5629 +24215,5629 @@
         <v>2804</v>
       </c>
       <c r="BF52" s="2" t="s">
-        <v>4693</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="53" spans="1:58" x14ac:dyDescent="0.25">
       <c r="N53" s="2" t="s">
-        <v>4410</v>
+        <v>4406</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>4411</v>
+        <v>4407</v>
       </c>
       <c r="P53" s="2" t="s">
+        <v>4418</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>4419</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>4420</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>4421</v>
+      </c>
+      <c r="T53" s="2" t="s">
         <v>4422</v>
       </c>
-      <c r="Q53" s="2" t="s">
+      <c r="U53" s="2" t="s">
         <v>4423</v>
       </c>
-      <c r="R53" s="2" t="s">
+      <c r="V53" s="2" t="s">
         <v>4424</v>
       </c>
-      <c r="S53" s="2" t="s">
+      <c r="W53" s="2" t="s">
         <v>4425</v>
       </c>
-      <c r="T53" s="2" t="s">
+      <c r="X53" s="2" t="s">
         <v>4426</v>
       </c>
-      <c r="U53" s="2" t="s">
+      <c r="Y53" s="2" t="s">
         <v>4427</v>
       </c>
-      <c r="V53" s="2" t="s">
+      <c r="Z53" s="2" t="s">
         <v>4428</v>
       </c>
-      <c r="W53" s="2" t="s">
+      <c r="AA53" s="2" t="s">
         <v>4429</v>
       </c>
-      <c r="X53" s="2" t="s">
+      <c r="AB53" s="2" t="s">
         <v>4430</v>
       </c>
-      <c r="Y53" s="2" t="s">
+      <c r="AC53" s="2" t="s">
         <v>4431</v>
       </c>
-      <c r="Z53" s="2" t="s">
+      <c r="AD53" s="2" t="s">
         <v>4432</v>
       </c>
-      <c r="AA53" s="2" t="s">
+      <c r="AE53" s="2" t="s">
         <v>4433</v>
       </c>
-      <c r="AB53" s="2" t="s">
+      <c r="AF53" s="2" t="s">
         <v>4434</v>
       </c>
-      <c r="AC53" s="2" t="s">
+      <c r="AG53" s="2" t="s">
         <v>4435</v>
       </c>
-      <c r="AD53" s="2" t="s">
-        <v>4436</v>
-      </c>
-      <c r="AE53" s="2" t="s">
-        <v>4437</v>
-      </c>
-      <c r="AF53" s="2" t="s">
-        <v>4438</v>
-      </c>
-      <c r="AG53" s="2" t="s">
-        <v>4439</v>
-      </c>
       <c r="AH53" s="2" t="s">
-        <v>2825</v>
+        <v>2821</v>
       </c>
       <c r="AI53" s="2" t="s">
-        <v>2826</v>
+        <v>2822</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>2879</v>
+        <v>2875</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>2880</v>
+        <v>2876</v>
       </c>
       <c r="AL53" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="AM53" s="1" t="s">
+        <v>3026</v>
+      </c>
+      <c r="AN53" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="AO53" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="AP53" s="1" t="s">
         <v>3029</v>
       </c>
-      <c r="AM53" s="1" t="s">
+      <c r="AQ53" s="1" t="s">
         <v>3030</v>
       </c>
-      <c r="AN53" s="1" t="s">
+      <c r="AR53" s="1" t="s">
         <v>3031</v>
       </c>
-      <c r="AO53" s="1" t="s">
+      <c r="AS53" s="1" t="s">
         <v>3032</v>
       </c>
-      <c r="AP53" s="1" t="s">
+      <c r="AT53" s="1" t="s">
         <v>3033</v>
       </c>
-      <c r="AQ53" s="1" t="s">
+      <c r="AU53" s="1" t="s">
         <v>3034</v>
       </c>
-      <c r="AR53" s="1" t="s">
+      <c r="AV53" s="1" t="s">
         <v>3035</v>
       </c>
-      <c r="AS53" s="1" t="s">
+      <c r="AW53" s="1" t="s">
         <v>3036</v>
       </c>
-      <c r="AT53" s="1" t="s">
+      <c r="AX53" s="1" t="s">
         <v>3037</v>
       </c>
-      <c r="AU53" s="1" t="s">
+      <c r="AY53" s="1" t="s">
         <v>3038</v>
       </c>
-      <c r="AV53" s="1" t="s">
+      <c r="AZ53" s="1" t="s">
         <v>3039</v>
       </c>
-      <c r="AW53" s="1" t="s">
+      <c r="BA53" s="1" t="s">
         <v>3040</v>
       </c>
-      <c r="AX53" s="1" t="s">
+      <c r="BB53" s="1" t="s">
         <v>3041</v>
       </c>
-      <c r="AY53" s="1" t="s">
+      <c r="BC53" s="1" t="s">
         <v>3042</v>
       </c>
-      <c r="AZ53" s="1" t="s">
-        <v>3043</v>
-      </c>
-      <c r="BA53" s="1" t="s">
-        <v>3044</v>
-      </c>
-      <c r="BB53" s="1" t="s">
-        <v>3045</v>
-      </c>
-      <c r="BC53" s="1" t="s">
-        <v>3046</v>
-      </c>
       <c r="BF53" s="2" t="s">
-        <v>4694</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="54" spans="1:58" x14ac:dyDescent="0.25">
       <c r="N54" s="2" t="s">
-        <v>4412</v>
+        <v>4408</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>4413</v>
+        <v>4409</v>
       </c>
       <c r="P54" s="2" t="s">
+        <v>4436</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>4437</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>4438</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>4439</v>
+      </c>
+      <c r="T54" s="2" t="s">
         <v>4440</v>
       </c>
-      <c r="Q54" s="2" t="s">
+      <c r="U54" s="2" t="s">
         <v>4441</v>
       </c>
-      <c r="R54" s="2" t="s">
+      <c r="V54" s="2" t="s">
         <v>4442</v>
       </c>
-      <c r="S54" s="2" t="s">
+      <c r="W54" s="2" t="s">
         <v>4443</v>
       </c>
-      <c r="T54" s="2" t="s">
+      <c r="X54" s="2" t="s">
         <v>4444</v>
       </c>
-      <c r="U54" s="2" t="s">
+      <c r="Y54" s="2" t="s">
         <v>4445</v>
       </c>
-      <c r="V54" s="2" t="s">
+      <c r="Z54" s="2" t="s">
         <v>4446</v>
       </c>
-      <c r="W54" s="2" t="s">
+      <c r="AA54" s="2" t="s">
         <v>4447</v>
       </c>
-      <c r="X54" s="2" t="s">
+      <c r="AB54" s="2" t="s">
         <v>4448</v>
       </c>
-      <c r="Y54" s="2" t="s">
+      <c r="AC54" s="2" t="s">
         <v>4449</v>
       </c>
-      <c r="Z54" s="2" t="s">
+      <c r="AD54" s="2" t="s">
         <v>4450</v>
       </c>
-      <c r="AA54" s="2" t="s">
+      <c r="AE54" s="2" t="s">
         <v>4451</v>
       </c>
-      <c r="AB54" s="2" t="s">
+      <c r="AF54" s="2" t="s">
         <v>4452</v>
       </c>
-      <c r="AC54" s="2" t="s">
+      <c r="AG54" s="2" t="s">
         <v>4453</v>
       </c>
-      <c r="AD54" s="2" t="s">
-        <v>4454</v>
-      </c>
-      <c r="AE54" s="2" t="s">
-        <v>4455</v>
-      </c>
-      <c r="AF54" s="2" t="s">
-        <v>4456</v>
-      </c>
-      <c r="AG54" s="2" t="s">
-        <v>4457</v>
-      </c>
       <c r="AH54" s="2" t="s">
-        <v>2827</v>
+        <v>2823</v>
       </c>
       <c r="AI54" s="2" t="s">
-        <v>2828</v>
+        <v>2824</v>
       </c>
       <c r="AJ54" s="1" t="s">
-        <v>2881</v>
+        <v>2877</v>
       </c>
       <c r="AK54" s="1" t="s">
-        <v>2882</v>
+        <v>2878</v>
       </c>
       <c r="AL54" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="AM54" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="AN54" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="AO54" s="1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="AP54" s="1" t="s">
         <v>3047</v>
       </c>
-      <c r="AM54" s="1" t="s">
+      <c r="AQ54" s="1" t="s">
         <v>3048</v>
       </c>
-      <c r="AN54" s="1" t="s">
+      <c r="AR54" s="1" t="s">
         <v>3049</v>
       </c>
-      <c r="AO54" s="1" t="s">
+      <c r="AS54" s="1" t="s">
         <v>3050</v>
       </c>
-      <c r="AP54" s="1" t="s">
+      <c r="AT54" s="1" t="s">
         <v>3051</v>
       </c>
-      <c r="AQ54" s="1" t="s">
+      <c r="AU54" s="1" t="s">
         <v>3052</v>
       </c>
-      <c r="AR54" s="1" t="s">
+      <c r="AV54" s="1" t="s">
         <v>3053</v>
       </c>
-      <c r="AS54" s="1" t="s">
+      <c r="AW54" s="1" t="s">
         <v>3054</v>
       </c>
-      <c r="AT54" s="1" t="s">
+      <c r="AX54" s="1" t="s">
         <v>3055</v>
       </c>
-      <c r="AU54" s="1" t="s">
+      <c r="AY54" s="1" t="s">
         <v>3056</v>
       </c>
-      <c r="AV54" s="1" t="s">
+      <c r="AZ54" s="1" t="s">
         <v>3057</v>
       </c>
-      <c r="AW54" s="1" t="s">
+      <c r="BA54" s="1" t="s">
         <v>3058</v>
       </c>
-      <c r="AX54" s="1" t="s">
+      <c r="BB54" s="1" t="s">
         <v>3059</v>
       </c>
-      <c r="AY54" s="1" t="s">
+      <c r="BC54" s="1" t="s">
         <v>3060</v>
       </c>
-      <c r="AZ54" s="1" t="s">
-        <v>3061</v>
-      </c>
-      <c r="BA54" s="1" t="s">
-        <v>3062</v>
-      </c>
-      <c r="BB54" s="1" t="s">
-        <v>3063</v>
-      </c>
-      <c r="BC54" s="1" t="s">
-        <v>3064</v>
-      </c>
       <c r="BF54" s="2" t="s">
-        <v>4695</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="55" spans="1:58" x14ac:dyDescent="0.25">
       <c r="N55" s="2" t="s">
-        <v>4414</v>
+        <v>4410</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>4415</v>
+        <v>4411</v>
       </c>
       <c r="P55" s="2" t="s">
+        <v>4454</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>4455</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>4456</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>4457</v>
+      </c>
+      <c r="T55" s="2" t="s">
         <v>4458</v>
       </c>
-      <c r="Q55" s="2" t="s">
+      <c r="U55" s="2" t="s">
         <v>4459</v>
       </c>
-      <c r="R55" s="2" t="s">
+      <c r="V55" s="2" t="s">
         <v>4460</v>
       </c>
-      <c r="S55" s="2" t="s">
+      <c r="W55" s="2" t="s">
         <v>4461</v>
       </c>
-      <c r="T55" s="2" t="s">
+      <c r="X55" s="2" t="s">
         <v>4462</v>
       </c>
-      <c r="U55" s="2" t="s">
+      <c r="Y55" s="2" t="s">
         <v>4463</v>
       </c>
-      <c r="V55" s="2" t="s">
+      <c r="Z55" s="2" t="s">
         <v>4464</v>
       </c>
-      <c r="W55" s="2" t="s">
+      <c r="AA55" s="2" t="s">
         <v>4465</v>
       </c>
-      <c r="X55" s="2" t="s">
+      <c r="AB55" s="2" t="s">
         <v>4466</v>
       </c>
-      <c r="Y55" s="2" t="s">
+      <c r="AC55" s="2" t="s">
         <v>4467</v>
       </c>
-      <c r="Z55" s="2" t="s">
+      <c r="AD55" s="2" t="s">
         <v>4468</v>
       </c>
-      <c r="AA55" s="2" t="s">
+      <c r="AE55" s="2" t="s">
         <v>4469</v>
       </c>
-      <c r="AB55" s="2" t="s">
+      <c r="AF55" s="2" t="s">
         <v>4470</v>
       </c>
-      <c r="AC55" s="2" t="s">
+      <c r="AG55" s="2" t="s">
         <v>4471</v>
       </c>
-      <c r="AD55" s="2" t="s">
-        <v>4472</v>
-      </c>
-      <c r="AE55" s="2" t="s">
-        <v>4473</v>
-      </c>
-      <c r="AF55" s="2" t="s">
-        <v>4474</v>
-      </c>
-      <c r="AG55" s="2" t="s">
-        <v>4475</v>
-      </c>
       <c r="AH55" s="2" t="s">
-        <v>2829</v>
+        <v>2825</v>
       </c>
       <c r="AI55" s="2" t="s">
-        <v>2830</v>
+        <v>2826</v>
       </c>
       <c r="AJ55" s="1" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
       <c r="AK55" s="1" t="s">
-        <v>2884</v>
+        <v>2880</v>
       </c>
       <c r="AL55" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="AM55" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="AN55" s="1" t="s">
+        <v>3063</v>
+      </c>
+      <c r="AO55" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="AP55" s="1" t="s">
         <v>3065</v>
       </c>
-      <c r="AM55" s="1" t="s">
+      <c r="AQ55" s="1" t="s">
         <v>3066</v>
       </c>
-      <c r="AN55" s="1" t="s">
+      <c r="AR55" s="1" t="s">
         <v>3067</v>
       </c>
-      <c r="AO55" s="1" t="s">
+      <c r="AS55" s="1" t="s">
         <v>3068</v>
       </c>
-      <c r="AP55" s="1" t="s">
+      <c r="AT55" s="1" t="s">
         <v>3069</v>
       </c>
-      <c r="AQ55" s="1" t="s">
+      <c r="AU55" s="1" t="s">
         <v>3070</v>
       </c>
-      <c r="AR55" s="1" t="s">
+      <c r="AV55" s="1" t="s">
         <v>3071</v>
       </c>
-      <c r="AS55" s="1" t="s">
+      <c r="AW55" s="1" t="s">
         <v>3072</v>
       </c>
-      <c r="AT55" s="1" t="s">
+      <c r="AX55" s="1" t="s">
         <v>3073</v>
       </c>
-      <c r="AU55" s="1" t="s">
+      <c r="AY55" s="1" t="s">
         <v>3074</v>
       </c>
-      <c r="AV55" s="1" t="s">
+      <c r="AZ55" s="1" t="s">
         <v>3075</v>
       </c>
-      <c r="AW55" s="1" t="s">
+      <c r="BA55" s="1" t="s">
         <v>3076</v>
       </c>
-      <c r="AX55" s="1" t="s">
+      <c r="BB55" s="1" t="s">
         <v>3077</v>
       </c>
-      <c r="AY55" s="1" t="s">
+      <c r="BC55" s="1" t="s">
         <v>3078</v>
       </c>
-      <c r="AZ55" s="1" t="s">
-        <v>3079</v>
-      </c>
-      <c r="BA55" s="1" t="s">
-        <v>3080</v>
-      </c>
-      <c r="BB55" s="1" t="s">
-        <v>3081</v>
-      </c>
-      <c r="BC55" s="1" t="s">
-        <v>3082</v>
-      </c>
       <c r="BF55" s="2" t="s">
-        <v>4696</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="56" spans="1:58" x14ac:dyDescent="0.25">
       <c r="N56" s="2" t="s">
-        <v>4416</v>
+        <v>4412</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>4417</v>
+        <v>4413</v>
       </c>
       <c r="P56" s="2" t="s">
+        <v>4472</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>4473</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>4474</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>4475</v>
+      </c>
+      <c r="T56" s="2" t="s">
         <v>4476</v>
       </c>
-      <c r="Q56" s="2" t="s">
+      <c r="U56" s="2" t="s">
         <v>4477</v>
       </c>
-      <c r="R56" s="2" t="s">
+      <c r="V56" s="2" t="s">
         <v>4478</v>
       </c>
-      <c r="S56" s="2" t="s">
+      <c r="W56" s="2" t="s">
         <v>4479</v>
       </c>
-      <c r="T56" s="2" t="s">
+      <c r="X56" s="2" t="s">
         <v>4480</v>
       </c>
-      <c r="U56" s="2" t="s">
+      <c r="Y56" s="2" t="s">
         <v>4481</v>
       </c>
-      <c r="V56" s="2" t="s">
+      <c r="Z56" s="2" t="s">
         <v>4482</v>
       </c>
-      <c r="W56" s="2" t="s">
+      <c r="AA56" s="2" t="s">
         <v>4483</v>
       </c>
-      <c r="X56" s="2" t="s">
+      <c r="AB56" s="2" t="s">
         <v>4484</v>
       </c>
-      <c r="Y56" s="2" t="s">
+      <c r="AC56" s="2" t="s">
         <v>4485</v>
       </c>
-      <c r="Z56" s="2" t="s">
+      <c r="AD56" s="2" t="s">
         <v>4486</v>
       </c>
-      <c r="AA56" s="2" t="s">
+      <c r="AE56" s="2" t="s">
         <v>4487</v>
       </c>
-      <c r="AB56" s="2" t="s">
+      <c r="AF56" s="2" t="s">
         <v>4488</v>
       </c>
-      <c r="AC56" s="2" t="s">
+      <c r="AG56" s="2" t="s">
         <v>4489</v>
       </c>
-      <c r="AD56" s="2" t="s">
-        <v>4490</v>
-      </c>
-      <c r="AE56" s="2" t="s">
-        <v>4491</v>
-      </c>
-      <c r="AF56" s="2" t="s">
-        <v>4492</v>
-      </c>
-      <c r="AG56" s="2" t="s">
-        <v>4493</v>
-      </c>
       <c r="AH56" s="2" t="s">
-        <v>2831</v>
+        <v>2827</v>
       </c>
       <c r="AI56" s="2" t="s">
-        <v>2832</v>
+        <v>2828</v>
       </c>
       <c r="AJ56" s="1" t="s">
-        <v>2885</v>
+        <v>2881</v>
       </c>
       <c r="AK56" s="1" t="s">
-        <v>2886</v>
+        <v>2882</v>
       </c>
       <c r="AL56" s="1" t="s">
+        <v>3079</v>
+      </c>
+      <c r="AM56" s="1" t="s">
+        <v>3080</v>
+      </c>
+      <c r="AN56" s="1" t="s">
+        <v>3081</v>
+      </c>
+      <c r="AO56" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="AP56" s="1" t="s">
         <v>3083</v>
       </c>
-      <c r="AM56" s="1" t="s">
+      <c r="AQ56" s="1" t="s">
         <v>3084</v>
       </c>
-      <c r="AN56" s="1" t="s">
+      <c r="AR56" s="1" t="s">
         <v>3085</v>
       </c>
-      <c r="AO56" s="1" t="s">
+      <c r="AS56" s="1" t="s">
         <v>3086</v>
       </c>
-      <c r="AP56" s="1" t="s">
+      <c r="AT56" s="1" t="s">
         <v>3087</v>
       </c>
-      <c r="AQ56" s="1" t="s">
+      <c r="AU56" s="1" t="s">
         <v>3088</v>
       </c>
-      <c r="AR56" s="1" t="s">
+      <c r="AV56" s="1" t="s">
         <v>3089</v>
       </c>
-      <c r="AS56" s="1" t="s">
+      <c r="AW56" s="1" t="s">
         <v>3090</v>
       </c>
-      <c r="AT56" s="1" t="s">
+      <c r="AX56" s="1" t="s">
         <v>3091</v>
       </c>
-      <c r="AU56" s="1" t="s">
+      <c r="AY56" s="1" t="s">
         <v>3092</v>
       </c>
-      <c r="AV56" s="1" t="s">
+      <c r="AZ56" s="1" t="s">
         <v>3093</v>
       </c>
-      <c r="AW56" s="1" t="s">
+      <c r="BA56" s="1" t="s">
         <v>3094</v>
       </c>
-      <c r="AX56" s="1" t="s">
+      <c r="BB56" s="1" t="s">
         <v>3095</v>
       </c>
-      <c r="AY56" s="1" t="s">
+      <c r="BC56" s="1" t="s">
         <v>3096</v>
       </c>
-      <c r="AZ56" s="1" t="s">
-        <v>3097</v>
-      </c>
-      <c r="BA56" s="1" t="s">
-        <v>3098</v>
-      </c>
-      <c r="BB56" s="1" t="s">
-        <v>3099</v>
-      </c>
-      <c r="BC56" s="1" t="s">
-        <v>3100</v>
-      </c>
       <c r="BF56" s="2" t="s">
-        <v>4697</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="57" spans="1:58" x14ac:dyDescent="0.25">
       <c r="N57" s="2" t="s">
-        <v>4418</v>
+        <v>4414</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>4419</v>
+        <v>4415</v>
       </c>
       <c r="P57" s="2" t="s">
+        <v>4490</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>4491</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>4492</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>4493</v>
+      </c>
+      <c r="T57" s="2" t="s">
         <v>4494</v>
       </c>
-      <c r="Q57" s="2" t="s">
+      <c r="U57" s="2" t="s">
         <v>4495</v>
       </c>
-      <c r="R57" s="2" t="s">
+      <c r="V57" s="2" t="s">
         <v>4496</v>
       </c>
-      <c r="S57" s="2" t="s">
+      <c r="W57" s="2" t="s">
         <v>4497</v>
       </c>
-      <c r="T57" s="2" t="s">
+      <c r="X57" s="2" t="s">
         <v>4498</v>
       </c>
-      <c r="U57" s="2" t="s">
+      <c r="Y57" s="2" t="s">
         <v>4499</v>
       </c>
-      <c r="V57" s="2" t="s">
+      <c r="Z57" s="2" t="s">
         <v>4500</v>
       </c>
-      <c r="W57" s="2" t="s">
+      <c r="AA57" s="2" t="s">
         <v>4501</v>
       </c>
-      <c r="X57" s="2" t="s">
+      <c r="AB57" s="2" t="s">
         <v>4502</v>
       </c>
-      <c r="Y57" s="2" t="s">
+      <c r="AC57" s="2" t="s">
         <v>4503</v>
       </c>
-      <c r="Z57" s="2" t="s">
+      <c r="AD57" s="2" t="s">
         <v>4504</v>
       </c>
-      <c r="AA57" s="2" t="s">
+      <c r="AE57" s="2" t="s">
         <v>4505</v>
       </c>
-      <c r="AB57" s="2" t="s">
+      <c r="AF57" s="2" t="s">
         <v>4506</v>
       </c>
-      <c r="AC57" s="2" t="s">
+      <c r="AG57" s="2" t="s">
         <v>4507</v>
       </c>
-      <c r="AD57" s="2" t="s">
-        <v>4508</v>
-      </c>
-      <c r="AE57" s="2" t="s">
-        <v>4509</v>
-      </c>
-      <c r="AF57" s="2" t="s">
-        <v>4510</v>
-      </c>
-      <c r="AG57" s="2" t="s">
-        <v>4511</v>
-      </c>
       <c r="AH57" s="2" t="s">
-        <v>2833</v>
+        <v>2829</v>
       </c>
       <c r="AI57" s="2" t="s">
-        <v>2834</v>
+        <v>2830</v>
       </c>
       <c r="AJ57" s="1" t="s">
-        <v>2887</v>
+        <v>2883</v>
       </c>
       <c r="AK57" s="1" t="s">
-        <v>2888</v>
+        <v>2884</v>
       </c>
       <c r="AL57" s="1" t="s">
+        <v>3097</v>
+      </c>
+      <c r="AM57" s="1" t="s">
+        <v>3098</v>
+      </c>
+      <c r="AN57" s="1" t="s">
+        <v>3099</v>
+      </c>
+      <c r="AO57" s="1" t="s">
+        <v>3100</v>
+      </c>
+      <c r="AP57" s="1" t="s">
         <v>3101</v>
       </c>
-      <c r="AM57" s="1" t="s">
+      <c r="AQ57" s="1" t="s">
         <v>3102</v>
       </c>
-      <c r="AN57" s="1" t="s">
+      <c r="AR57" s="1" t="s">
         <v>3103</v>
       </c>
-      <c r="AO57" s="1" t="s">
+      <c r="AS57" s="1" t="s">
         <v>3104</v>
       </c>
-      <c r="AP57" s="1" t="s">
+      <c r="AT57" s="1" t="s">
         <v>3105</v>
       </c>
-      <c r="AQ57" s="1" t="s">
+      <c r="AU57" s="1" t="s">
         <v>3106</v>
       </c>
-      <c r="AR57" s="1" t="s">
+      <c r="AV57" s="1" t="s">
         <v>3107</v>
       </c>
-      <c r="AS57" s="1" t="s">
+      <c r="AW57" s="1" t="s">
         <v>3108</v>
       </c>
-      <c r="AT57" s="1" t="s">
+      <c r="AX57" s="1" t="s">
         <v>3109</v>
       </c>
-      <c r="AU57" s="1" t="s">
+      <c r="AY57" s="1" t="s">
         <v>3110</v>
       </c>
-      <c r="AV57" s="1" t="s">
+      <c r="AZ57" s="1" t="s">
         <v>3111</v>
       </c>
-      <c r="AW57" s="1" t="s">
+      <c r="BA57" s="1" t="s">
         <v>3112</v>
       </c>
-      <c r="AX57" s="1" t="s">
+      <c r="BB57" s="1" t="s">
         <v>3113</v>
       </c>
-      <c r="AY57" s="1" t="s">
+      <c r="BC57" s="1" t="s">
         <v>3114</v>
       </c>
-      <c r="AZ57" s="1" t="s">
-        <v>3115</v>
-      </c>
-      <c r="BA57" s="1" t="s">
-        <v>3116</v>
-      </c>
-      <c r="BB57" s="1" t="s">
-        <v>3117</v>
-      </c>
-      <c r="BC57" s="1" t="s">
-        <v>3118</v>
-      </c>
       <c r="BF57" s="2" t="s">
-        <v>4698</v>
+        <v>4694</v>
       </c>
     </row>
     <row r="58" spans="1:58" x14ac:dyDescent="0.25">
       <c r="N58" s="2" t="s">
-        <v>4420</v>
+        <v>4416</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>4421</v>
+        <v>4417</v>
       </c>
       <c r="P58" s="2" t="s">
+        <v>4508</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>4509</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>4510</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>4511</v>
+      </c>
+      <c r="T58" s="2" t="s">
         <v>4512</v>
       </c>
-      <c r="Q58" s="2" t="s">
+      <c r="U58" s="2" t="s">
         <v>4513</v>
       </c>
-      <c r="R58" s="2" t="s">
+      <c r="V58" s="2" t="s">
         <v>4514</v>
       </c>
-      <c r="S58" s="2" t="s">
+      <c r="W58" s="2" t="s">
         <v>4515</v>
       </c>
-      <c r="T58" s="2" t="s">
+      <c r="X58" s="2" t="s">
         <v>4516</v>
       </c>
-      <c r="U58" s="2" t="s">
+      <c r="Y58" s="2" t="s">
         <v>4517</v>
       </c>
-      <c r="V58" s="2" t="s">
+      <c r="Z58" s="2" t="s">
         <v>4518</v>
       </c>
-      <c r="W58" s="2" t="s">
+      <c r="AA58" s="2" t="s">
         <v>4519</v>
       </c>
-      <c r="X58" s="2" t="s">
+      <c r="AB58" s="2" t="s">
         <v>4520</v>
       </c>
-      <c r="Y58" s="2" t="s">
+      <c r="AC58" s="2" t="s">
         <v>4521</v>
       </c>
-      <c r="Z58" s="2" t="s">
+      <c r="AD58" s="2" t="s">
         <v>4522</v>
       </c>
-      <c r="AA58" s="2" t="s">
+      <c r="AE58" s="2" t="s">
         <v>4523</v>
       </c>
-      <c r="AB58" s="2" t="s">
+      <c r="AF58" s="2" t="s">
         <v>4524</v>
       </c>
-      <c r="AC58" s="2" t="s">
+      <c r="AG58" s="2" t="s">
         <v>4525</v>
       </c>
-      <c r="AD58" s="2" t="s">
-        <v>4526</v>
-      </c>
-      <c r="AE58" s="2" t="s">
-        <v>4527</v>
-      </c>
-      <c r="AF58" s="2" t="s">
-        <v>4528</v>
-      </c>
-      <c r="AG58" s="2" t="s">
-        <v>4529</v>
-      </c>
       <c r="AH58" s="2" t="s">
-        <v>2835</v>
+        <v>2831</v>
       </c>
       <c r="AI58" s="2" t="s">
-        <v>2836</v>
+        <v>2832</v>
       </c>
       <c r="AJ58" s="1" t="s">
-        <v>2889</v>
+        <v>2885</v>
       </c>
       <c r="AK58" s="1" t="s">
-        <v>2890</v>
+        <v>2886</v>
       </c>
       <c r="AL58" s="1" t="s">
+        <v>3115</v>
+      </c>
+      <c r="AM58" s="1" t="s">
+        <v>3116</v>
+      </c>
+      <c r="AN58" s="1" t="s">
+        <v>3117</v>
+      </c>
+      <c r="AO58" s="1" t="s">
+        <v>3118</v>
+      </c>
+      <c r="AP58" s="1" t="s">
         <v>3119</v>
       </c>
-      <c r="AM58" s="1" t="s">
+      <c r="AQ58" s="1" t="s">
         <v>3120</v>
       </c>
-      <c r="AN58" s="1" t="s">
+      <c r="AR58" s="1" t="s">
         <v>3121</v>
       </c>
-      <c r="AO58" s="1" t="s">
+      <c r="AS58" s="1" t="s">
         <v>3122</v>
       </c>
-      <c r="AP58" s="1" t="s">
+      <c r="AT58" s="1" t="s">
         <v>3123</v>
       </c>
-      <c r="AQ58" s="1" t="s">
+      <c r="AU58" s="1" t="s">
         <v>3124</v>
       </c>
-      <c r="AR58" s="1" t="s">
+      <c r="AV58" s="1" t="s">
         <v>3125</v>
       </c>
-      <c r="AS58" s="1" t="s">
+      <c r="AW58" s="1" t="s">
         <v>3126</v>
       </c>
-      <c r="AT58" s="1" t="s">
+      <c r="AX58" s="1" t="s">
         <v>3127</v>
       </c>
-      <c r="AU58" s="1" t="s">
+      <c r="AY58" s="1" t="s">
         <v>3128</v>
       </c>
-      <c r="AV58" s="1" t="s">
+      <c r="AZ58" s="1" t="s">
         <v>3129</v>
       </c>
-      <c r="AW58" s="1" t="s">
+      <c r="BA58" s="1" t="s">
         <v>3130</v>
       </c>
-      <c r="AX58" s="1" t="s">
+      <c r="BB58" s="1" t="s">
         <v>3131</v>
       </c>
-      <c r="AY58" s="1" t="s">
+      <c r="BC58" s="1" t="s">
         <v>3132</v>
       </c>
-      <c r="AZ58" s="1" t="s">
-        <v>3133</v>
-      </c>
-      <c r="BA58" s="1" t="s">
-        <v>3134</v>
-      </c>
-      <c r="BB58" s="1" t="s">
-        <v>3135</v>
-      </c>
-      <c r="BC58" s="1" t="s">
-        <v>3136</v>
-      </c>
       <c r="BF58" s="2" t="s">
-        <v>4699</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="59" spans="1:58" x14ac:dyDescent="0.25">
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="AH59" s="2" t="s">
-        <v>2837</v>
+        <v>2833</v>
       </c>
       <c r="AI59" s="2" t="s">
-        <v>2838</v>
+        <v>2834</v>
       </c>
       <c r="AJ59" s="1" t="s">
-        <v>2891</v>
+        <v>2887</v>
       </c>
       <c r="AK59" s="1" t="s">
-        <v>2892</v>
+        <v>2888</v>
       </c>
       <c r="AL59" s="1" t="s">
+        <v>3133</v>
+      </c>
+      <c r="AM59" s="1" t="s">
+        <v>3134</v>
+      </c>
+      <c r="AN59" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="AO59" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="AP59" s="1" t="s">
         <v>3137</v>
       </c>
-      <c r="AM59" s="1" t="s">
+      <c r="AQ59" s="1" t="s">
         <v>3138</v>
       </c>
-      <c r="AN59" s="1" t="s">
+      <c r="AR59" s="1" t="s">
         <v>3139</v>
       </c>
-      <c r="AO59" s="1" t="s">
+      <c r="AS59" s="1" t="s">
         <v>3140</v>
       </c>
-      <c r="AP59" s="1" t="s">
+      <c r="AT59" s="1" t="s">
         <v>3141</v>
       </c>
-      <c r="AQ59" s="1" t="s">
+      <c r="AU59" s="1" t="s">
         <v>3142</v>
       </c>
-      <c r="AR59" s="1" t="s">
+      <c r="AV59" s="1" t="s">
         <v>3143</v>
       </c>
-      <c r="AS59" s="1" t="s">
+      <c r="AW59" s="1" t="s">
         <v>3144</v>
       </c>
-      <c r="AT59" s="1" t="s">
+      <c r="AX59" s="1" t="s">
         <v>3145</v>
       </c>
-      <c r="AU59" s="1" t="s">
+      <c r="AY59" s="1" t="s">
         <v>3146</v>
       </c>
-      <c r="AV59" s="1" t="s">
+      <c r="AZ59" s="1" t="s">
         <v>3147</v>
       </c>
-      <c r="AW59" s="1" t="s">
+      <c r="BA59" s="1" t="s">
         <v>3148</v>
       </c>
-      <c r="AX59" s="1" t="s">
+      <c r="BB59" s="1" t="s">
         <v>3149</v>
       </c>
-      <c r="AY59" s="1" t="s">
+      <c r="BC59" s="1" t="s">
         <v>3150</v>
       </c>
-      <c r="AZ59" s="1" t="s">
-        <v>3151</v>
-      </c>
-      <c r="BA59" s="1" t="s">
-        <v>3152</v>
-      </c>
-      <c r="BB59" s="1" t="s">
-        <v>3153</v>
-      </c>
-      <c r="BC59" s="1" t="s">
-        <v>3154</v>
-      </c>
       <c r="BF59" s="2" t="s">
-        <v>4700</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="60" spans="1:58" x14ac:dyDescent="0.25">
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="AH60" s="2" t="s">
-        <v>2839</v>
+        <v>2835</v>
       </c>
       <c r="AI60" s="2" t="s">
-        <v>2840</v>
+        <v>2836</v>
       </c>
       <c r="AJ60" s="1" t="s">
-        <v>2893</v>
+        <v>2889</v>
       </c>
       <c r="AK60" s="1" t="s">
-        <v>2894</v>
+        <v>2890</v>
       </c>
       <c r="AL60" s="1" t="s">
+        <v>3151</v>
+      </c>
+      <c r="AM60" s="1" t="s">
+        <v>3152</v>
+      </c>
+      <c r="AN60" s="1" t="s">
+        <v>3153</v>
+      </c>
+      <c r="AO60" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="AP60" s="1" t="s">
         <v>3155</v>
       </c>
-      <c r="AM60" s="1" t="s">
+      <c r="AQ60" s="1" t="s">
         <v>3156</v>
       </c>
-      <c r="AN60" s="1" t="s">
+      <c r="AR60" s="1" t="s">
         <v>3157</v>
       </c>
-      <c r="AO60" s="1" t="s">
+      <c r="AS60" s="1" t="s">
         <v>3158</v>
       </c>
-      <c r="AP60" s="1" t="s">
+      <c r="AT60" s="1" t="s">
         <v>3159</v>
       </c>
-      <c r="AQ60" s="1" t="s">
+      <c r="AU60" s="1" t="s">
         <v>3160</v>
       </c>
-      <c r="AR60" s="1" t="s">
+      <c r="AV60" s="1" t="s">
         <v>3161</v>
       </c>
-      <c r="AS60" s="1" t="s">
+      <c r="AW60" s="1" t="s">
         <v>3162</v>
       </c>
-      <c r="AT60" s="1" t="s">
+      <c r="AX60" s="1" t="s">
         <v>3163</v>
       </c>
-      <c r="AU60" s="1" t="s">
+      <c r="AY60" s="1" t="s">
         <v>3164</v>
       </c>
-      <c r="AV60" s="1" t="s">
+      <c r="AZ60" s="1" t="s">
         <v>3165</v>
       </c>
-      <c r="AW60" s="1" t="s">
+      <c r="BA60" s="1" t="s">
         <v>3166</v>
       </c>
-      <c r="AX60" s="1" t="s">
+      <c r="BB60" s="1" t="s">
         <v>3167</v>
       </c>
-      <c r="AY60" s="1" t="s">
+      <c r="BC60" s="1" t="s">
         <v>3168</v>
       </c>
-      <c r="AZ60" s="1" t="s">
-        <v>3169</v>
-      </c>
-      <c r="BA60" s="1" t="s">
-        <v>3170</v>
-      </c>
-      <c r="BB60" s="1" t="s">
-        <v>3171</v>
-      </c>
-      <c r="BC60" s="1" t="s">
-        <v>3172</v>
-      </c>
       <c r="BF60" s="2" t="s">
-        <v>4701</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="61" spans="1:58" x14ac:dyDescent="0.25">
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="AH61" s="2" t="s">
-        <v>2841</v>
+        <v>2837</v>
       </c>
       <c r="AI61" s="2" t="s">
-        <v>2842</v>
+        <v>2838</v>
       </c>
       <c r="AJ61" s="1" t="s">
-        <v>2895</v>
+        <v>2891</v>
       </c>
       <c r="AK61" s="1" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
       <c r="AL61" s="1" t="s">
+        <v>3169</v>
+      </c>
+      <c r="AM61" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="AN61" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="AO61" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="AP61" s="1" t="s">
         <v>3173</v>
       </c>
-      <c r="AM61" s="1" t="s">
+      <c r="AQ61" s="1" t="s">
         <v>3174</v>
       </c>
-      <c r="AN61" s="1" t="s">
+      <c r="AR61" s="1" t="s">
         <v>3175</v>
       </c>
-      <c r="AO61" s="1" t="s">
+      <c r="AS61" s="1" t="s">
         <v>3176</v>
       </c>
-      <c r="AP61" s="1" t="s">
+      <c r="AT61" s="1" t="s">
         <v>3177</v>
       </c>
-      <c r="AQ61" s="1" t="s">
+      <c r="AU61" s="1" t="s">
         <v>3178</v>
       </c>
-      <c r="AR61" s="1" t="s">
+      <c r="AV61" s="1" t="s">
         <v>3179</v>
       </c>
-      <c r="AS61" s="1" t="s">
+      <c r="AW61" s="1" t="s">
         <v>3180</v>
       </c>
-      <c r="AT61" s="1" t="s">
+      <c r="AX61" s="1" t="s">
         <v>3181</v>
       </c>
-      <c r="AU61" s="1" t="s">
+      <c r="AY61" s="1" t="s">
         <v>3182</v>
       </c>
-      <c r="AV61" s="1" t="s">
+      <c r="AZ61" s="1" t="s">
         <v>3183</v>
       </c>
-      <c r="AW61" s="1" t="s">
+      <c r="BA61" s="1" t="s">
         <v>3184</v>
       </c>
-      <c r="AX61" s="1" t="s">
+      <c r="BB61" s="1" t="s">
         <v>3185</v>
       </c>
-      <c r="AY61" s="1" t="s">
+      <c r="BC61" s="1" t="s">
         <v>3186</v>
       </c>
-      <c r="AZ61" s="1" t="s">
-        <v>3187</v>
-      </c>
-      <c r="BA61" s="1" t="s">
-        <v>3188</v>
-      </c>
-      <c r="BB61" s="1" t="s">
-        <v>3189</v>
-      </c>
-      <c r="BC61" s="1" t="s">
-        <v>3190</v>
-      </c>
       <c r="BF61" s="2" t="s">
-        <v>4702</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="62" spans="1:58" x14ac:dyDescent="0.25">
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="AH62" s="2" t="s">
-        <v>2843</v>
+        <v>2839</v>
       </c>
       <c r="AI62" s="2" t="s">
-        <v>2844</v>
+        <v>2840</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>2898</v>
+        <v>2894</v>
       </c>
       <c r="AL62" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="AM62" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="AN62" s="1" t="s">
+        <v>3189</v>
+      </c>
+      <c r="AO62" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="AP62" s="1" t="s">
         <v>3191</v>
       </c>
-      <c r="AM62" s="1" t="s">
+      <c r="AQ62" s="1" t="s">
         <v>3192</v>
       </c>
-      <c r="AN62" s="1" t="s">
+      <c r="AR62" s="1" t="s">
         <v>3193</v>
       </c>
-      <c r="AO62" s="1" t="s">
+      <c r="AS62" s="1" t="s">
         <v>3194</v>
       </c>
-      <c r="AP62" s="1" t="s">
+      <c r="AT62" s="1" t="s">
         <v>3195</v>
       </c>
-      <c r="AQ62" s="1" t="s">
+      <c r="AU62" s="1" t="s">
         <v>3196</v>
       </c>
-      <c r="AR62" s="1" t="s">
+      <c r="AV62" s="1" t="s">
         <v>3197</v>
       </c>
-      <c r="AS62" s="1" t="s">
+      <c r="AW62" s="1" t="s">
         <v>3198</v>
       </c>
-      <c r="AT62" s="1" t="s">
+      <c r="AX62" s="1" t="s">
         <v>3199</v>
       </c>
-      <c r="AU62" s="1" t="s">
+      <c r="AY62" s="1" t="s">
         <v>3200</v>
       </c>
-      <c r="AV62" s="1" t="s">
+      <c r="AZ62" s="1" t="s">
         <v>3201</v>
       </c>
-      <c r="AW62" s="1" t="s">
+      <c r="BA62" s="1" t="s">
         <v>3202</v>
       </c>
-      <c r="AX62" s="1" t="s">
+      <c r="BB62" s="1" t="s">
         <v>3203</v>
       </c>
-      <c r="AY62" s="1" t="s">
+      <c r="BC62" s="1" t="s">
         <v>3204</v>
       </c>
-      <c r="AZ62" s="1" t="s">
-        <v>3205</v>
-      </c>
-      <c r="BA62" s="1" t="s">
-        <v>3206</v>
-      </c>
-      <c r="BB62" s="1" t="s">
-        <v>3207</v>
-      </c>
-      <c r="BC62" s="1" t="s">
-        <v>3208</v>
-      </c>
       <c r="BF62" s="2" t="s">
-        <v>4703</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="63" spans="1:58" x14ac:dyDescent="0.25">
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="AH63" s="2" t="s">
-        <v>2845</v>
+        <v>2841</v>
       </c>
       <c r="AI63" s="2" t="s">
-        <v>2846</v>
+        <v>2842</v>
       </c>
       <c r="AJ63" s="1" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
       <c r="AK63" s="1" t="s">
-        <v>2900</v>
+        <v>2896</v>
       </c>
       <c r="AL63" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="AM63" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="AN63" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="AO63" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="AP63" s="1" t="s">
         <v>3209</v>
       </c>
-      <c r="AM63" s="1" t="s">
+      <c r="AQ63" s="1" t="s">
         <v>3210</v>
       </c>
-      <c r="AN63" s="1" t="s">
+      <c r="AR63" s="1" t="s">
         <v>3211</v>
       </c>
-      <c r="AO63" s="1" t="s">
+      <c r="AS63" s="1" t="s">
         <v>3212</v>
       </c>
-      <c r="AP63" s="1" t="s">
+      <c r="AT63" s="1" t="s">
         <v>3213</v>
       </c>
-      <c r="AQ63" s="1" t="s">
+      <c r="AU63" s="1" t="s">
         <v>3214</v>
       </c>
-      <c r="AR63" s="1" t="s">
+      <c r="AV63" s="1" t="s">
         <v>3215</v>
       </c>
-      <c r="AS63" s="1" t="s">
+      <c r="AW63" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="AT63" s="1" t="s">
+      <c r="AX63" s="1" t="s">
         <v>3217</v>
       </c>
-      <c r="AU63" s="1" t="s">
+      <c r="AY63" s="1" t="s">
         <v>3218</v>
       </c>
-      <c r="AV63" s="1" t="s">
+      <c r="AZ63" s="1" t="s">
         <v>3219</v>
       </c>
-      <c r="AW63" s="1" t="s">
+      <c r="BA63" s="1" t="s">
         <v>3220</v>
       </c>
-      <c r="AX63" s="1" t="s">
+      <c r="BB63" s="1" t="s">
         <v>3221</v>
       </c>
-      <c r="AY63" s="1" t="s">
+      <c r="BC63" s="1" t="s">
         <v>3222</v>
       </c>
-      <c r="AZ63" s="1" t="s">
-        <v>3223</v>
-      </c>
-      <c r="BA63" s="1" t="s">
-        <v>3224</v>
-      </c>
-      <c r="BB63" s="1" t="s">
-        <v>3225</v>
-      </c>
-      <c r="BC63" s="1" t="s">
-        <v>3226</v>
-      </c>
       <c r="BF63" s="2" t="s">
-        <v>4704</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="64" spans="1:58" x14ac:dyDescent="0.25">
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="AH64" s="2" t="s">
-        <v>2847</v>
+        <v>2843</v>
       </c>
       <c r="AI64" s="2" t="s">
-        <v>2848</v>
+        <v>2844</v>
       </c>
       <c r="AJ64" s="1" t="s">
-        <v>2901</v>
+        <v>2897</v>
       </c>
       <c r="AK64" s="1" t="s">
-        <v>2902</v>
+        <v>2898</v>
       </c>
       <c r="AL64" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="AM64" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="AN64" s="1" t="s">
+        <v>3225</v>
+      </c>
+      <c r="AO64" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="AP64" s="1" t="s">
         <v>3227</v>
       </c>
-      <c r="AM64" s="1" t="s">
+      <c r="AQ64" s="1" t="s">
         <v>3228</v>
       </c>
-      <c r="AN64" s="1" t="s">
+      <c r="AR64" s="1" t="s">
         <v>3229</v>
       </c>
-      <c r="AO64" s="1" t="s">
+      <c r="AS64" s="1" t="s">
         <v>3230</v>
       </c>
-      <c r="AP64" s="1" t="s">
+      <c r="AT64" s="1" t="s">
         <v>3231</v>
       </c>
-      <c r="AQ64" s="1" t="s">
+      <c r="AU64" s="1" t="s">
         <v>3232</v>
       </c>
-      <c r="AR64" s="1" t="s">
+      <c r="AV64" s="1" t="s">
         <v>3233</v>
       </c>
-      <c r="AS64" s="1" t="s">
+      <c r="AW64" s="1" t="s">
         <v>3234</v>
       </c>
-      <c r="AT64" s="1" t="s">
+      <c r="AX64" s="1" t="s">
         <v>3235</v>
       </c>
-      <c r="AU64" s="1" t="s">
+      <c r="AY64" s="1" t="s">
         <v>3236</v>
       </c>
-      <c r="AV64" s="1" t="s">
+      <c r="AZ64" s="1" t="s">
         <v>3237</v>
       </c>
-      <c r="AW64" s="1" t="s">
+      <c r="BA64" s="1" t="s">
         <v>3238</v>
       </c>
-      <c r="AX64" s="1" t="s">
+      <c r="BB64" s="1" t="s">
         <v>3239</v>
       </c>
-      <c r="AY64" s="1" t="s">
+      <c r="BC64" s="1" t="s">
         <v>3240</v>
       </c>
-      <c r="AZ64" s="1" t="s">
-        <v>3241</v>
-      </c>
-      <c r="BA64" s="1" t="s">
-        <v>3242</v>
-      </c>
-      <c r="BB64" s="1" t="s">
-        <v>3243</v>
-      </c>
-      <c r="BC64" s="1" t="s">
-        <v>3244</v>
-      </c>
       <c r="BF64" s="2" t="s">
-        <v>4705</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="65" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH65" s="2" t="s">
-        <v>2849</v>
+        <v>2845</v>
       </c>
       <c r="AI65" s="2" t="s">
-        <v>2850</v>
+        <v>2846</v>
       </c>
       <c r="AJ65" s="1" t="s">
-        <v>2903</v>
+        <v>2899</v>
       </c>
       <c r="AK65" s="1" t="s">
-        <v>2904</v>
+        <v>2900</v>
       </c>
       <c r="AL65" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="AM65" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="AN65" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="AO65" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="AP65" s="1" t="s">
         <v>3245</v>
       </c>
-      <c r="AM65" s="1" t="s">
+      <c r="AQ65" s="1" t="s">
         <v>3246</v>
       </c>
-      <c r="AN65" s="1" t="s">
+      <c r="AR65" s="1" t="s">
         <v>3247</v>
       </c>
-      <c r="AO65" s="1" t="s">
+      <c r="AS65" s="1" t="s">
         <v>3248</v>
       </c>
-      <c r="AP65" s="1" t="s">
+      <c r="AT65" s="1" t="s">
         <v>3249</v>
       </c>
-      <c r="AQ65" s="1" t="s">
+      <c r="AU65" s="1" t="s">
         <v>3250</v>
       </c>
-      <c r="AR65" s="1" t="s">
+      <c r="AV65" s="1" t="s">
         <v>3251</v>
       </c>
-      <c r="AS65" s="1" t="s">
+      <c r="AW65" s="1" t="s">
         <v>3252</v>
       </c>
-      <c r="AT65" s="1" t="s">
+      <c r="AX65" s="1" t="s">
         <v>3253</v>
       </c>
-      <c r="AU65" s="1" t="s">
+      <c r="AY65" s="1" t="s">
         <v>3254</v>
       </c>
-      <c r="AV65" s="1" t="s">
+      <c r="AZ65" s="1" t="s">
         <v>3255</v>
       </c>
-      <c r="AW65" s="1" t="s">
+      <c r="BA65" s="1" t="s">
         <v>3256</v>
       </c>
-      <c r="AX65" s="1" t="s">
+      <c r="BB65" s="1" t="s">
         <v>3257</v>
       </c>
-      <c r="AY65" s="1" t="s">
+      <c r="BC65" s="1" t="s">
         <v>3258</v>
       </c>
-      <c r="AZ65" s="1" t="s">
-        <v>3259</v>
-      </c>
-      <c r="BA65" s="1" t="s">
-        <v>3260</v>
-      </c>
-      <c r="BB65" s="1" t="s">
-        <v>3261</v>
-      </c>
-      <c r="BC65" s="1" t="s">
-        <v>3262</v>
-      </c>
       <c r="BF65" s="2" t="s">
-        <v>4706</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="66" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH66" s="2" t="s">
-        <v>2851</v>
+        <v>2847</v>
       </c>
       <c r="AI66" s="2" t="s">
-        <v>2852</v>
+        <v>2848</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>2905</v>
+        <v>2901</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>2906</v>
+        <v>2902</v>
       </c>
       <c r="AL66" s="1" t="s">
+        <v>3259</v>
+      </c>
+      <c r="AM66" s="1" t="s">
+        <v>3260</v>
+      </c>
+      <c r="AN66" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="AO66" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="AP66" s="1" t="s">
         <v>3263</v>
       </c>
-      <c r="AM66" s="1" t="s">
+      <c r="AQ66" s="1" t="s">
         <v>3264</v>
       </c>
-      <c r="AN66" s="1" t="s">
+      <c r="AR66" s="1" t="s">
         <v>3265</v>
       </c>
-      <c r="AO66" s="1" t="s">
+      <c r="AS66" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="AP66" s="1" t="s">
+      <c r="AT66" s="1" t="s">
         <v>3267</v>
       </c>
-      <c r="AQ66" s="1" t="s">
+      <c r="AU66" s="1" t="s">
         <v>3268</v>
       </c>
-      <c r="AR66" s="1" t="s">
+      <c r="AV66" s="1" t="s">
         <v>3269</v>
       </c>
-      <c r="AS66" s="1" t="s">
+      <c r="AW66" s="1" t="s">
         <v>3270</v>
       </c>
-      <c r="AT66" s="1" t="s">
+      <c r="AX66" s="1" t="s">
         <v>3271</v>
       </c>
-      <c r="AU66" s="1" t="s">
+      <c r="AY66" s="1" t="s">
         <v>3272</v>
       </c>
-      <c r="AV66" s="1" t="s">
+      <c r="AZ66" s="1" t="s">
         <v>3273</v>
       </c>
-      <c r="AW66" s="1" t="s">
+      <c r="BA66" s="1" t="s">
         <v>3274</v>
       </c>
-      <c r="AX66" s="1" t="s">
+      <c r="BB66" s="1" t="s">
         <v>3275</v>
       </c>
-      <c r="AY66" s="1" t="s">
+      <c r="BC66" s="1" t="s">
         <v>3276</v>
       </c>
-      <c r="AZ66" s="1" t="s">
-        <v>3277</v>
-      </c>
-      <c r="BA66" s="1" t="s">
-        <v>3278</v>
-      </c>
-      <c r="BB66" s="1" t="s">
-        <v>3279</v>
-      </c>
-      <c r="BC66" s="1" t="s">
-        <v>3280</v>
-      </c>
       <c r="BF66" s="2" t="s">
-        <v>4707</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="67" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH67" s="2" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
       <c r="AI67" s="2" t="s">
-        <v>2854</v>
+        <v>2850</v>
       </c>
       <c r="AJ67" s="1" t="s">
-        <v>2907</v>
+        <v>2903</v>
       </c>
       <c r="AK67" s="1" t="s">
-        <v>2908</v>
+        <v>2904</v>
       </c>
       <c r="AL67" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="AM67" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="AN67" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="AO67" s="1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="AP67" s="1" t="s">
         <v>3281</v>
       </c>
-      <c r="AM67" s="1" t="s">
+      <c r="AQ67" s="1" t="s">
         <v>3282</v>
       </c>
-      <c r="AN67" s="1" t="s">
+      <c r="AR67" s="1" t="s">
         <v>3283</v>
       </c>
-      <c r="AO67" s="1" t="s">
+      <c r="AS67" s="1" t="s">
         <v>3284</v>
       </c>
-      <c r="AP67" s="1" t="s">
+      <c r="AT67" s="1" t="s">
         <v>3285</v>
       </c>
-      <c r="AQ67" s="1" t="s">
+      <c r="AU67" s="1" t="s">
         <v>3286</v>
       </c>
-      <c r="AR67" s="1" t="s">
+      <c r="AV67" s="1" t="s">
         <v>3287</v>
       </c>
-      <c r="AS67" s="1" t="s">
+      <c r="AW67" s="1" t="s">
         <v>3288</v>
       </c>
-      <c r="AT67" s="1" t="s">
+      <c r="AX67" s="1" t="s">
         <v>3289</v>
       </c>
-      <c r="AU67" s="1" t="s">
+      <c r="AY67" s="1" t="s">
         <v>3290</v>
       </c>
-      <c r="AV67" s="1" t="s">
+      <c r="AZ67" s="1" t="s">
         <v>3291</v>
       </c>
-      <c r="AW67" s="1" t="s">
+      <c r="BA67" s="1" t="s">
         <v>3292</v>
       </c>
-      <c r="AX67" s="1" t="s">
+      <c r="BB67" s="1" t="s">
         <v>3293</v>
       </c>
-      <c r="AY67" s="1" t="s">
+      <c r="BC67" s="1" t="s">
         <v>3294</v>
       </c>
-      <c r="AZ67" s="1" t="s">
-        <v>3295</v>
-      </c>
-      <c r="BA67" s="1" t="s">
-        <v>3296</v>
-      </c>
-      <c r="BB67" s="1" t="s">
-        <v>3297</v>
-      </c>
-      <c r="BC67" s="1" t="s">
-        <v>3298</v>
-      </c>
       <c r="BF67" s="2" t="s">
-        <v>4708</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="68" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH68" s="2" t="s">
-        <v>2855</v>
+        <v>2851</v>
       </c>
       <c r="AI68" s="2" t="s">
-        <v>2856</v>
+        <v>2852</v>
       </c>
       <c r="AJ68" s="1" t="s">
-        <v>2909</v>
+        <v>2905</v>
       </c>
       <c r="AK68" s="1" t="s">
-        <v>2910</v>
+        <v>2906</v>
       </c>
       <c r="AL68" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="AM68" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="AN68" s="1" t="s">
+        <v>3297</v>
+      </c>
+      <c r="AO68" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="AP68" s="1" t="s">
         <v>3299</v>
       </c>
-      <c r="AM68" s="1" t="s">
+      <c r="AQ68" s="1" t="s">
         <v>3300</v>
       </c>
-      <c r="AN68" s="1" t="s">
+      <c r="AR68" s="1" t="s">
         <v>3301</v>
       </c>
-      <c r="AO68" s="1" t="s">
+      <c r="AS68" s="1" t="s">
         <v>3302</v>
       </c>
-      <c r="AP68" s="1" t="s">
+      <c r="AT68" s="1" t="s">
         <v>3303</v>
       </c>
-      <c r="AQ68" s="1" t="s">
+      <c r="AU68" s="1" t="s">
         <v>3304</v>
       </c>
-      <c r="AR68" s="1" t="s">
+      <c r="AV68" s="1" t="s">
         <v>3305</v>
       </c>
-      <c r="AS68" s="1" t="s">
+      <c r="AW68" s="1" t="s">
         <v>3306</v>
       </c>
-      <c r="AT68" s="1" t="s">
+      <c r="AX68" s="1" t="s">
         <v>3307</v>
       </c>
-      <c r="AU68" s="1" t="s">
+      <c r="AY68" s="1" t="s">
         <v>3308</v>
       </c>
-      <c r="AV68" s="1" t="s">
+      <c r="AZ68" s="1" t="s">
         <v>3309</v>
       </c>
-      <c r="AW68" s="1" t="s">
+      <c r="BA68" s="1" t="s">
         <v>3310</v>
       </c>
-      <c r="AX68" s="1" t="s">
+      <c r="BB68" s="1" t="s">
         <v>3311</v>
       </c>
-      <c r="AY68" s="1" t="s">
+      <c r="BC68" s="1" t="s">
         <v>3312</v>
       </c>
-      <c r="AZ68" s="1" t="s">
-        <v>3313</v>
-      </c>
-      <c r="BA68" s="1" t="s">
-        <v>3314</v>
-      </c>
-      <c r="BB68" s="1" t="s">
-        <v>3315</v>
-      </c>
-      <c r="BC68" s="1" t="s">
-        <v>3316</v>
-      </c>
       <c r="BF68" s="2" t="s">
-        <v>4709</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="69" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH69" s="2" t="s">
-        <v>2857</v>
+        <v>2853</v>
       </c>
       <c r="AI69" s="2" t="s">
-        <v>2858</v>
+        <v>2854</v>
       </c>
       <c r="AJ69" s="1" t="s">
-        <v>2911</v>
+        <v>2907</v>
       </c>
       <c r="AK69" s="1" t="s">
-        <v>2912</v>
+        <v>2908</v>
       </c>
       <c r="AL69" s="1" t="s">
+        <v>3313</v>
+      </c>
+      <c r="AM69" s="1" t="s">
+        <v>3314</v>
+      </c>
+      <c r="AN69" s="1" t="s">
+        <v>3315</v>
+      </c>
+      <c r="AO69" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="AP69" s="1" t="s">
         <v>3317</v>
       </c>
-      <c r="AM69" s="1" t="s">
+      <c r="AQ69" s="1" t="s">
         <v>3318</v>
       </c>
-      <c r="AN69" s="1" t="s">
+      <c r="AR69" s="1" t="s">
         <v>3319</v>
       </c>
-      <c r="AO69" s="1" t="s">
+      <c r="AS69" s="1" t="s">
         <v>3320</v>
       </c>
-      <c r="AP69" s="1" t="s">
+      <c r="AT69" s="1" t="s">
         <v>3321</v>
       </c>
-      <c r="AQ69" s="1" t="s">
+      <c r="AU69" s="1" t="s">
         <v>3322</v>
       </c>
-      <c r="AR69" s="1" t="s">
+      <c r="AV69" s="1" t="s">
         <v>3323</v>
       </c>
-      <c r="AS69" s="1" t="s">
+      <c r="AW69" s="1" t="s">
         <v>3324</v>
       </c>
-      <c r="AT69" s="1" t="s">
+      <c r="AX69" s="1" t="s">
         <v>3325</v>
       </c>
-      <c r="AU69" s="1" t="s">
+      <c r="AY69" s="1" t="s">
         <v>3326</v>
       </c>
-      <c r="AV69" s="1" t="s">
+      <c r="AZ69" s="1" t="s">
         <v>3327</v>
       </c>
-      <c r="AW69" s="1" t="s">
+      <c r="BA69" s="1" t="s">
         <v>3328</v>
       </c>
-      <c r="AX69" s="1" t="s">
+      <c r="BB69" s="1" t="s">
         <v>3329</v>
       </c>
-      <c r="AY69" s="1" t="s">
+      <c r="BC69" s="1" t="s">
         <v>3330</v>
       </c>
-      <c r="AZ69" s="1" t="s">
-        <v>3331</v>
-      </c>
-      <c r="BA69" s="1" t="s">
-        <v>3332</v>
-      </c>
-      <c r="BB69" s="1" t="s">
-        <v>3333</v>
-      </c>
-      <c r="BC69" s="1" t="s">
-        <v>3334</v>
-      </c>
       <c r="BF69" s="2" t="s">
-        <v>4710</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="70" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH70" s="2" t="s">
-        <v>2859</v>
+        <v>2855</v>
       </c>
       <c r="AI70" s="2" t="s">
-        <v>2860</v>
+        <v>2856</v>
       </c>
       <c r="AJ70" s="1" t="s">
-        <v>2913</v>
+        <v>2909</v>
       </c>
       <c r="AK70" s="1" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
       <c r="AL70" s="1" t="s">
+        <v>3331</v>
+      </c>
+      <c r="AM70" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="AN70" s="1" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AO70" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AP70" s="1" t="s">
         <v>3335</v>
       </c>
-      <c r="AM70" s="1" t="s">
+      <c r="AQ70" s="1" t="s">
         <v>3336</v>
       </c>
-      <c r="AN70" s="1" t="s">
+      <c r="AR70" s="1" t="s">
         <v>3337</v>
       </c>
-      <c r="AO70" s="1" t="s">
+      <c r="AS70" s="1" t="s">
         <v>3338</v>
       </c>
-      <c r="AP70" s="1" t="s">
+      <c r="AT70" s="1" t="s">
         <v>3339</v>
       </c>
-      <c r="AQ70" s="1" t="s">
+      <c r="AU70" s="1" t="s">
         <v>3340</v>
       </c>
-      <c r="AR70" s="1" t="s">
+      <c r="AV70" s="1" t="s">
         <v>3341</v>
       </c>
-      <c r="AS70" s="1" t="s">
+      <c r="AW70" s="1" t="s">
         <v>3342</v>
       </c>
-      <c r="AT70" s="1" t="s">
+      <c r="AX70" s="1" t="s">
         <v>3343</v>
       </c>
-      <c r="AU70" s="1" t="s">
+      <c r="AY70" s="1" t="s">
         <v>3344</v>
       </c>
-      <c r="AV70" s="1" t="s">
+      <c r="AZ70" s="1" t="s">
         <v>3345</v>
       </c>
-      <c r="AW70" s="1" t="s">
+      <c r="BA70" s="1" t="s">
         <v>3346</v>
       </c>
-      <c r="AX70" s="1" t="s">
+      <c r="BB70" s="1" t="s">
         <v>3347</v>
       </c>
-      <c r="AY70" s="1" t="s">
+      <c r="BC70" s="1" t="s">
         <v>3348</v>
       </c>
-      <c r="AZ70" s="1" t="s">
-        <v>3349</v>
-      </c>
-      <c r="BA70" s="1" t="s">
-        <v>3350</v>
-      </c>
-      <c r="BB70" s="1" t="s">
-        <v>3351</v>
-      </c>
-      <c r="BC70" s="1" t="s">
-        <v>3352</v>
-      </c>
       <c r="BF70" s="2" t="s">
-        <v>4711</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="71" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH71" s="2" t="s">
-        <v>2861</v>
+        <v>2857</v>
       </c>
       <c r="AI71" s="2" t="s">
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="AJ71" s="1" t="s">
-        <v>2915</v>
+        <v>2911</v>
       </c>
       <c r="AK71" s="1" t="s">
-        <v>2916</v>
+        <v>2912</v>
       </c>
       <c r="AL71" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="AM71" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="AN71" s="1" t="s">
+        <v>3351</v>
+      </c>
+      <c r="AO71" s="1" t="s">
+        <v>3352</v>
+      </c>
+      <c r="AP71" s="1" t="s">
         <v>3353</v>
       </c>
-      <c r="AM71" s="1" t="s">
+      <c r="AQ71" s="1" t="s">
         <v>3354</v>
       </c>
-      <c r="AN71" s="1" t="s">
+      <c r="AR71" s="1" t="s">
         <v>3355</v>
       </c>
-      <c r="AO71" s="1" t="s">
+      <c r="AS71" s="1" t="s">
         <v>3356</v>
       </c>
-      <c r="AP71" s="1" t="s">
+      <c r="AT71" s="1" t="s">
         <v>3357</v>
       </c>
-      <c r="AQ71" s="1" t="s">
+      <c r="AU71" s="1" t="s">
         <v>3358</v>
       </c>
-      <c r="AR71" s="1" t="s">
+      <c r="AV71" s="1" t="s">
         <v>3359</v>
       </c>
-      <c r="AS71" s="1" t="s">
+      <c r="AW71" s="1" t="s">
         <v>3360</v>
       </c>
-      <c r="AT71" s="1" t="s">
+      <c r="AX71" s="1" t="s">
         <v>3361</v>
       </c>
-      <c r="AU71" s="1" t="s">
+      <c r="AY71" s="1" t="s">
         <v>3362</v>
       </c>
-      <c r="AV71" s="1" t="s">
+      <c r="AZ71" s="1" t="s">
         <v>3363</v>
       </c>
-      <c r="AW71" s="1" t="s">
+      <c r="BA71" s="1" t="s">
         <v>3364</v>
       </c>
-      <c r="AX71" s="1" t="s">
+      <c r="BB71" s="1" t="s">
         <v>3365</v>
       </c>
-      <c r="AY71" s="1" t="s">
+      <c r="BC71" s="1" t="s">
         <v>3366</v>
       </c>
-      <c r="AZ71" s="1" t="s">
-        <v>3367</v>
-      </c>
-      <c r="BA71" s="1" t="s">
-        <v>3368</v>
-      </c>
-      <c r="BB71" s="1" t="s">
-        <v>3369</v>
-      </c>
-      <c r="BC71" s="1" t="s">
-        <v>3370</v>
-      </c>
       <c r="BF71" s="2" t="s">
-        <v>4712</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="72" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH72" s="2" t="s">
-        <v>2863</v>
+        <v>2859</v>
       </c>
       <c r="AI72" s="2" t="s">
-        <v>2864</v>
+        <v>2860</v>
       </c>
       <c r="AJ72" s="1" t="s">
-        <v>2917</v>
+        <v>2913</v>
       </c>
       <c r="AK72" s="1" t="s">
-        <v>2918</v>
+        <v>2914</v>
       </c>
       <c r="AL72" s="1" t="s">
+        <v>3367</v>
+      </c>
+      <c r="AM72" s="1" t="s">
+        <v>3368</v>
+      </c>
+      <c r="AN72" s="1" t="s">
+        <v>3369</v>
+      </c>
+      <c r="AO72" s="1" t="s">
+        <v>3370</v>
+      </c>
+      <c r="AP72" s="1" t="s">
         <v>3371</v>
       </c>
-      <c r="AM72" s="1" t="s">
+      <c r="AQ72" s="1" t="s">
         <v>3372</v>
       </c>
-      <c r="AN72" s="1" t="s">
+      <c r="AR72" s="1" t="s">
         <v>3373</v>
       </c>
-      <c r="AO72" s="1" t="s">
+      <c r="AS72" s="1" t="s">
         <v>3374</v>
       </c>
-      <c r="AP72" s="1" t="s">
+      <c r="AT72" s="1" t="s">
         <v>3375</v>
       </c>
-      <c r="AQ72" s="1" t="s">
+      <c r="AU72" s="1" t="s">
         <v>3376</v>
       </c>
-      <c r="AR72" s="1" t="s">
+      <c r="AV72" s="1" t="s">
         <v>3377</v>
       </c>
-      <c r="AS72" s="1" t="s">
+      <c r="AW72" s="1" t="s">
         <v>3378</v>
       </c>
-      <c r="AT72" s="1" t="s">
+      <c r="AX72" s="1" t="s">
         <v>3379</v>
       </c>
-      <c r="AU72" s="1" t="s">
+      <c r="AY72" s="1" t="s">
         <v>3380</v>
       </c>
-      <c r="AV72" s="1" t="s">
+      <c r="AZ72" s="1" t="s">
         <v>3381</v>
       </c>
-      <c r="AW72" s="1" t="s">
+      <c r="BA72" s="1" t="s">
         <v>3382</v>
       </c>
-      <c r="AX72" s="1" t="s">
+      <c r="BB72" s="1" t="s">
         <v>3383</v>
       </c>
-      <c r="AY72" s="1" t="s">
+      <c r="BC72" s="1" t="s">
         <v>3384</v>
       </c>
-      <c r="AZ72" s="1" t="s">
-        <v>3385</v>
-      </c>
-      <c r="BA72" s="1" t="s">
-        <v>3386</v>
-      </c>
-      <c r="BB72" s="1" t="s">
-        <v>3387</v>
-      </c>
-      <c r="BC72" s="1" t="s">
-        <v>3388</v>
-      </c>
       <c r="BF72" s="2" t="s">
-        <v>4713</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="73" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH73" s="2" t="s">
-        <v>2865</v>
+        <v>2861</v>
       </c>
       <c r="AI73" s="2" t="s">
-        <v>2866</v>
+        <v>2862</v>
       </c>
       <c r="AJ73" s="1" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="AK73" s="1" t="s">
-        <v>2920</v>
+        <v>2916</v>
       </c>
       <c r="AL73" s="1" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AM73" s="1" t="s">
+        <v>3386</v>
+      </c>
+      <c r="AN73" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="AO73" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="AP73" s="1" t="s">
         <v>3389</v>
       </c>
-      <c r="AM73" s="1" t="s">
+      <c r="AQ73" s="1" t="s">
         <v>3390</v>
       </c>
-      <c r="AN73" s="1" t="s">
+      <c r="AR73" s="1" t="s">
         <v>3391</v>
       </c>
-      <c r="AO73" s="1" t="s">
+      <c r="AS73" s="1" t="s">
         <v>3392</v>
       </c>
-      <c r="AP73" s="1" t="s">
+      <c r="AT73" s="1" t="s">
         <v>3393</v>
       </c>
-      <c r="AQ73" s="1" t="s">
+      <c r="AU73" s="1" t="s">
         <v>3394</v>
       </c>
-      <c r="AR73" s="1" t="s">
+      <c r="AV73" s="1" t="s">
         <v>3395</v>
       </c>
-      <c r="AS73" s="1" t="s">
+      <c r="AW73" s="1" t="s">
         <v>3396</v>
       </c>
-      <c r="AT73" s="1" t="s">
+      <c r="AX73" s="1" t="s">
         <v>3397</v>
       </c>
-      <c r="AU73" s="1" t="s">
+      <c r="AY73" s="1" t="s">
         <v>3398</v>
       </c>
-      <c r="AV73" s="1" t="s">
+      <c r="AZ73" s="1" t="s">
         <v>3399</v>
       </c>
-      <c r="AW73" s="1" t="s">
+      <c r="BA73" s="1" t="s">
         <v>3400</v>
       </c>
-      <c r="AX73" s="1" t="s">
+      <c r="BB73" s="1" t="s">
         <v>3401</v>
       </c>
-      <c r="AY73" s="1" t="s">
+      <c r="BC73" s="1" t="s">
         <v>3402</v>
       </c>
-      <c r="AZ73" s="1" t="s">
-        <v>3403</v>
-      </c>
-      <c r="BA73" s="1" t="s">
-        <v>3404</v>
-      </c>
-      <c r="BB73" s="1" t="s">
-        <v>3405</v>
-      </c>
-      <c r="BC73" s="1" t="s">
-        <v>3406</v>
-      </c>
       <c r="BF73" s="2" t="s">
-        <v>4714</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="74" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH74" s="2" t="s">
-        <v>2867</v>
+        <v>2863</v>
       </c>
       <c r="AI74" s="2" t="s">
-        <v>2868</v>
+        <v>2864</v>
       </c>
       <c r="AJ74" s="1" t="s">
-        <v>2921</v>
+        <v>2917</v>
       </c>
       <c r="AK74" s="1" t="s">
-        <v>2922</v>
+        <v>2918</v>
       </c>
       <c r="AL74" s="1" t="s">
+        <v>3403</v>
+      </c>
+      <c r="AM74" s="1" t="s">
+        <v>3404</v>
+      </c>
+      <c r="AN74" s="1" t="s">
+        <v>3405</v>
+      </c>
+      <c r="AO74" s="1" t="s">
+        <v>3406</v>
+      </c>
+      <c r="AP74" s="1" t="s">
         <v>3407</v>
       </c>
-      <c r="AM74" s="1" t="s">
+      <c r="AQ74" s="1" t="s">
         <v>3408</v>
       </c>
-      <c r="AN74" s="1" t="s">
+      <c r="AR74" s="1" t="s">
         <v>3409</v>
       </c>
-      <c r="AO74" s="1" t="s">
+      <c r="AS74" s="1" t="s">
         <v>3410</v>
       </c>
-      <c r="AP74" s="1" t="s">
+      <c r="AT74" s="1" t="s">
         <v>3411</v>
       </c>
-      <c r="AQ74" s="1" t="s">
+      <c r="AU74" s="1" t="s">
         <v>3412</v>
       </c>
-      <c r="AR74" s="1" t="s">
+      <c r="AV74" s="1" t="s">
         <v>3413</v>
       </c>
-      <c r="AS74" s="1" t="s">
+      <c r="AW74" s="1" t="s">
         <v>3414</v>
       </c>
-      <c r="AT74" s="1" t="s">
+      <c r="AX74" s="1" t="s">
         <v>3415</v>
       </c>
-      <c r="AU74" s="1" t="s">
+      <c r="AY74" s="1" t="s">
         <v>3416</v>
       </c>
-      <c r="AV74" s="1" t="s">
+      <c r="AZ74" s="1" t="s">
         <v>3417</v>
       </c>
-      <c r="AW74" s="1" t="s">
+      <c r="BA74" s="1" t="s">
         <v>3418</v>
       </c>
-      <c r="AX74" s="1" t="s">
+      <c r="BB74" s="1" t="s">
         <v>3419</v>
       </c>
-      <c r="AY74" s="1" t="s">
+      <c r="BC74" s="1" t="s">
         <v>3420</v>
       </c>
-      <c r="AZ74" s="1" t="s">
-        <v>3421</v>
-      </c>
-      <c r="BA74" s="1" t="s">
-        <v>3422</v>
-      </c>
-      <c r="BB74" s="1" t="s">
-        <v>3423</v>
-      </c>
-      <c r="BC74" s="1" t="s">
-        <v>3424</v>
-      </c>
       <c r="BF74" s="2" t="s">
-        <v>4715</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="75" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH75" s="2" t="s">
-        <v>2869</v>
+        <v>2865</v>
       </c>
       <c r="AI75" s="2" t="s">
-        <v>2870</v>
+        <v>2866</v>
       </c>
       <c r="AJ75" s="1" t="s">
-        <v>2923</v>
+        <v>2919</v>
       </c>
       <c r="AK75" s="1" t="s">
-        <v>2924</v>
+        <v>2920</v>
       </c>
       <c r="AL75" s="1" t="s">
+        <v>3421</v>
+      </c>
+      <c r="AM75" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="AN75" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="AO75" s="1" t="s">
+        <v>3424</v>
+      </c>
+      <c r="AP75" s="1" t="s">
         <v>3425</v>
       </c>
-      <c r="AM75" s="1" t="s">
+      <c r="AQ75" s="1" t="s">
         <v>3426</v>
       </c>
-      <c r="AN75" s="1" t="s">
+      <c r="AR75" s="1" t="s">
         <v>3427</v>
       </c>
-      <c r="AO75" s="1" t="s">
+      <c r="AS75" s="1" t="s">
         <v>3428</v>
       </c>
-      <c r="AP75" s="1" t="s">
+      <c r="AT75" s="1" t="s">
         <v>3429</v>
       </c>
-      <c r="AQ75" s="1" t="s">
+      <c r="AU75" s="1" t="s">
         <v>3430</v>
       </c>
-      <c r="AR75" s="1" t="s">
+      <c r="AV75" s="1" t="s">
         <v>3431</v>
       </c>
-      <c r="AS75" s="1" t="s">
+      <c r="AW75" s="1" t="s">
         <v>3432</v>
       </c>
-      <c r="AT75" s="1" t="s">
+      <c r="AX75" s="1" t="s">
         <v>3433</v>
       </c>
-      <c r="AU75" s="1" t="s">
+      <c r="AY75" s="1" t="s">
         <v>3434</v>
       </c>
-      <c r="AV75" s="1" t="s">
+      <c r="AZ75" s="1" t="s">
         <v>3435</v>
       </c>
-      <c r="AW75" s="1" t="s">
+      <c r="BA75" s="1" t="s">
         <v>3436</v>
       </c>
-      <c r="AX75" s="1" t="s">
+      <c r="BB75" s="1" t="s">
         <v>3437</v>
       </c>
-      <c r="AY75" s="1" t="s">
+      <c r="BC75" s="1" t="s">
         <v>3438</v>
       </c>
-      <c r="AZ75" s="1" t="s">
-        <v>3439</v>
-      </c>
-      <c r="BA75" s="1" t="s">
-        <v>3440</v>
-      </c>
-      <c r="BB75" s="1" t="s">
-        <v>3441</v>
-      </c>
-      <c r="BC75" s="1" t="s">
-        <v>3442</v>
-      </c>
       <c r="BF75" s="2" t="s">
-        <v>4716</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="76" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH76" s="2" t="s">
-        <v>2871</v>
+        <v>2867</v>
       </c>
       <c r="AI76" s="2" t="s">
-        <v>2872</v>
+        <v>2868</v>
       </c>
       <c r="AJ76" s="1" t="s">
-        <v>2925</v>
+        <v>2921</v>
       </c>
       <c r="AK76" s="1" t="s">
-        <v>2926</v>
+        <v>2922</v>
       </c>
       <c r="AL76" s="1" t="s">
+        <v>3439</v>
+      </c>
+      <c r="AM76" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="AN76" s="1" t="s">
+        <v>3441</v>
+      </c>
+      <c r="AO76" s="1" t="s">
+        <v>3442</v>
+      </c>
+      <c r="AP76" s="1" t="s">
         <v>3443</v>
       </c>
-      <c r="AM76" s="1" t="s">
+      <c r="AQ76" s="1" t="s">
         <v>3444</v>
       </c>
-      <c r="AN76" s="1" t="s">
+      <c r="AR76" s="1" t="s">
         <v>3445</v>
       </c>
-      <c r="AO76" s="1" t="s">
+      <c r="AS76" s="1" t="s">
         <v>3446</v>
       </c>
-      <c r="AP76" s="1" t="s">
+      <c r="AT76" s="1" t="s">
         <v>3447</v>
       </c>
-      <c r="AQ76" s="1" t="s">
+      <c r="AU76" s="1" t="s">
         <v>3448</v>
       </c>
-      <c r="AR76" s="1" t="s">
+      <c r="AV76" s="1" t="s">
         <v>3449</v>
       </c>
-      <c r="AS76" s="1" t="s">
+      <c r="AW76" s="1" t="s">
         <v>3450</v>
       </c>
-      <c r="AT76" s="1" t="s">
+      <c r="AX76" s="1" t="s">
         <v>3451</v>
       </c>
-      <c r="AU76" s="1" t="s">
+      <c r="AY76" s="1" t="s">
         <v>3452</v>
       </c>
-      <c r="AV76" s="1" t="s">
+      <c r="AZ76" s="1" t="s">
         <v>3453</v>
       </c>
-      <c r="AW76" s="1" t="s">
+      <c r="BA76" s="1" t="s">
         <v>3454</v>
       </c>
-      <c r="AX76" s="1" t="s">
+      <c r="BB76" s="1" t="s">
         <v>3455</v>
       </c>
-      <c r="AY76" s="1" t="s">
+      <c r="BC76" s="1" t="s">
         <v>3456</v>
       </c>
-      <c r="AZ76" s="1" t="s">
-        <v>3457</v>
-      </c>
-      <c r="BA76" s="1" t="s">
-        <v>3458</v>
-      </c>
-      <c r="BB76" s="1" t="s">
-        <v>3459</v>
-      </c>
-      <c r="BC76" s="1" t="s">
-        <v>3460</v>
-      </c>
       <c r="BF76" s="2" t="s">
-        <v>4717</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="77" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH77" s="2" t="s">
-        <v>2873</v>
+        <v>2869</v>
       </c>
       <c r="AI77" s="2" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
       <c r="AJ77" s="1" t="s">
-        <v>2927</v>
+        <v>2923</v>
       </c>
       <c r="AK77" s="1" t="s">
-        <v>2928</v>
+        <v>2924</v>
       </c>
       <c r="AL77" s="1" t="s">
+        <v>3457</v>
+      </c>
+      <c r="AM77" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="AN77" s="1" t="s">
+        <v>3459</v>
+      </c>
+      <c r="AO77" s="1" t="s">
+        <v>3460</v>
+      </c>
+      <c r="AP77" s="1" t="s">
         <v>3461</v>
       </c>
-      <c r="AM77" s="1" t="s">
+      <c r="AQ77" s="1" t="s">
         <v>3462</v>
       </c>
-      <c r="AN77" s="1" t="s">
+      <c r="AR77" s="1" t="s">
         <v>3463</v>
       </c>
-      <c r="AO77" s="1" t="s">
+      <c r="AS77" s="1" t="s">
         <v>3464</v>
       </c>
-      <c r="AP77" s="1" t="s">
+      <c r="AT77" s="1" t="s">
         <v>3465</v>
       </c>
-      <c r="AQ77" s="1" t="s">
+      <c r="AU77" s="1" t="s">
         <v>3466</v>
       </c>
-      <c r="AR77" s="1" t="s">
+      <c r="AV77" s="1" t="s">
         <v>3467</v>
       </c>
-      <c r="AS77" s="1" t="s">
+      <c r="AW77" s="1" t="s">
         <v>3468</v>
       </c>
-      <c r="AT77" s="1" t="s">
+      <c r="AX77" s="1" t="s">
         <v>3469</v>
       </c>
-      <c r="AU77" s="1" t="s">
+      <c r="AY77" s="1" t="s">
         <v>3470</v>
       </c>
-      <c r="AV77" s="1" t="s">
+      <c r="AZ77" s="1" t="s">
         <v>3471</v>
       </c>
-      <c r="AW77" s="1" t="s">
+      <c r="BA77" s="1" t="s">
         <v>3472</v>
       </c>
-      <c r="AX77" s="1" t="s">
+      <c r="BB77" s="1" t="s">
         <v>3473</v>
       </c>
-      <c r="AY77" s="1" t="s">
+      <c r="BC77" s="1" t="s">
         <v>3474</v>
       </c>
-      <c r="AZ77" s="1" t="s">
-        <v>3475</v>
-      </c>
-      <c r="BA77" s="1" t="s">
-        <v>3476</v>
-      </c>
-      <c r="BB77" s="1" t="s">
-        <v>3477</v>
-      </c>
-      <c r="BC77" s="1" t="s">
-        <v>3478</v>
-      </c>
       <c r="BF77" s="2" t="s">
-        <v>4718</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="78" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH78" s="2" t="s">
-        <v>2875</v>
+        <v>2871</v>
       </c>
       <c r="AI78" s="2" t="s">
-        <v>2876</v>
+        <v>2872</v>
       </c>
       <c r="AJ78" s="1" t="s">
-        <v>2929</v>
+        <v>2925</v>
       </c>
       <c r="AK78" s="1" t="s">
-        <v>2930</v>
+        <v>2926</v>
       </c>
       <c r="AL78" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="AM78" s="1" t="s">
+        <v>3476</v>
+      </c>
+      <c r="AN78" s="1" t="s">
+        <v>3477</v>
+      </c>
+      <c r="AO78" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="AP78" s="1" t="s">
         <v>3479</v>
       </c>
-      <c r="AM78" s="1" t="s">
+      <c r="AQ78" s="1" t="s">
         <v>3480</v>
       </c>
-      <c r="AN78" s="1" t="s">
+      <c r="AR78" s="1" t="s">
         <v>3481</v>
       </c>
-      <c r="AO78" s="1" t="s">
+      <c r="AS78" s="1" t="s">
         <v>3482</v>
       </c>
-      <c r="AP78" s="1" t="s">
+      <c r="AT78" s="1" t="s">
         <v>3483</v>
       </c>
-      <c r="AQ78" s="1" t="s">
+      <c r="AU78" s="1" t="s">
         <v>3484</v>
       </c>
-      <c r="AR78" s="1" t="s">
+      <c r="AV78" s="1" t="s">
         <v>3485</v>
       </c>
-      <c r="AS78" s="1" t="s">
+      <c r="AW78" s="1" t="s">
         <v>3486</v>
       </c>
-      <c r="AT78" s="1" t="s">
+      <c r="AX78" s="1" t="s">
         <v>3487</v>
       </c>
-      <c r="AU78" s="1" t="s">
+      <c r="AY78" s="1" t="s">
         <v>3488</v>
       </c>
-      <c r="AV78" s="1" t="s">
+      <c r="AZ78" s="1" t="s">
         <v>3489</v>
       </c>
-      <c r="AW78" s="1" t="s">
+      <c r="BA78" s="1" t="s">
         <v>3490</v>
       </c>
-      <c r="AX78" s="1" t="s">
+      <c r="BB78" s="1" t="s">
         <v>3491</v>
       </c>
-      <c r="AY78" s="1" t="s">
+      <c r="BC78" s="1" t="s">
         <v>3492</v>
       </c>
-      <c r="AZ78" s="1" t="s">
-        <v>3493</v>
-      </c>
-      <c r="BA78" s="1" t="s">
-        <v>3494</v>
-      </c>
-      <c r="BB78" s="1" t="s">
-        <v>3495</v>
-      </c>
-      <c r="BC78" s="1" t="s">
-        <v>3496</v>
-      </c>
       <c r="BF78" s="2" t="s">
-        <v>4719</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="79" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH79" s="2" t="s">
-        <v>2877</v>
+        <v>2873</v>
       </c>
       <c r="AI79" s="2" t="s">
-        <v>2878</v>
+        <v>2874</v>
       </c>
       <c r="AJ79" s="1" t="s">
-        <v>2931</v>
+        <v>2927</v>
       </c>
       <c r="AK79" s="1" t="s">
-        <v>2932</v>
+        <v>2928</v>
       </c>
       <c r="AL79" s="1" t="s">
+        <v>3493</v>
+      </c>
+      <c r="AM79" s="1" t="s">
+        <v>3494</v>
+      </c>
+      <c r="AN79" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="AO79" s="1" t="s">
+        <v>3496</v>
+      </c>
+      <c r="AP79" s="1" t="s">
         <v>3497</v>
       </c>
-      <c r="AM79" s="1" t="s">
+      <c r="AQ79" s="1" t="s">
         <v>3498</v>
       </c>
-      <c r="AN79" s="1" t="s">
+      <c r="AR79" s="1" t="s">
         <v>3499</v>
       </c>
-      <c r="AO79" s="1" t="s">
+      <c r="AS79" s="1" t="s">
         <v>3500</v>
       </c>
-      <c r="AP79" s="1" t="s">
+      <c r="AT79" s="1" t="s">
         <v>3501</v>
       </c>
-      <c r="AQ79" s="1" t="s">
+      <c r="AU79" s="1" t="s">
         <v>3502</v>
       </c>
-      <c r="AR79" s="1" t="s">
+      <c r="AV79" s="1" t="s">
         <v>3503</v>
       </c>
-      <c r="AS79" s="1" t="s">
+      <c r="AW79" s="1" t="s">
         <v>3504</v>
       </c>
-      <c r="AT79" s="1" t="s">
+      <c r="AX79" s="1" t="s">
         <v>3505</v>
       </c>
-      <c r="AU79" s="1" t="s">
+      <c r="AY79" s="1" t="s">
         <v>3506</v>
       </c>
-      <c r="AV79" s="1" t="s">
+      <c r="AZ79" s="1" t="s">
         <v>3507</v>
       </c>
-      <c r="AW79" s="1" t="s">
+      <c r="BA79" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="AX79" s="1" t="s">
+      <c r="BB79" s="1" t="s">
         <v>3509</v>
       </c>
-      <c r="AY79" s="1" t="s">
+      <c r="BC79" s="1" t="s">
         <v>3510</v>
       </c>
-      <c r="AZ79" s="1" t="s">
-        <v>3511</v>
-      </c>
-      <c r="BA79" s="1" t="s">
-        <v>3512</v>
-      </c>
-      <c r="BB79" s="1" t="s">
-        <v>3513</v>
-      </c>
-      <c r="BC79" s="1" t="s">
-        <v>3514</v>
-      </c>
       <c r="BF79" s="2" t="s">
-        <v>4720</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="80" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH80" s="2" t="s">
-        <v>4530</v>
+        <v>4526</v>
       </c>
       <c r="AI80" s="2" t="s">
-        <v>4531</v>
+        <v>4527</v>
       </c>
       <c r="AJ80" s="1" t="s">
-        <v>2933</v>
+        <v>2929</v>
       </c>
       <c r="AK80" s="1" t="s">
-        <v>2934</v>
+        <v>2930</v>
       </c>
       <c r="AL80" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="AM80" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="AN80" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="AO80" s="1" t="s">
+        <v>3514</v>
+      </c>
+      <c r="AP80" s="1" t="s">
         <v>3515</v>
       </c>
-      <c r="AM80" s="1" t="s">
+      <c r="AQ80" s="1" t="s">
         <v>3516</v>
       </c>
-      <c r="AN80" s="1" t="s">
+      <c r="AR80" s="1" t="s">
         <v>3517</v>
       </c>
-      <c r="AO80" s="1" t="s">
+      <c r="AS80" s="1" t="s">
         <v>3518</v>
       </c>
-      <c r="AP80" s="1" t="s">
+      <c r="AT80" s="1" t="s">
         <v>3519</v>
       </c>
-      <c r="AQ80" s="1" t="s">
+      <c r="AU80" s="1" t="s">
         <v>3520</v>
       </c>
-      <c r="AR80" s="1" t="s">
+      <c r="AV80" s="1" t="s">
         <v>3521</v>
       </c>
-      <c r="AS80" s="1" t="s">
+      <c r="AW80" s="1" t="s">
         <v>3522</v>
       </c>
-      <c r="AT80" s="1" t="s">
+      <c r="AX80" s="1" t="s">
         <v>3523</v>
       </c>
-      <c r="AU80" s="1" t="s">
+      <c r="AY80" s="1" t="s">
         <v>3524</v>
       </c>
-      <c r="AV80" s="1" t="s">
+      <c r="AZ80" s="1" t="s">
         <v>3525</v>
       </c>
-      <c r="AW80" s="1" t="s">
+      <c r="BA80" s="1" t="s">
         <v>3526</v>
       </c>
-      <c r="AX80" s="1" t="s">
+      <c r="BB80" s="1" t="s">
         <v>3527</v>
       </c>
-      <c r="AY80" s="1" t="s">
+      <c r="BC80" s="1" t="s">
         <v>3528</v>
       </c>
-      <c r="AZ80" s="1" t="s">
-        <v>3529</v>
-      </c>
-      <c r="BA80" s="1" t="s">
-        <v>3530</v>
-      </c>
-      <c r="BB80" s="1" t="s">
-        <v>3531</v>
-      </c>
-      <c r="BC80" s="1" t="s">
-        <v>3532</v>
-      </c>
       <c r="BF80" s="2" t="s">
-        <v>4721</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="81" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH81" s="2" t="s">
-        <v>4532</v>
+        <v>4528</v>
       </c>
       <c r="AI81" s="2" t="s">
-        <v>4533</v>
+        <v>4529</v>
       </c>
       <c r="AJ81" s="1" t="s">
-        <v>2935</v>
+        <v>2931</v>
       </c>
       <c r="AK81" s="1" t="s">
-        <v>2936</v>
+        <v>2932</v>
       </c>
       <c r="AL81" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="AM81" s="1" t="s">
+        <v>3530</v>
+      </c>
+      <c r="AN81" s="1" t="s">
+        <v>3531</v>
+      </c>
+      <c r="AO81" s="1" t="s">
+        <v>3532</v>
+      </c>
+      <c r="AP81" s="1" t="s">
         <v>3533</v>
       </c>
-      <c r="AM81" s="1" t="s">
+      <c r="AQ81" s="1" t="s">
         <v>3534</v>
       </c>
-      <c r="AN81" s="1" t="s">
+      <c r="AR81" s="1" t="s">
         <v>3535</v>
       </c>
-      <c r="AO81" s="1" t="s">
+      <c r="AS81" s="1" t="s">
         <v>3536</v>
       </c>
-      <c r="AP81" s="1" t="s">
+      <c r="AT81" s="1" t="s">
         <v>3537</v>
       </c>
-      <c r="AQ81" s="1" t="s">
+      <c r="AU81" s="1" t="s">
         <v>3538</v>
       </c>
-      <c r="AR81" s="1" t="s">
+      <c r="AV81" s="1" t="s">
         <v>3539</v>
       </c>
-      <c r="AS81" s="1" t="s">
+      <c r="AW81" s="1" t="s">
         <v>3540</v>
       </c>
-      <c r="AT81" s="1" t="s">
+      <c r="AX81" s="1" t="s">
         <v>3541</v>
       </c>
-      <c r="AU81" s="1" t="s">
+      <c r="AY81" s="1" t="s">
         <v>3542</v>
       </c>
-      <c r="AV81" s="1" t="s">
+      <c r="AZ81" s="1" t="s">
         <v>3543</v>
       </c>
-      <c r="AW81" s="1" t="s">
+      <c r="BA81" s="1" t="s">
         <v>3544</v>
       </c>
-      <c r="AX81" s="1" t="s">
+      <c r="BB81" s="1" t="s">
         <v>3545</v>
       </c>
-      <c r="AY81" s="1" t="s">
+      <c r="BC81" s="1" t="s">
         <v>3546</v>
       </c>
-      <c r="AZ81" s="1" t="s">
-        <v>3547</v>
-      </c>
-      <c r="BA81" s="1" t="s">
-        <v>3548</v>
-      </c>
-      <c r="BB81" s="1" t="s">
-        <v>3549</v>
-      </c>
-      <c r="BC81" s="1" t="s">
-        <v>3550</v>
-      </c>
       <c r="BF81" s="2" t="s">
-        <v>4722</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="82" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH82" s="2" t="s">
-        <v>4534</v>
+        <v>4530</v>
       </c>
       <c r="AI82" s="2" t="s">
-        <v>4535</v>
+        <v>4531</v>
       </c>
       <c r="AJ82" s="1" t="s">
-        <v>2937</v>
+        <v>2933</v>
       </c>
       <c r="AK82" s="1" t="s">
-        <v>2938</v>
+        <v>2934</v>
       </c>
       <c r="AL82" s="1" t="s">
+        <v>3547</v>
+      </c>
+      <c r="AM82" s="1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="AN82" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="AO82" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="AP82" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="AM82" s="1" t="s">
+      <c r="AQ82" s="1" t="s">
         <v>3552</v>
       </c>
-      <c r="AN82" s="1" t="s">
+      <c r="AR82" s="1" t="s">
         <v>3553</v>
       </c>
-      <c r="AO82" s="1" t="s">
+      <c r="AS82" s="1" t="s">
         <v>3554</v>
       </c>
-      <c r="AP82" s="1" t="s">
+      <c r="AT82" s="1" t="s">
         <v>3555</v>
       </c>
-      <c r="AQ82" s="1" t="s">
+      <c r="AU82" s="1" t="s">
         <v>3556</v>
       </c>
-      <c r="AR82" s="1" t="s">
+      <c r="AV82" s="1" t="s">
         <v>3557</v>
       </c>
-      <c r="AS82" s="1" t="s">
+      <c r="AW82" s="1" t="s">
         <v>3558</v>
       </c>
-      <c r="AT82" s="1" t="s">
+      <c r="AX82" s="1" t="s">
         <v>3559</v>
       </c>
-      <c r="AU82" s="1" t="s">
+      <c r="AY82" s="1" t="s">
         <v>3560</v>
       </c>
-      <c r="AV82" s="1" t="s">
+      <c r="AZ82" s="1" t="s">
         <v>3561</v>
       </c>
-      <c r="AW82" s="1" t="s">
+      <c r="BA82" s="1" t="s">
         <v>3562</v>
       </c>
-      <c r="AX82" s="1" t="s">
+      <c r="BB82" s="1" t="s">
         <v>3563</v>
       </c>
-      <c r="AY82" s="1" t="s">
+      <c r="BC82" s="1" t="s">
         <v>3564</v>
       </c>
-      <c r="AZ82" s="1" t="s">
-        <v>3565</v>
-      </c>
-      <c r="BA82" s="1" t="s">
-        <v>3566</v>
-      </c>
-      <c r="BB82" s="1" t="s">
-        <v>3567</v>
-      </c>
-      <c r="BC82" s="1" t="s">
-        <v>3568</v>
-      </c>
       <c r="BF82" s="2" t="s">
-        <v>4723</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="83" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH83" s="2" t="s">
-        <v>4536</v>
+        <v>4532</v>
       </c>
       <c r="AI83" s="2" t="s">
-        <v>4537</v>
+        <v>4533</v>
       </c>
       <c r="AJ83" s="1" t="s">
-        <v>2939</v>
+        <v>2935</v>
       </c>
       <c r="AK83" s="1" t="s">
-        <v>2940</v>
+        <v>2936</v>
       </c>
       <c r="AL83" s="1" t="s">
+        <v>3565</v>
+      </c>
+      <c r="AM83" s="1" t="s">
+        <v>3566</v>
+      </c>
+      <c r="AN83" s="1" t="s">
+        <v>3567</v>
+      </c>
+      <c r="AO83" s="1" t="s">
+        <v>3568</v>
+      </c>
+      <c r="AP83" s="1" t="s">
         <v>3569</v>
       </c>
-      <c r="AM83" s="1" t="s">
+      <c r="AQ83" s="1" t="s">
         <v>3570</v>
       </c>
-      <c r="AN83" s="1" t="s">
+      <c r="AR83" s="1" t="s">
         <v>3571</v>
       </c>
-      <c r="AO83" s="1" t="s">
+      <c r="AS83" s="1" t="s">
         <v>3572</v>
       </c>
-      <c r="AP83" s="1" t="s">
+      <c r="AT83" s="1" t="s">
         <v>3573</v>
       </c>
-      <c r="AQ83" s="1" t="s">
+      <c r="AU83" s="1" t="s">
         <v>3574</v>
       </c>
-      <c r="AR83" s="1" t="s">
+      <c r="AV83" s="1" t="s">
         <v>3575</v>
       </c>
-      <c r="AS83" s="1" t="s">
+      <c r="AW83" s="1" t="s">
         <v>3576</v>
       </c>
-      <c r="AT83" s="1" t="s">
+      <c r="AX83" s="1" t="s">
         <v>3577</v>
       </c>
-      <c r="AU83" s="1" t="s">
+      <c r="AY83" s="1" t="s">
         <v>3578</v>
       </c>
-      <c r="AV83" s="1" t="s">
+      <c r="AZ83" s="1" t="s">
         <v>3579</v>
       </c>
-      <c r="AW83" s="1" t="s">
+      <c r="BA83" s="1" t="s">
         <v>3580</v>
       </c>
-      <c r="AX83" s="1" t="s">
+      <c r="BB83" s="1" t="s">
         <v>3581</v>
       </c>
-      <c r="AY83" s="1" t="s">
+      <c r="BC83" s="1" t="s">
         <v>3582</v>
       </c>
-      <c r="AZ83" s="1" t="s">
-        <v>3583</v>
-      </c>
-      <c r="BA83" s="1" t="s">
-        <v>3584</v>
-      </c>
-      <c r="BB83" s="1" t="s">
-        <v>3585</v>
-      </c>
-      <c r="BC83" s="1" t="s">
-        <v>3586</v>
-      </c>
       <c r="BF83" s="2" t="s">
-        <v>4724</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="84" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH84" s="2" t="s">
-        <v>4538</v>
+        <v>4534</v>
       </c>
       <c r="AI84" s="2" t="s">
-        <v>4539</v>
+        <v>4535</v>
       </c>
       <c r="AJ84" s="1" t="s">
-        <v>2941</v>
+        <v>2937</v>
       </c>
       <c r="AK84" s="1" t="s">
-        <v>2942</v>
+        <v>2938</v>
       </c>
       <c r="AL84" s="1" t="s">
+        <v>3583</v>
+      </c>
+      <c r="AM84" s="1" t="s">
+        <v>3584</v>
+      </c>
+      <c r="AN84" s="1" t="s">
+        <v>3585</v>
+      </c>
+      <c r="AO84" s="1" t="s">
+        <v>3586</v>
+      </c>
+      <c r="AP84" s="1" t="s">
         <v>3587</v>
       </c>
-      <c r="AM84" s="1" t="s">
+      <c r="AQ84" s="1" t="s">
         <v>3588</v>
       </c>
-      <c r="AN84" s="1" t="s">
+      <c r="AR84" s="1" t="s">
         <v>3589</v>
       </c>
-      <c r="AO84" s="1" t="s">
+      <c r="AS84" s="1" t="s">
         <v>3590</v>
       </c>
-      <c r="AP84" s="1" t="s">
+      <c r="AT84" s="1" t="s">
         <v>3591</v>
       </c>
-      <c r="AQ84" s="1" t="s">
+      <c r="AU84" s="1" t="s">
         <v>3592</v>
       </c>
-      <c r="AR84" s="1" t="s">
+      <c r="AV84" s="1" t="s">
         <v>3593</v>
       </c>
-      <c r="AS84" s="1" t="s">
+      <c r="AW84" s="1" t="s">
         <v>3594</v>
       </c>
-      <c r="AT84" s="1" t="s">
+      <c r="AX84" s="1" t="s">
         <v>3595</v>
       </c>
-      <c r="AU84" s="1" t="s">
+      <c r="AY84" s="1" t="s">
         <v>3596</v>
       </c>
-      <c r="AV84" s="1" t="s">
+      <c r="AZ84" s="1" t="s">
         <v>3597</v>
       </c>
-      <c r="AW84" s="1" t="s">
+      <c r="BA84" s="1" t="s">
         <v>3598</v>
       </c>
-      <c r="AX84" s="1" t="s">
+      <c r="BB84" s="1" t="s">
         <v>3599</v>
       </c>
-      <c r="AY84" s="1" t="s">
+      <c r="BC84" s="1" t="s">
         <v>3600</v>
       </c>
-      <c r="AZ84" s="1" t="s">
-        <v>3601</v>
-      </c>
-      <c r="BA84" s="1" t="s">
-        <v>3602</v>
-      </c>
-      <c r="BB84" s="1" t="s">
-        <v>3603</v>
-      </c>
-      <c r="BC84" s="1" t="s">
-        <v>3604</v>
-      </c>
       <c r="BF84" s="2" t="s">
-        <v>4725</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="85" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH85" s="2" t="s">
-        <v>4540</v>
+        <v>4536</v>
       </c>
       <c r="AI85" s="2" t="s">
-        <v>4541</v>
+        <v>4537</v>
       </c>
       <c r="AJ85" s="1" t="s">
-        <v>2943</v>
+        <v>2939</v>
       </c>
       <c r="AK85" s="1" t="s">
-        <v>2944</v>
+        <v>2940</v>
       </c>
       <c r="AL85" s="1" t="s">
+        <v>3601</v>
+      </c>
+      <c r="AM85" s="1" t="s">
+        <v>3602</v>
+      </c>
+      <c r="AN85" s="1" t="s">
+        <v>3603</v>
+      </c>
+      <c r="AO85" s="1" t="s">
+        <v>3604</v>
+      </c>
+      <c r="AP85" s="1" t="s">
         <v>3605</v>
       </c>
-      <c r="AM85" s="1" t="s">
+      <c r="AQ85" s="1" t="s">
         <v>3606</v>
       </c>
-      <c r="AN85" s="1" t="s">
+      <c r="AR85" s="1" t="s">
         <v>3607</v>
       </c>
-      <c r="AO85" s="1" t="s">
+      <c r="AS85" s="1" t="s">
         <v>3608</v>
       </c>
-      <c r="AP85" s="1" t="s">
+      <c r="AT85" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="AQ85" s="1" t="s">
+      <c r="AU85" s="1" t="s">
         <v>3610</v>
       </c>
-      <c r="AR85" s="1" t="s">
+      <c r="AV85" s="1" t="s">
         <v>3611</v>
       </c>
-      <c r="AS85" s="1" t="s">
+      <c r="AW85" s="1" t="s">
         <v>3612</v>
       </c>
-      <c r="AT85" s="1" t="s">
+      <c r="AX85" s="1" t="s">
         <v>3613</v>
       </c>
-      <c r="AU85" s="1" t="s">
+      <c r="AY85" s="1" t="s">
         <v>3614</v>
       </c>
-      <c r="AV85" s="1" t="s">
+      <c r="AZ85" s="1" t="s">
         <v>3615</v>
       </c>
-      <c r="AW85" s="1" t="s">
+      <c r="BA85" s="1" t="s">
         <v>3616</v>
       </c>
-      <c r="AX85" s="1" t="s">
+      <c r="BB85" s="1" t="s">
         <v>3617</v>
       </c>
-      <c r="AY85" s="1" t="s">
+      <c r="BC85" s="1" t="s">
         <v>3618</v>
       </c>
-      <c r="AZ85" s="1" t="s">
-        <v>3619</v>
-      </c>
-      <c r="BA85" s="1" t="s">
-        <v>3620</v>
-      </c>
-      <c r="BB85" s="1" t="s">
-        <v>3621</v>
-      </c>
-      <c r="BC85" s="1" t="s">
-        <v>3622</v>
-      </c>
       <c r="BF85" s="2" t="s">
-        <v>4726</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="86" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH86" s="2" t="s">
-        <v>4542</v>
+        <v>4538</v>
       </c>
       <c r="AI86" s="2" t="s">
-        <v>4543</v>
+        <v>4539</v>
       </c>
       <c r="AJ86" s="1" t="s">
-        <v>2945</v>
+        <v>2941</v>
       </c>
       <c r="AK86" s="1" t="s">
-        <v>2946</v>
+        <v>2942</v>
       </c>
       <c r="AL86" s="1" t="s">
+        <v>3619</v>
+      </c>
+      <c r="AM86" s="1" t="s">
+        <v>3620</v>
+      </c>
+      <c r="AN86" s="1" t="s">
+        <v>3621</v>
+      </c>
+      <c r="AO86" s="1" t="s">
+        <v>3622</v>
+      </c>
+      <c r="AP86" s="1" t="s">
         <v>3623</v>
       </c>
-      <c r="AM86" s="1" t="s">
+      <c r="AQ86" s="1" t="s">
         <v>3624</v>
       </c>
-      <c r="AN86" s="1" t="s">
+      <c r="AR86" s="1" t="s">
         <v>3625</v>
       </c>
-      <c r="AO86" s="1" t="s">
+      <c r="AS86" s="1" t="s">
         <v>3626</v>
       </c>
-      <c r="AP86" s="1" t="s">
+      <c r="AT86" s="1" t="s">
         <v>3627</v>
       </c>
-      <c r="AQ86" s="1" t="s">
+      <c r="AU86" s="1" t="s">
         <v>3628</v>
       </c>
-      <c r="AR86" s="1" t="s">
+      <c r="AV86" s="1" t="s">
         <v>3629</v>
       </c>
-      <c r="AS86" s="1" t="s">
+      <c r="AW86" s="1" t="s">
         <v>3630</v>
       </c>
-      <c r="AT86" s="1" t="s">
+      <c r="AX86" s="1" t="s">
         <v>3631</v>
       </c>
-      <c r="AU86" s="1" t="s">
+      <c r="AY86" s="1" t="s">
         <v>3632</v>
       </c>
-      <c r="AV86" s="1" t="s">
+      <c r="AZ86" s="1" t="s">
         <v>3633</v>
       </c>
-      <c r="AW86" s="1" t="s">
+      <c r="BA86" s="1" t="s">
         <v>3634</v>
       </c>
-      <c r="AX86" s="1" t="s">
+      <c r="BB86" s="1" t="s">
         <v>3635</v>
       </c>
-      <c r="AY86" s="1" t="s">
+      <c r="BC86" s="1" t="s">
         <v>3636</v>
       </c>
-      <c r="AZ86" s="1" t="s">
-        <v>3637</v>
-      </c>
-      <c r="BA86" s="1" t="s">
-        <v>3638</v>
-      </c>
-      <c r="BB86" s="1" t="s">
-        <v>3639</v>
-      </c>
-      <c r="BC86" s="1" t="s">
-        <v>3640</v>
-      </c>
       <c r="BF86" s="2" t="s">
-        <v>4727</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="87" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH87" s="2" t="s">
-        <v>4544</v>
+        <v>4540</v>
       </c>
       <c r="AI87" s="2" t="s">
-        <v>4545</v>
+        <v>4541</v>
       </c>
       <c r="AJ87" s="1" t="s">
-        <v>2947</v>
+        <v>2943</v>
       </c>
       <c r="AK87" s="1" t="s">
-        <v>2948</v>
+        <v>2944</v>
       </c>
       <c r="AL87" s="1" t="s">
+        <v>3637</v>
+      </c>
+      <c r="AM87" s="1" t="s">
+        <v>3638</v>
+      </c>
+      <c r="AN87" s="1" t="s">
+        <v>3639</v>
+      </c>
+      <c r="AO87" s="1" t="s">
+        <v>3640</v>
+      </c>
+      <c r="AP87" s="1" t="s">
         <v>3641</v>
       </c>
-      <c r="AM87" s="1" t="s">
+      <c r="AQ87" s="1" t="s">
         <v>3642</v>
       </c>
-      <c r="AN87" s="1" t="s">
+      <c r="AR87" s="1" t="s">
         <v>3643</v>
       </c>
-      <c r="AO87" s="1" t="s">
+      <c r="AS87" s="1" t="s">
         <v>3644</v>
       </c>
-      <c r="AP87" s="1" t="s">
+      <c r="AT87" s="1" t="s">
         <v>3645</v>
       </c>
-      <c r="AQ87" s="1" t="s">
+      <c r="AU87" s="1" t="s">
         <v>3646</v>
       </c>
-      <c r="AR87" s="1" t="s">
+      <c r="AV87" s="1" t="s">
         <v>3647</v>
       </c>
-      <c r="AS87" s="1" t="s">
+      <c r="AW87" s="1" t="s">
         <v>3648</v>
       </c>
-      <c r="AT87" s="1" t="s">
+      <c r="AX87" s="1" t="s">
         <v>3649</v>
       </c>
-      <c r="AU87" s="1" t="s">
+      <c r="AY87" s="1" t="s">
         <v>3650</v>
       </c>
-      <c r="AV87" s="1" t="s">
+      <c r="AZ87" s="1" t="s">
         <v>3651</v>
       </c>
-      <c r="AW87" s="1" t="s">
+      <c r="BA87" s="1" t="s">
         <v>3652</v>
       </c>
-      <c r="AX87" s="1" t="s">
+      <c r="BB87" s="1" t="s">
         <v>3653</v>
       </c>
-      <c r="AY87" s="1" t="s">
+      <c r="BC87" s="1" t="s">
         <v>3654</v>
       </c>
-      <c r="AZ87" s="1" t="s">
-        <v>3655</v>
-      </c>
-      <c r="BA87" s="1" t="s">
-        <v>3656</v>
-      </c>
-      <c r="BB87" s="1" t="s">
-        <v>3657</v>
-      </c>
-      <c r="BC87" s="1" t="s">
-        <v>3658</v>
-      </c>
       <c r="BF87" s="2" t="s">
-        <v>4728</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="88" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH88" s="2" t="s">
-        <v>4546</v>
+        <v>4542</v>
       </c>
       <c r="AI88" s="2" t="s">
-        <v>4547</v>
+        <v>4543</v>
       </c>
       <c r="AJ88" s="1" t="s">
-        <v>2949</v>
+        <v>2945</v>
       </c>
       <c r="AK88" s="1" t="s">
-        <v>2950</v>
+        <v>2946</v>
       </c>
       <c r="AL88" s="1" t="s">
+        <v>3655</v>
+      </c>
+      <c r="AM88" s="1" t="s">
+        <v>3656</v>
+      </c>
+      <c r="AN88" s="1" t="s">
+        <v>3657</v>
+      </c>
+      <c r="AO88" s="1" t="s">
+        <v>3658</v>
+      </c>
+      <c r="AP88" s="1" t="s">
         <v>3659</v>
       </c>
-      <c r="AM88" s="1" t="s">
+      <c r="AQ88" s="1" t="s">
         <v>3660</v>
       </c>
-      <c r="AN88" s="1" t="s">
+      <c r="AR88" s="1" t="s">
         <v>3661</v>
       </c>
-      <c r="AO88" s="1" t="s">
+      <c r="AS88" s="1" t="s">
         <v>3662</v>
       </c>
-      <c r="AP88" s="1" t="s">
+      <c r="AT88" s="1" t="s">
         <v>3663</v>
       </c>
-      <c r="AQ88" s="1" t="s">
+      <c r="AU88" s="1" t="s">
         <v>3664</v>
       </c>
-      <c r="AR88" s="1" t="s">
+      <c r="AV88" s="1" t="s">
         <v>3665</v>
       </c>
-      <c r="AS88" s="1" t="s">
+      <c r="AW88" s="1" t="s">
         <v>3666</v>
       </c>
-      <c r="AT88" s="1" t="s">
+      <c r="AX88" s="1" t="s">
         <v>3667</v>
       </c>
-      <c r="AU88" s="1" t="s">
+      <c r="AY88" s="1" t="s">
         <v>3668</v>
       </c>
-      <c r="AV88" s="1" t="s">
+      <c r="AZ88" s="1" t="s">
         <v>3669</v>
       </c>
-      <c r="AW88" s="1" t="s">
+      <c r="BA88" s="1" t="s">
         <v>3670</v>
       </c>
-      <c r="AX88" s="1" t="s">
+      <c r="BB88" s="1" t="s">
         <v>3671</v>
       </c>
-      <c r="AY88" s="1" t="s">
+      <c r="BC88" s="1" t="s">
         <v>3672</v>
       </c>
-      <c r="AZ88" s="1" t="s">
-        <v>3673</v>
-      </c>
-      <c r="BA88" s="1" t="s">
-        <v>3674</v>
-      </c>
-      <c r="BB88" s="1" t="s">
-        <v>3675</v>
-      </c>
-      <c r="BC88" s="1" t="s">
-        <v>3676</v>
-      </c>
       <c r="BF88" s="2" t="s">
-        <v>4729</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="89" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH89" s="2" t="s">
-        <v>4548</v>
+        <v>4544</v>
       </c>
       <c r="AI89" s="2" t="s">
-        <v>4549</v>
+        <v>4545</v>
       </c>
       <c r="AJ89" s="1" t="s">
-        <v>2951</v>
+        <v>2947</v>
       </c>
       <c r="AK89" s="1" t="s">
-        <v>2952</v>
+        <v>2948</v>
       </c>
       <c r="AL89" s="1" t="s">
+        <v>3673</v>
+      </c>
+      <c r="AM89" s="1" t="s">
+        <v>3674</v>
+      </c>
+      <c r="AN89" s="1" t="s">
+        <v>3675</v>
+      </c>
+      <c r="AO89" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="AP89" s="1" t="s">
         <v>3677</v>
       </c>
-      <c r="AM89" s="1" t="s">
+      <c r="AQ89" s="1" t="s">
         <v>3678</v>
       </c>
-      <c r="AN89" s="1" t="s">
+      <c r="AR89" s="1" t="s">
         <v>3679</v>
       </c>
-      <c r="AO89" s="1" t="s">
+      <c r="AS89" s="1" t="s">
         <v>3680</v>
       </c>
-      <c r="AP89" s="1" t="s">
+      <c r="AT89" s="1" t="s">
         <v>3681</v>
       </c>
-      <c r="AQ89" s="1" t="s">
+      <c r="AU89" s="1" t="s">
         <v>3682</v>
       </c>
-      <c r="AR89" s="1" t="s">
+      <c r="AV89" s="1" t="s">
         <v>3683</v>
       </c>
-      <c r="AS89" s="1" t="s">
+      <c r="AW89" s="1" t="s">
         <v>3684</v>
       </c>
-      <c r="AT89" s="1" t="s">
+      <c r="AX89" s="1" t="s">
         <v>3685</v>
       </c>
-      <c r="AU89" s="1" t="s">
+      <c r="AY89" s="1" t="s">
         <v>3686</v>
       </c>
-      <c r="AV89" s="1" t="s">
+      <c r="AZ89" s="1" t="s">
         <v>3687</v>
       </c>
-      <c r="AW89" s="1" t="s">
+      <c r="BA89" s="1" t="s">
         <v>3688</v>
       </c>
-      <c r="AX89" s="1" t="s">
+      <c r="BB89" s="1" t="s">
         <v>3689</v>
       </c>
-      <c r="AY89" s="1" t="s">
+      <c r="BC89" s="1" t="s">
         <v>3690</v>
       </c>
-      <c r="AZ89" s="1" t="s">
-        <v>3691</v>
-      </c>
-      <c r="BA89" s="1" t="s">
-        <v>3692</v>
-      </c>
-      <c r="BB89" s="1" t="s">
-        <v>3693</v>
-      </c>
-      <c r="BC89" s="1" t="s">
-        <v>3694</v>
-      </c>
       <c r="BF89" s="2" t="s">
-        <v>4730</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="90" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH90" s="2" t="s">
-        <v>4550</v>
+        <v>4546</v>
       </c>
       <c r="AI90" s="2" t="s">
-        <v>4551</v>
+        <v>4547</v>
       </c>
       <c r="AJ90" s="1" t="s">
-        <v>2953</v>
+        <v>2949</v>
       </c>
       <c r="AK90" s="1" t="s">
-        <v>2954</v>
+        <v>2950</v>
       </c>
       <c r="AL90" s="1" t="s">
+        <v>3691</v>
+      </c>
+      <c r="AM90" s="1" t="s">
+        <v>3692</v>
+      </c>
+      <c r="AN90" s="1" t="s">
+        <v>3693</v>
+      </c>
+      <c r="AO90" s="1" t="s">
+        <v>3694</v>
+      </c>
+      <c r="AP90" s="1" t="s">
         <v>3695</v>
       </c>
-      <c r="AM90" s="1" t="s">
+      <c r="AQ90" s="1" t="s">
         <v>3696</v>
       </c>
-      <c r="AN90" s="1" t="s">
+      <c r="AR90" s="1" t="s">
         <v>3697</v>
       </c>
-      <c r="AO90" s="1" t="s">
+      <c r="AS90" s="1" t="s">
         <v>3698</v>
       </c>
-      <c r="AP90" s="1" t="s">
+      <c r="AT90" s="1" t="s">
         <v>3699</v>
       </c>
-      <c r="AQ90" s="1" t="s">
+      <c r="AU90" s="1" t="s">
         <v>3700</v>
       </c>
-      <c r="AR90" s="1" t="s">
+      <c r="AV90" s="1" t="s">
         <v>3701</v>
       </c>
-      <c r="AS90" s="1" t="s">
+      <c r="AW90" s="1" t="s">
         <v>3702</v>
       </c>
-      <c r="AT90" s="1" t="s">
+      <c r="AX90" s="1" t="s">
         <v>3703</v>
       </c>
-      <c r="AU90" s="1" t="s">
+      <c r="AY90" s="1" t="s">
         <v>3704</v>
       </c>
-      <c r="AV90" s="1" t="s">
+      <c r="AZ90" s="1" t="s">
         <v>3705</v>
       </c>
-      <c r="AW90" s="1" t="s">
+      <c r="BA90" s="1" t="s">
         <v>3706</v>
       </c>
-      <c r="AX90" s="1" t="s">
+      <c r="BB90" s="1" t="s">
         <v>3707</v>
       </c>
-      <c r="AY90" s="1" t="s">
+      <c r="BC90" s="1" t="s">
         <v>3708</v>
       </c>
-      <c r="AZ90" s="1" t="s">
-        <v>3709</v>
-      </c>
-      <c r="BA90" s="1" t="s">
-        <v>3710</v>
-      </c>
-      <c r="BB90" s="1" t="s">
-        <v>3711</v>
-      </c>
-      <c r="BC90" s="1" t="s">
-        <v>3712</v>
-      </c>
       <c r="BF90" s="2" t="s">
-        <v>4731</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="91" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH91" s="2" t="s">
-        <v>4552</v>
+        <v>4548</v>
       </c>
       <c r="AI91" s="2" t="s">
-        <v>4553</v>
+        <v>4549</v>
       </c>
       <c r="AJ91" s="1" t="s">
-        <v>2955</v>
+        <v>2951</v>
       </c>
       <c r="AK91" s="1" t="s">
-        <v>2956</v>
+        <v>2952</v>
       </c>
       <c r="AL91" s="1" t="s">
+        <v>3709</v>
+      </c>
+      <c r="AM91" s="1" t="s">
+        <v>3710</v>
+      </c>
+      <c r="AN91" s="1" t="s">
+        <v>3711</v>
+      </c>
+      <c r="AO91" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="AP91" s="1" t="s">
         <v>3713</v>
       </c>
-      <c r="AM91" s="1" t="s">
+      <c r="AQ91" s="1" t="s">
         <v>3714</v>
       </c>
-      <c r="AN91" s="1" t="s">
+      <c r="AR91" s="1" t="s">
         <v>3715</v>
       </c>
-      <c r="AO91" s="1" t="s">
+      <c r="AS91" s="1" t="s">
         <v>3716</v>
       </c>
-      <c r="AP91" s="1" t="s">
+      <c r="AT91" s="1" t="s">
         <v>3717</v>
       </c>
-      <c r="AQ91" s="1" t="s">
+      <c r="AU91" s="1" t="s">
         <v>3718</v>
       </c>
-      <c r="AR91" s="1" t="s">
+      <c r="AV91" s="1" t="s">
         <v>3719</v>
       </c>
-      <c r="AS91" s="1" t="s">
+      <c r="AW91" s="1" t="s">
         <v>3720</v>
       </c>
-      <c r="AT91" s="1" t="s">
+      <c r="AX91" s="1" t="s">
         <v>3721</v>
       </c>
-      <c r="AU91" s="1" t="s">
+      <c r="AY91" s="1" t="s">
         <v>3722</v>
       </c>
-      <c r="AV91" s="1" t="s">
+      <c r="AZ91" s="1" t="s">
         <v>3723</v>
       </c>
-      <c r="AW91" s="1" t="s">
+      <c r="BA91" s="1" t="s">
         <v>3724</v>
       </c>
-      <c r="AX91" s="1" t="s">
+      <c r="BB91" s="1" t="s">
         <v>3725</v>
       </c>
-      <c r="AY91" s="1" t="s">
+      <c r="BC91" s="1" t="s">
         <v>3726</v>
       </c>
-      <c r="AZ91" s="1" t="s">
-        <v>3727</v>
-      </c>
-      <c r="BA91" s="1" t="s">
-        <v>3728</v>
-      </c>
-      <c r="BB91" s="1" t="s">
-        <v>3729</v>
-      </c>
-      <c r="BC91" s="1" t="s">
-        <v>3730</v>
-      </c>
       <c r="BF91" s="2" t="s">
-        <v>4732</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="92" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH92" s="2" t="s">
-        <v>4554</v>
+        <v>4550</v>
       </c>
       <c r="AI92" s="2" t="s">
-        <v>4555</v>
+        <v>4551</v>
       </c>
       <c r="AJ92" s="1" t="s">
-        <v>2957</v>
+        <v>2953</v>
       </c>
       <c r="AK92" s="1" t="s">
-        <v>2958</v>
+        <v>2954</v>
       </c>
       <c r="AL92" s="1" t="s">
+        <v>3727</v>
+      </c>
+      <c r="AM92" s="1" t="s">
+        <v>3728</v>
+      </c>
+      <c r="AN92" s="1" t="s">
+        <v>3729</v>
+      </c>
+      <c r="AO92" s="1" t="s">
+        <v>3730</v>
+      </c>
+      <c r="AP92" s="1" t="s">
         <v>3731</v>
       </c>
-      <c r="AM92" s="1" t="s">
+      <c r="AQ92" s="1" t="s">
         <v>3732</v>
       </c>
-      <c r="AN92" s="1" t="s">
+      <c r="AR92" s="1" t="s">
         <v>3733</v>
       </c>
-      <c r="AO92" s="1" t="s">
+      <c r="AS92" s="1" t="s">
         <v>3734</v>
       </c>
-      <c r="AP92" s="1" t="s">
+      <c r="AT92" s="1" t="s">
         <v>3735</v>
       </c>
-      <c r="AQ92" s="1" t="s">
+      <c r="AU92" s="1" t="s">
         <v>3736</v>
       </c>
-      <c r="AR92" s="1" t="s">
+      <c r="AV92" s="1" t="s">
         <v>3737</v>
       </c>
-      <c r="AS92" s="1" t="s">
+      <c r="AW92" s="1" t="s">
         <v>3738</v>
       </c>
-      <c r="AT92" s="1" t="s">
+      <c r="AX92" s="1" t="s">
         <v>3739</v>
       </c>
-      <c r="AU92" s="1" t="s">
+      <c r="AY92" s="1" t="s">
         <v>3740</v>
       </c>
-      <c r="AV92" s="1" t="s">
+      <c r="AZ92" s="1" t="s">
         <v>3741</v>
       </c>
-      <c r="AW92" s="1" t="s">
+      <c r="BA92" s="1" t="s">
         <v>3742</v>
       </c>
-      <c r="AX92" s="1" t="s">
+      <c r="BB92" s="1" t="s">
         <v>3743</v>
       </c>
-      <c r="AY92" s="1" t="s">
+      <c r="BC92" s="1" t="s">
         <v>3744</v>
       </c>
-      <c r="AZ92" s="1" t="s">
-        <v>3745</v>
-      </c>
-      <c r="BA92" s="1" t="s">
-        <v>3746</v>
-      </c>
-      <c r="BB92" s="1" t="s">
-        <v>3747</v>
-      </c>
-      <c r="BC92" s="1" t="s">
-        <v>3748</v>
-      </c>
       <c r="BF92" s="2" t="s">
-        <v>4733</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="93" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH93" s="2" t="s">
-        <v>4556</v>
+        <v>4552</v>
       </c>
       <c r="AI93" s="2" t="s">
-        <v>4557</v>
+        <v>4553</v>
       </c>
       <c r="AJ93" s="1" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
       <c r="AK93" s="1" t="s">
-        <v>2960</v>
+        <v>2956</v>
       </c>
       <c r="AL93" s="1" t="s">
+        <v>3745</v>
+      </c>
+      <c r="AM93" s="1" t="s">
+        <v>3746</v>
+      </c>
+      <c r="AN93" s="1" t="s">
+        <v>3747</v>
+      </c>
+      <c r="AO93" s="1" t="s">
+        <v>3748</v>
+      </c>
+      <c r="AP93" s="1" t="s">
         <v>3749</v>
       </c>
-      <c r="AM93" s="1" t="s">
+      <c r="AQ93" s="1" t="s">
         <v>3750</v>
       </c>
-      <c r="AN93" s="1" t="s">
+      <c r="AR93" s="1" t="s">
         <v>3751</v>
       </c>
-      <c r="AO93" s="1" t="s">
+      <c r="AS93" s="1" t="s">
         <v>3752</v>
       </c>
-      <c r="AP93" s="1" t="s">
+      <c r="AT93" s="1" t="s">
         <v>3753</v>
       </c>
-      <c r="AQ93" s="1" t="s">
+      <c r="AU93" s="1" t="s">
         <v>3754</v>
       </c>
-      <c r="AR93" s="1" t="s">
+      <c r="AV93" s="1" t="s">
         <v>3755</v>
       </c>
-      <c r="AS93" s="1" t="s">
+      <c r="AW93" s="1" t="s">
         <v>3756</v>
       </c>
-      <c r="AT93" s="1" t="s">
+      <c r="AX93" s="1" t="s">
         <v>3757</v>
       </c>
-      <c r="AU93" s="1" t="s">
+      <c r="AY93" s="1" t="s">
         <v>3758</v>
       </c>
-      <c r="AV93" s="1" t="s">
+      <c r="AZ93" s="1" t="s">
         <v>3759</v>
       </c>
-      <c r="AW93" s="1" t="s">
+      <c r="BA93" s="1" t="s">
         <v>3760</v>
       </c>
-      <c r="AX93" s="1" t="s">
+      <c r="BB93" s="1" t="s">
         <v>3761</v>
       </c>
-      <c r="AY93" s="1" t="s">
+      <c r="BC93" s="1" t="s">
         <v>3762</v>
       </c>
-      <c r="AZ93" s="1" t="s">
-        <v>3763</v>
-      </c>
-      <c r="BA93" s="1" t="s">
-        <v>3764</v>
-      </c>
-      <c r="BB93" s="1" t="s">
-        <v>3765</v>
-      </c>
-      <c r="BC93" s="1" t="s">
-        <v>3766</v>
-      </c>
       <c r="BF93" s="2" t="s">
-        <v>4734</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="94" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH94" s="2" t="s">
-        <v>4558</v>
+        <v>4554</v>
       </c>
       <c r="AI94" s="2" t="s">
-        <v>4559</v>
+        <v>4555</v>
       </c>
       <c r="AJ94" s="1" t="s">
-        <v>2961</v>
+        <v>2957</v>
       </c>
       <c r="AK94" s="1" t="s">
-        <v>2962</v>
+        <v>2958</v>
       </c>
       <c r="AL94" s="1" t="s">
+        <v>3763</v>
+      </c>
+      <c r="AM94" s="1" t="s">
+        <v>3764</v>
+      </c>
+      <c r="AN94" s="1" t="s">
+        <v>3765</v>
+      </c>
+      <c r="AO94" s="1" t="s">
+        <v>3766</v>
+      </c>
+      <c r="AP94" s="1" t="s">
         <v>3767</v>
       </c>
-      <c r="AM94" s="1" t="s">
+      <c r="AQ94" s="1" t="s">
         <v>3768</v>
       </c>
-      <c r="AN94" s="1" t="s">
+      <c r="AR94" s="1" t="s">
         <v>3769</v>
       </c>
-      <c r="AO94" s="1" t="s">
+      <c r="AS94" s="1" t="s">
         <v>3770</v>
       </c>
-      <c r="AP94" s="1" t="s">
+      <c r="AT94" s="1" t="s">
         <v>3771</v>
       </c>
-      <c r="AQ94" s="1" t="s">
+      <c r="AU94" s="1" t="s">
         <v>3772</v>
       </c>
-      <c r="AR94" s="1" t="s">
+      <c r="AV94" s="1" t="s">
         <v>3773</v>
       </c>
-      <c r="AS94" s="1" t="s">
+      <c r="AW94" s="1" t="s">
         <v>3774</v>
       </c>
-      <c r="AT94" s="1" t="s">
+      <c r="AX94" s="1" t="s">
         <v>3775</v>
       </c>
-      <c r="AU94" s="1" t="s">
+      <c r="AY94" s="1" t="s">
         <v>3776</v>
       </c>
-      <c r="AV94" s="1" t="s">
+      <c r="AZ94" s="1" t="s">
         <v>3777</v>
       </c>
-      <c r="AW94" s="1" t="s">
+      <c r="BA94" s="1" t="s">
         <v>3778</v>
       </c>
-      <c r="AX94" s="1" t="s">
+      <c r="BB94" s="1" t="s">
         <v>3779</v>
       </c>
-      <c r="AY94" s="1" t="s">
+      <c r="BC94" s="1" t="s">
         <v>3780</v>
       </c>
-      <c r="AZ94" s="1" t="s">
-        <v>3781</v>
-      </c>
-      <c r="BA94" s="1" t="s">
-        <v>3782</v>
-      </c>
-      <c r="BB94" s="1" t="s">
-        <v>3783</v>
-      </c>
-      <c r="BC94" s="1" t="s">
-        <v>3784</v>
-      </c>
       <c r="BF94" s="2" t="s">
-        <v>4735</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="95" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH95" s="2" t="s">
-        <v>4560</v>
+        <v>4556</v>
       </c>
       <c r="AI95" s="2" t="s">
-        <v>4561</v>
+        <v>4557</v>
       </c>
       <c r="AJ95" s="1" t="s">
-        <v>2963</v>
+        <v>2959</v>
       </c>
       <c r="AK95" s="1" t="s">
-        <v>2964</v>
+        <v>2960</v>
       </c>
       <c r="AL95" s="1" t="s">
+        <v>3781</v>
+      </c>
+      <c r="AM95" s="1" t="s">
+        <v>3782</v>
+      </c>
+      <c r="AN95" s="1" t="s">
+        <v>3783</v>
+      </c>
+      <c r="AO95" s="1" t="s">
+        <v>3784</v>
+      </c>
+      <c r="AP95" s="1" t="s">
         <v>3785</v>
       </c>
-      <c r="AM95" s="1" t="s">
+      <c r="AQ95" s="1" t="s">
         <v>3786</v>
       </c>
-      <c r="AN95" s="1" t="s">
+      <c r="AR95" s="1" t="s">
         <v>3787</v>
       </c>
-      <c r="AO95" s="1" t="s">
+      <c r="AS95" s="1" t="s">
         <v>3788</v>
       </c>
-      <c r="AP95" s="1" t="s">
+      <c r="AT95" s="1" t="s">
         <v>3789</v>
       </c>
-      <c r="AQ95" s="1" t="s">
+      <c r="AU95" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="AR95" s="1" t="s">
+      <c r="AV95" s="1" t="s">
         <v>3791</v>
       </c>
-      <c r="AS95" s="1" t="s">
+      <c r="AW95" s="1" t="s">
         <v>3792</v>
       </c>
-      <c r="AT95" s="1" t="s">
+      <c r="AX95" s="1" t="s">
         <v>3793</v>
       </c>
-      <c r="AU95" s="1" t="s">
+      <c r="AY95" s="1" t="s">
         <v>3794</v>
       </c>
-      <c r="AV95" s="1" t="s">
+      <c r="AZ95" s="1" t="s">
         <v>3795</v>
       </c>
-      <c r="AW95" s="1" t="s">
+      <c r="BA95" s="1" t="s">
         <v>3796</v>
       </c>
-      <c r="AX95" s="1" t="s">
+      <c r="BB95" s="1" t="s">
         <v>3797</v>
       </c>
-      <c r="AY95" s="1" t="s">
+      <c r="BC95" s="1" t="s">
         <v>3798</v>
       </c>
-      <c r="AZ95" s="1" t="s">
-        <v>3799</v>
-      </c>
-      <c r="BA95" s="1" t="s">
-        <v>3800</v>
-      </c>
-      <c r="BB95" s="1" t="s">
-        <v>3801</v>
-      </c>
-      <c r="BC95" s="1" t="s">
-        <v>3802</v>
-      </c>
       <c r="BF95" s="2" t="s">
-        <v>4736</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="96" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH96" s="2" t="s">
-        <v>4562</v>
+        <v>4558</v>
       </c>
       <c r="AI96" s="2" t="s">
-        <v>4563</v>
+        <v>4559</v>
       </c>
       <c r="AJ96" s="1" t="s">
-        <v>2965</v>
+        <v>2961</v>
       </c>
       <c r="AK96" s="1" t="s">
-        <v>2966</v>
+        <v>2962</v>
       </c>
       <c r="AL96" s="1" t="s">
+        <v>3799</v>
+      </c>
+      <c r="AM96" s="1" t="s">
+        <v>3800</v>
+      </c>
+      <c r="AN96" s="1" t="s">
+        <v>3801</v>
+      </c>
+      <c r="AO96" s="1" t="s">
+        <v>3802</v>
+      </c>
+      <c r="AP96" s="1" t="s">
         <v>3803</v>
       </c>
-      <c r="AM96" s="1" t="s">
+      <c r="AQ96" s="1" t="s">
         <v>3804</v>
       </c>
-      <c r="AN96" s="1" t="s">
+      <c r="AR96" s="1" t="s">
         <v>3805</v>
       </c>
-      <c r="AO96" s="1" t="s">
+      <c r="AS96" s="1" t="s">
         <v>3806</v>
       </c>
-      <c r="AP96" s="1" t="s">
+      <c r="AT96" s="1" t="s">
         <v>3807</v>
       </c>
-      <c r="AQ96" s="1" t="s">
+      <c r="AU96" s="1" t="s">
         <v>3808</v>
       </c>
-      <c r="AR96" s="1" t="s">
+      <c r="AV96" s="1" t="s">
         <v>3809</v>
       </c>
-      <c r="AS96" s="1" t="s">
+      <c r="AW96" s="1" t="s">
         <v>3810</v>
       </c>
-      <c r="AT96" s="1" t="s">
+      <c r="AX96" s="1" t="s">
         <v>3811</v>
       </c>
-      <c r="AU96" s="1" t="s">
+      <c r="AY96" s="1" t="s">
         <v>3812</v>
       </c>
-      <c r="AV96" s="1" t="s">
+      <c r="AZ96" s="1" t="s">
         <v>3813</v>
       </c>
-      <c r="AW96" s="1" t="s">
+      <c r="BA96" s="1" t="s">
         <v>3814</v>
       </c>
-      <c r="AX96" s="1" t="s">
+      <c r="BB96" s="1" t="s">
         <v>3815</v>
       </c>
-      <c r="AY96" s="1" t="s">
+      <c r="BC96" s="1" t="s">
         <v>3816</v>
       </c>
-      <c r="AZ96" s="1" t="s">
-        <v>3817</v>
-      </c>
-      <c r="BA96" s="1" t="s">
-        <v>3818</v>
-      </c>
-      <c r="BB96" s="1" t="s">
-        <v>3819</v>
-      </c>
-      <c r="BC96" s="1" t="s">
-        <v>3820</v>
-      </c>
       <c r="BF96" s="2" t="s">
-        <v>4737</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="97" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH97" s="2" t="s">
-        <v>4564</v>
+        <v>4560</v>
       </c>
       <c r="AI97" s="2" t="s">
-        <v>4565</v>
+        <v>4561</v>
       </c>
       <c r="AJ97" s="1" t="s">
-        <v>2967</v>
+        <v>2963</v>
       </c>
       <c r="AK97" s="1" t="s">
-        <v>2968</v>
+        <v>2964</v>
       </c>
       <c r="AL97" s="1" t="s">
+        <v>3817</v>
+      </c>
+      <c r="AM97" s="1" t="s">
+        <v>3818</v>
+      </c>
+      <c r="AN97" s="1" t="s">
+        <v>3819</v>
+      </c>
+      <c r="AO97" s="1" t="s">
+        <v>3820</v>
+      </c>
+      <c r="AP97" s="1" t="s">
         <v>3821</v>
       </c>
-      <c r="AM97" s="1" t="s">
+      <c r="AQ97" s="1" t="s">
         <v>3822</v>
       </c>
-      <c r="AN97" s="1" t="s">
+      <c r="AR97" s="1" t="s">
         <v>3823</v>
       </c>
-      <c r="AO97" s="1" t="s">
+      <c r="AS97" s="1" t="s">
         <v>3824</v>
       </c>
-      <c r="AP97" s="1" t="s">
+      <c r="AT97" s="1" t="s">
         <v>3825</v>
       </c>
-      <c r="AQ97" s="1" t="s">
+      <c r="AU97" s="1" t="s">
         <v>3826</v>
       </c>
-      <c r="AR97" s="1" t="s">
+      <c r="AV97" s="1" t="s">
         <v>3827</v>
       </c>
-      <c r="AS97" s="1" t="s">
+      <c r="AW97" s="1" t="s">
         <v>3828</v>
       </c>
-      <c r="AT97" s="1" t="s">
+      <c r="AX97" s="1" t="s">
         <v>3829</v>
       </c>
-      <c r="AU97" s="1" t="s">
+      <c r="AY97" s="1" t="s">
         <v>3830</v>
       </c>
-      <c r="AV97" s="1" t="s">
+      <c r="AZ97" s="1" t="s">
         <v>3831</v>
       </c>
-      <c r="AW97" s="1" t="s">
+      <c r="BA97" s="1" t="s">
         <v>3832</v>
       </c>
-      <c r="AX97" s="1" t="s">
+      <c r="BB97" s="1" t="s">
         <v>3833</v>
       </c>
-      <c r="AY97" s="1" t="s">
+      <c r="BC97" s="1" t="s">
         <v>3834</v>
       </c>
-      <c r="AZ97" s="1" t="s">
-        <v>3835</v>
-      </c>
-      <c r="BA97" s="1" t="s">
-        <v>3836</v>
-      </c>
-      <c r="BB97" s="1" t="s">
-        <v>3837</v>
-      </c>
-      <c r="BC97" s="1" t="s">
-        <v>3838</v>
-      </c>
       <c r="BF97" s="2" t="s">
-        <v>4738</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="98" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH98" s="2" t="s">
-        <v>4566</v>
+        <v>4562</v>
       </c>
       <c r="AI98" s="2" t="s">
-        <v>4567</v>
+        <v>4563</v>
       </c>
       <c r="AJ98" s="1" t="s">
-        <v>2969</v>
+        <v>2965</v>
       </c>
       <c r="AK98" s="1" t="s">
-        <v>2970</v>
+        <v>2966</v>
       </c>
       <c r="AL98" s="1" t="s">
+        <v>3835</v>
+      </c>
+      <c r="AM98" s="1" t="s">
+        <v>3836</v>
+      </c>
+      <c r="AN98" s="1" t="s">
+        <v>3837</v>
+      </c>
+      <c r="AO98" s="1" t="s">
+        <v>3838</v>
+      </c>
+      <c r="AP98" s="1" t="s">
         <v>3839</v>
       </c>
-      <c r="AM98" s="1" t="s">
+      <c r="AQ98" s="1" t="s">
         <v>3840</v>
       </c>
-      <c r="AN98" s="1" t="s">
+      <c r="AR98" s="1" t="s">
         <v>3841</v>
       </c>
-      <c r="AO98" s="1" t="s">
+      <c r="AS98" s="1" t="s">
         <v>3842</v>
       </c>
-      <c r="AP98" s="1" t="s">
+      <c r="AT98" s="1" t="s">
         <v>3843</v>
       </c>
-      <c r="AQ98" s="1" t="s">
+      <c r="AU98" s="1" t="s">
         <v>3844</v>
       </c>
-      <c r="AR98" s="1" t="s">
+      <c r="AV98" s="1" t="s">
         <v>3845</v>
       </c>
-      <c r="AS98" s="1" t="s">
+      <c r="AW98" s="1" t="s">
         <v>3846</v>
       </c>
-      <c r="AT98" s="1" t="s">
+      <c r="AX98" s="1" t="s">
         <v>3847</v>
       </c>
-      <c r="AU98" s="1" t="s">
+      <c r="AY98" s="1" t="s">
         <v>3848</v>
       </c>
-      <c r="AV98" s="1" t="s">
+      <c r="AZ98" s="1" t="s">
         <v>3849</v>
       </c>
-      <c r="AW98" s="1" t="s">
+      <c r="BA98" s="1" t="s">
         <v>3850</v>
       </c>
-      <c r="AX98" s="1" t="s">
+      <c r="BB98" s="1" t="s">
         <v>3851</v>
       </c>
-      <c r="AY98" s="1" t="s">
+      <c r="BC98" s="1" t="s">
         <v>3852</v>
       </c>
-      <c r="AZ98" s="1" t="s">
-        <v>3853</v>
-      </c>
-      <c r="BA98" s="1" t="s">
-        <v>3854</v>
-      </c>
-      <c r="BB98" s="1" t="s">
-        <v>3855</v>
-      </c>
-      <c r="BC98" s="1" t="s">
-        <v>3856</v>
-      </c>
       <c r="BF98" s="2" t="s">
-        <v>4739</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="99" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH99" s="2" t="s">
-        <v>4568</v>
+        <v>4564</v>
       </c>
       <c r="AI99" s="2" t="s">
-        <v>4569</v>
+        <v>4565</v>
       </c>
       <c r="AJ99" s="1" t="s">
-        <v>2971</v>
+        <v>2967</v>
       </c>
       <c r="AK99" s="1" t="s">
-        <v>2972</v>
+        <v>2968</v>
       </c>
       <c r="AL99" s="1" t="s">
+        <v>3853</v>
+      </c>
+      <c r="AM99" s="1" t="s">
+        <v>3854</v>
+      </c>
+      <c r="AN99" s="1" t="s">
+        <v>3855</v>
+      </c>
+      <c r="AO99" s="1" t="s">
+        <v>3856</v>
+      </c>
+      <c r="AP99" s="1" t="s">
         <v>3857</v>
       </c>
-      <c r="AM99" s="1" t="s">
+      <c r="AQ99" s="1" t="s">
         <v>3858</v>
       </c>
-      <c r="AN99" s="1" t="s">
+      <c r="AR99" s="1" t="s">
         <v>3859</v>
       </c>
-      <c r="AO99" s="1" t="s">
+      <c r="AS99" s="1" t="s">
         <v>3860</v>
       </c>
-      <c r="AP99" s="1" t="s">
+      <c r="AT99" s="1" t="s">
         <v>3861</v>
       </c>
-      <c r="AQ99" s="1" t="s">
+      <c r="AU99" s="1" t="s">
         <v>3862</v>
       </c>
-      <c r="AR99" s="1" t="s">
+      <c r="AV99" s="1" t="s">
         <v>3863</v>
       </c>
-      <c r="AS99" s="1" t="s">
+      <c r="AW99" s="1" t="s">
         <v>3864</v>
       </c>
-      <c r="AT99" s="1" t="s">
+      <c r="AX99" s="1" t="s">
         <v>3865</v>
       </c>
-      <c r="AU99" s="1" t="s">
+      <c r="AY99" s="1" t="s">
         <v>3866</v>
       </c>
-      <c r="AV99" s="1" t="s">
+      <c r="AZ99" s="1" t="s">
         <v>3867</v>
       </c>
-      <c r="AW99" s="1" t="s">
+      <c r="BA99" s="1" t="s">
         <v>3868</v>
       </c>
-      <c r="AX99" s="1" t="s">
+      <c r="BB99" s="1" t="s">
         <v>3869</v>
       </c>
-      <c r="AY99" s="1" t="s">
+      <c r="BC99" s="1" t="s">
         <v>3870</v>
       </c>
-      <c r="AZ99" s="1" t="s">
-        <v>3871</v>
-      </c>
-      <c r="BA99" s="1" t="s">
-        <v>3872</v>
-      </c>
-      <c r="BB99" s="1" t="s">
-        <v>3873</v>
-      </c>
-      <c r="BC99" s="1" t="s">
-        <v>3874</v>
-      </c>
       <c r="BF99" s="2" t="s">
-        <v>4740</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="100" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH100" s="2" t="s">
-        <v>4570</v>
+        <v>4566</v>
       </c>
       <c r="AI100" s="2" t="s">
-        <v>4571</v>
+        <v>4567</v>
       </c>
       <c r="AJ100" s="1" t="s">
-        <v>2973</v>
+        <v>2969</v>
       </c>
       <c r="AK100" s="1" t="s">
-        <v>2974</v>
+        <v>2970</v>
       </c>
       <c r="AL100" s="1" t="s">
+        <v>3871</v>
+      </c>
+      <c r="AM100" s="1" t="s">
+        <v>3872</v>
+      </c>
+      <c r="AN100" s="1" t="s">
+        <v>3873</v>
+      </c>
+      <c r="AO100" s="1" t="s">
+        <v>3874</v>
+      </c>
+      <c r="AP100" s="1" t="s">
         <v>3875</v>
       </c>
-      <c r="AM100" s="1" t="s">
+      <c r="AQ100" s="1" t="s">
         <v>3876</v>
       </c>
-      <c r="AN100" s="1" t="s">
+      <c r="AR100" s="1" t="s">
         <v>3877</v>
       </c>
-      <c r="AO100" s="1" t="s">
+      <c r="AS100" s="1" t="s">
         <v>3878</v>
       </c>
-      <c r="AP100" s="1" t="s">
+      <c r="AT100" s="1" t="s">
         <v>3879</v>
       </c>
-      <c r="AQ100" s="1" t="s">
+      <c r="AU100" s="1" t="s">
         <v>3880</v>
       </c>
-      <c r="AR100" s="1" t="s">
+      <c r="AV100" s="1" t="s">
         <v>3881</v>
       </c>
-      <c r="AS100" s="1" t="s">
+      <c r="AW100" s="1" t="s">
         <v>3882</v>
       </c>
-      <c r="AT100" s="1" t="s">
+      <c r="AX100" s="1" t="s">
         <v>3883</v>
       </c>
-      <c r="AU100" s="1" t="s">
+      <c r="AY100" s="1" t="s">
         <v>3884</v>
       </c>
-      <c r="AV100" s="1" t="s">
+      <c r="AZ100" s="1" t="s">
         <v>3885</v>
       </c>
-      <c r="AW100" s="1" t="s">
+      <c r="BA100" s="1" t="s">
         <v>3886</v>
       </c>
-      <c r="AX100" s="1" t="s">
+      <c r="BB100" s="1" t="s">
         <v>3887</v>
       </c>
-      <c r="AY100" s="1" t="s">
+      <c r="BC100" s="1" t="s">
         <v>3888</v>
       </c>
-      <c r="AZ100" s="1" t="s">
-        <v>3889</v>
-      </c>
-      <c r="BA100" s="1" t="s">
-        <v>3890</v>
-      </c>
-      <c r="BB100" s="1" t="s">
-        <v>3891</v>
-      </c>
-      <c r="BC100" s="1" t="s">
-        <v>3892</v>
-      </c>
       <c r="BF100" s="2" t="s">
-        <v>4741</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="101" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH101" s="2" t="s">
-        <v>4572</v>
+        <v>4568</v>
       </c>
       <c r="AI101" s="2" t="s">
-        <v>4573</v>
+        <v>4569</v>
       </c>
       <c r="AJ101" s="1" t="s">
-        <v>2975</v>
+        <v>2971</v>
       </c>
       <c r="AK101" s="1" t="s">
-        <v>2976</v>
+        <v>2972</v>
       </c>
       <c r="AL101" s="1" t="s">
+        <v>3889</v>
+      </c>
+      <c r="AM101" s="1" t="s">
+        <v>3890</v>
+      </c>
+      <c r="AN101" s="1" t="s">
+        <v>3891</v>
+      </c>
+      <c r="AO101" s="1" t="s">
+        <v>3892</v>
+      </c>
+      <c r="AP101" s="1" t="s">
         <v>3893</v>
       </c>
-      <c r="AM101" s="1" t="s">
+      <c r="AQ101" s="1" t="s">
         <v>3894</v>
       </c>
-      <c r="AN101" s="1" t="s">
+      <c r="AR101" s="1" t="s">
         <v>3895</v>
       </c>
-      <c r="AO101" s="1" t="s">
+      <c r="AS101" s="1" t="s">
         <v>3896</v>
       </c>
-      <c r="AP101" s="1" t="s">
+      <c r="AT101" s="1" t="s">
         <v>3897</v>
       </c>
-      <c r="AQ101" s="1" t="s">
+      <c r="AU101" s="1" t="s">
         <v>3898</v>
       </c>
-      <c r="AR101" s="1" t="s">
+      <c r="AV101" s="1" t="s">
         <v>3899</v>
       </c>
-      <c r="AS101" s="1" t="s">
+      <c r="AW101" s="1" t="s">
         <v>3900</v>
       </c>
-      <c r="AT101" s="1" t="s">
+      <c r="AX101" s="1" t="s">
         <v>3901</v>
       </c>
-      <c r="AU101" s="1" t="s">
+      <c r="AY101" s="1" t="s">
         <v>3902</v>
       </c>
-      <c r="AV101" s="1" t="s">
+      <c r="AZ101" s="1" t="s">
         <v>3903</v>
       </c>
-      <c r="AW101" s="1" t="s">
+      <c r="BA101" s="1" t="s">
         <v>3904</v>
       </c>
-      <c r="AX101" s="1" t="s">
+      <c r="BB101" s="1" t="s">
         <v>3905</v>
       </c>
-      <c r="AY101" s="1" t="s">
+      <c r="BC101" s="1" t="s">
         <v>3906</v>
       </c>
-      <c r="AZ101" s="1" t="s">
-        <v>3907</v>
-      </c>
-      <c r="BA101" s="1" t="s">
-        <v>3908</v>
-      </c>
-      <c r="BB101" s="1" t="s">
-        <v>3909</v>
-      </c>
-      <c r="BC101" s="1" t="s">
-        <v>3910</v>
-      </c>
       <c r="BF101" s="2" t="s">
-        <v>4742</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="102" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH102" s="2" t="s">
-        <v>4574</v>
+        <v>4570</v>
       </c>
       <c r="AI102" s="2" t="s">
-        <v>4575</v>
+        <v>4571</v>
       </c>
       <c r="AJ102" s="1" t="s">
-        <v>2977</v>
+        <v>2973</v>
       </c>
       <c r="AK102" s="1" t="s">
-        <v>2978</v>
+        <v>2974</v>
       </c>
       <c r="AL102" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="AM102" s="1" t="s">
+        <v>3908</v>
+      </c>
+      <c r="AN102" s="1" t="s">
+        <v>3909</v>
+      </c>
+      <c r="AO102" s="1" t="s">
+        <v>3910</v>
+      </c>
+      <c r="AP102" s="1" t="s">
         <v>3911</v>
       </c>
-      <c r="AM102" s="1" t="s">
+      <c r="AQ102" s="1" t="s">
         <v>3912</v>
       </c>
-      <c r="AN102" s="1" t="s">
+      <c r="AR102" s="1" t="s">
         <v>3913</v>
       </c>
-      <c r="AO102" s="1" t="s">
+      <c r="AS102" s="1" t="s">
         <v>3914</v>
       </c>
-      <c r="AP102" s="1" t="s">
+      <c r="AT102" s="1" t="s">
         <v>3915</v>
       </c>
-      <c r="AQ102" s="1" t="s">
+      <c r="AU102" s="1" t="s">
         <v>3916</v>
       </c>
-      <c r="AR102" s="1" t="s">
+      <c r="AV102" s="1" t="s">
         <v>3917</v>
       </c>
-      <c r="AS102" s="1" t="s">
+      <c r="AW102" s="1" t="s">
         <v>3918</v>
       </c>
-      <c r="AT102" s="1" t="s">
+      <c r="AX102" s="1" t="s">
         <v>3919</v>
       </c>
-      <c r="AU102" s="1" t="s">
+      <c r="AY102" s="1" t="s">
         <v>3920</v>
       </c>
-      <c r="AV102" s="1" t="s">
+      <c r="AZ102" s="1" t="s">
         <v>3921</v>
       </c>
-      <c r="AW102" s="1" t="s">
+      <c r="BA102" s="1" t="s">
         <v>3922</v>
       </c>
-      <c r="AX102" s="1" t="s">
+      <c r="BB102" s="1" t="s">
         <v>3923</v>
       </c>
-      <c r="AY102" s="1" t="s">
+      <c r="BC102" s="1" t="s">
         <v>3924</v>
       </c>
-      <c r="AZ102" s="1" t="s">
-        <v>3925</v>
-      </c>
-      <c r="BA102" s="1" t="s">
-        <v>3926</v>
-      </c>
-      <c r="BB102" s="1" t="s">
-        <v>3927</v>
-      </c>
-      <c r="BC102" s="1" t="s">
-        <v>3928</v>
-      </c>
       <c r="BF102" s="2" t="s">
-        <v>4743</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="103" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH103" s="2" t="s">
-        <v>4576</v>
+        <v>4572</v>
       </c>
       <c r="AI103" s="2" t="s">
-        <v>4577</v>
+        <v>4573</v>
       </c>
       <c r="AJ103" s="1" t="s">
-        <v>2979</v>
+        <v>2975</v>
       </c>
       <c r="AK103" s="1" t="s">
-        <v>2980</v>
+        <v>2976</v>
       </c>
       <c r="AL103" s="1" t="s">
+        <v>3925</v>
+      </c>
+      <c r="AM103" s="1" t="s">
+        <v>3926</v>
+      </c>
+      <c r="AN103" s="1" t="s">
+        <v>3927</v>
+      </c>
+      <c r="AO103" s="1" t="s">
+        <v>3928</v>
+      </c>
+      <c r="AP103" s="1" t="s">
         <v>3929</v>
       </c>
-      <c r="AM103" s="1" t="s">
+      <c r="AQ103" s="1" t="s">
         <v>3930</v>
       </c>
-      <c r="AN103" s="1" t="s">
+      <c r="AR103" s="1" t="s">
         <v>3931</v>
       </c>
-      <c r="AO103" s="1" t="s">
+      <c r="AS103" s="1" t="s">
         <v>3932</v>
       </c>
-      <c r="AP103" s="1" t="s">
+      <c r="AT103" s="1" t="s">
         <v>3933</v>
       </c>
-      <c r="AQ103" s="1" t="s">
+      <c r="AU103" s="1" t="s">
         <v>3934</v>
       </c>
-      <c r="AR103" s="1" t="s">
+      <c r="AV103" s="1" t="s">
         <v>3935</v>
       </c>
-      <c r="AS103" s="1" t="s">
+      <c r="AW103" s="1" t="s">
         <v>3936</v>
       </c>
-      <c r="AT103" s="1" t="s">
+      <c r="AX103" s="1" t="s">
         <v>3937</v>
       </c>
-      <c r="AU103" s="1" t="s">
+      <c r="AY103" s="1" t="s">
         <v>3938</v>
       </c>
-      <c r="AV103" s="1" t="s">
+      <c r="AZ103" s="1" t="s">
         <v>3939</v>
       </c>
-      <c r="AW103" s="1" t="s">
+      <c r="BA103" s="1" t="s">
         <v>3940</v>
       </c>
-      <c r="AX103" s="1" t="s">
+      <c r="BB103" s="1" t="s">
         <v>3941</v>
       </c>
-      <c r="AY103" s="1" t="s">
+      <c r="BC103" s="1" t="s">
         <v>3942</v>
-      </c>
-      <c r="AZ103" s="1" t="s">
-        <v>3943</v>
-      </c>
-      <c r="BA103" s="1" t="s">
-        <v>3944</v>
-      </c>
-      <c r="BB103" s="1" t="s">
-        <v>3945</v>
-      </c>
-      <c r="BC103" s="1" t="s">
-        <v>3946</v>
       </c>
     </row>
     <row r="104" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH104" s="2" t="s">
-        <v>4578</v>
+        <v>4574</v>
       </c>
       <c r="AI104" s="2" t="s">
-        <v>4579</v>
+        <v>4575</v>
       </c>
       <c r="AJ104" s="1" t="s">
-        <v>2981</v>
+        <v>2977</v>
       </c>
       <c r="AK104" s="1" t="s">
-        <v>2982</v>
+        <v>2978</v>
       </c>
       <c r="AL104" s="1" t="s">
+        <v>3943</v>
+      </c>
+      <c r="AM104" s="1" t="s">
+        <v>3944</v>
+      </c>
+      <c r="AN104" s="1" t="s">
+        <v>3945</v>
+      </c>
+      <c r="AO104" s="1" t="s">
+        <v>3946</v>
+      </c>
+      <c r="AP104" s="1" t="s">
         <v>3947</v>
       </c>
-      <c r="AM104" s="1" t="s">
+      <c r="AQ104" s="1" t="s">
         <v>3948</v>
       </c>
-      <c r="AN104" s="1" t="s">
+      <c r="AR104" s="1" t="s">
         <v>3949</v>
       </c>
-      <c r="AO104" s="1" t="s">
+      <c r="AS104" s="1" t="s">
         <v>3950</v>
       </c>
-      <c r="AP104" s="1" t="s">
+      <c r="AT104" s="1" t="s">
         <v>3951</v>
       </c>
-      <c r="AQ104" s="1" t="s">
+      <c r="AU104" s="1" t="s">
         <v>3952</v>
       </c>
-      <c r="AR104" s="1" t="s">
+      <c r="AV104" s="1" t="s">
         <v>3953</v>
       </c>
-      <c r="AS104" s="1" t="s">
+      <c r="AW104" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="AT104" s="1" t="s">
+      <c r="AX104" s="1" t="s">
         <v>3955</v>
       </c>
-      <c r="AU104" s="1" t="s">
+      <c r="AY104" s="1" t="s">
         <v>3956</v>
       </c>
-      <c r="AV104" s="1" t="s">
+      <c r="AZ104" s="1" t="s">
         <v>3957</v>
       </c>
-      <c r="AW104" s="1" t="s">
+      <c r="BA104" s="1" t="s">
         <v>3958</v>
       </c>
-      <c r="AX104" s="1" t="s">
+      <c r="BB104" s="1" t="s">
         <v>3959</v>
       </c>
-      <c r="AY104" s="1" t="s">
+      <c r="BC104" s="1" t="s">
         <v>3960</v>
-      </c>
-      <c r="AZ104" s="1" t="s">
-        <v>3961</v>
-      </c>
-      <c r="BA104" s="1" t="s">
-        <v>3962</v>
-      </c>
-      <c r="BB104" s="1" t="s">
-        <v>3963</v>
-      </c>
-      <c r="BC104" s="1" t="s">
-        <v>3964</v>
       </c>
     </row>
     <row r="105" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH105" s="2" t="s">
-        <v>4580</v>
+        <v>4576</v>
       </c>
       <c r="AI105" s="2" t="s">
-        <v>4581</v>
+        <v>4577</v>
       </c>
       <c r="AJ105" s="1" t="s">
-        <v>2983</v>
+        <v>2979</v>
       </c>
       <c r="AK105" s="1" t="s">
-        <v>2984</v>
+        <v>2980</v>
       </c>
       <c r="AL105" s="1" t="s">
+        <v>3961</v>
+      </c>
+      <c r="AM105" s="1" t="s">
+        <v>3962</v>
+      </c>
+      <c r="AN105" s="1" t="s">
+        <v>3963</v>
+      </c>
+      <c r="AO105" s="1" t="s">
+        <v>3964</v>
+      </c>
+      <c r="AP105" s="1" t="s">
         <v>3965</v>
       </c>
-      <c r="AM105" s="1" t="s">
+      <c r="AQ105" s="1" t="s">
         <v>3966</v>
       </c>
-      <c r="AN105" s="1" t="s">
+      <c r="AR105" s="1" t="s">
         <v>3967</v>
       </c>
-      <c r="AO105" s="1" t="s">
+      <c r="AS105" s="1" t="s">
         <v>3968</v>
       </c>
-      <c r="AP105" s="1" t="s">
+      <c r="AT105" s="1" t="s">
         <v>3969</v>
       </c>
-      <c r="AQ105" s="1" t="s">
+      <c r="AU105" s="1" t="s">
         <v>3970</v>
       </c>
-      <c r="AR105" s="1" t="s">
+      <c r="AV105" s="1" t="s">
         <v>3971</v>
       </c>
-      <c r="AS105" s="1" t="s">
+      <c r="AW105" s="1" t="s">
         <v>3972</v>
       </c>
-      <c r="AT105" s="1" t="s">
+      <c r="AX105" s="1" t="s">
         <v>3973</v>
       </c>
-      <c r="AU105" s="1" t="s">
+      <c r="AY105" s="1" t="s">
         <v>3974</v>
       </c>
-      <c r="AV105" s="1" t="s">
+      <c r="AZ105" s="1" t="s">
         <v>3975</v>
       </c>
-      <c r="AW105" s="1" t="s">
+      <c r="BA105" s="1" t="s">
         <v>3976</v>
       </c>
-      <c r="AX105" s="1" t="s">
+      <c r="BB105" s="1" t="s">
         <v>3977</v>
       </c>
-      <c r="AY105" s="1" t="s">
+      <c r="BC105" s="1" t="s">
         <v>3978</v>
-      </c>
-      <c r="AZ105" s="1" t="s">
-        <v>3979</v>
-      </c>
-      <c r="BA105" s="1" t="s">
-        <v>3980</v>
-      </c>
-      <c r="BB105" s="1" t="s">
-        <v>3981</v>
-      </c>
-      <c r="BC105" s="1" t="s">
-        <v>3982</v>
       </c>
     </row>
     <row r="106" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH106" s="2" t="s">
-        <v>4582</v>
+        <v>4578</v>
       </c>
       <c r="AI106" s="2" t="s">
-        <v>4583</v>
+        <v>4579</v>
       </c>
       <c r="AJ106" s="1" t="s">
-        <v>2985</v>
+        <v>2981</v>
       </c>
       <c r="AK106" s="1" t="s">
-        <v>2986</v>
+        <v>2982</v>
       </c>
       <c r="AL106" s="1" t="s">
+        <v>3979</v>
+      </c>
+      <c r="AM106" s="1" t="s">
+        <v>3980</v>
+      </c>
+      <c r="AN106" s="1" t="s">
+        <v>3981</v>
+      </c>
+      <c r="AO106" s="1" t="s">
+        <v>3982</v>
+      </c>
+      <c r="AP106" s="1" t="s">
         <v>3983</v>
       </c>
-      <c r="AM106" s="1" t="s">
+      <c r="AQ106" s="1" t="s">
         <v>3984</v>
       </c>
-      <c r="AN106" s="1" t="s">
+      <c r="AR106" s="1" t="s">
         <v>3985</v>
       </c>
-      <c r="AO106" s="1" t="s">
+      <c r="AS106" s="1" t="s">
         <v>3986</v>
       </c>
-      <c r="AP106" s="1" t="s">
+      <c r="AT106" s="1" t="s">
         <v>3987</v>
       </c>
-      <c r="AQ106" s="1" t="s">
+      <c r="AU106" s="1" t="s">
         <v>3988</v>
       </c>
-      <c r="AR106" s="1" t="s">
+      <c r="AV106" s="1" t="s">
         <v>3989</v>
       </c>
-      <c r="AS106" s="1" t="s">
+      <c r="AW106" s="1" t="s">
         <v>3990</v>
       </c>
-      <c r="AT106" s="1" t="s">
+      <c r="AX106" s="1" t="s">
         <v>3991</v>
       </c>
-      <c r="AU106" s="1" t="s">
+      <c r="AY106" s="1" t="s">
         <v>3992</v>
       </c>
-      <c r="AV106" s="1" t="s">
+      <c r="AZ106" s="1" t="s">
         <v>3993</v>
       </c>
-      <c r="AW106" s="1" t="s">
+      <c r="BA106" s="1" t="s">
         <v>3994</v>
       </c>
-      <c r="AX106" s="1" t="s">
+      <c r="BB106" s="1" t="s">
         <v>3995</v>
       </c>
-      <c r="AY106" s="1" t="s">
+      <c r="BC106" s="1" t="s">
         <v>3996</v>
-      </c>
-      <c r="AZ106" s="1" t="s">
-        <v>3997</v>
-      </c>
-      <c r="BA106" s="1" t="s">
-        <v>3998</v>
-      </c>
-      <c r="BB106" s="1" t="s">
-        <v>3999</v>
-      </c>
-      <c r="BC106" s="1" t="s">
-        <v>4000</v>
       </c>
     </row>
     <row r="107" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH107" s="2" t="s">
-        <v>4584</v>
+        <v>4580</v>
       </c>
       <c r="AI107" s="2" t="s">
-        <v>4585</v>
+        <v>4581</v>
       </c>
       <c r="AJ107" s="1" t="s">
-        <v>2987</v>
+        <v>2983</v>
       </c>
       <c r="AK107" s="1" t="s">
-        <v>2988</v>
+        <v>2984</v>
       </c>
       <c r="AL107" s="1" t="s">
+        <v>3997</v>
+      </c>
+      <c r="AM107" s="1" t="s">
+        <v>3998</v>
+      </c>
+      <c r="AN107" s="1" t="s">
+        <v>3999</v>
+      </c>
+      <c r="AO107" s="1" t="s">
+        <v>4000</v>
+      </c>
+      <c r="AP107" s="1" t="s">
         <v>4001</v>
       </c>
-      <c r="AM107" s="1" t="s">
+      <c r="AQ107" s="1" t="s">
         <v>4002</v>
       </c>
-      <c r="AN107" s="1" t="s">
+      <c r="AR107" s="1" t="s">
         <v>4003</v>
       </c>
-      <c r="AO107" s="1" t="s">
+      <c r="AS107" s="1" t="s">
         <v>4004</v>
       </c>
-      <c r="AP107" s="1" t="s">
+      <c r="AT107" s="1" t="s">
         <v>4005</v>
       </c>
-      <c r="AQ107" s="1" t="s">
+      <c r="AU107" s="1" t="s">
         <v>4006</v>
       </c>
-      <c r="AR107" s="1" t="s">
+      <c r="AV107" s="1" t="s">
         <v>4007</v>
       </c>
-      <c r="AS107" s="1" t="s">
+      <c r="AW107" s="1" t="s">
         <v>4008</v>
       </c>
-      <c r="AT107" s="1" t="s">
+      <c r="AX107" s="1" t="s">
         <v>4009</v>
       </c>
-      <c r="AU107" s="1" t="s">
+      <c r="AY107" s="1" t="s">
         <v>4010</v>
       </c>
-      <c r="AV107" s="1" t="s">
+      <c r="AZ107" s="1" t="s">
         <v>4011</v>
       </c>
-      <c r="AW107" s="1" t="s">
+      <c r="BA107" s="1" t="s">
         <v>4012</v>
       </c>
-      <c r="AX107" s="1" t="s">
+      <c r="BB107" s="1" t="s">
         <v>4013</v>
       </c>
-      <c r="AY107" s="1" t="s">
+      <c r="BC107" s="1" t="s">
         <v>4014</v>
-      </c>
-      <c r="AZ107" s="1" t="s">
-        <v>4015</v>
-      </c>
-      <c r="BA107" s="1" t="s">
-        <v>4016</v>
-      </c>
-      <c r="BB107" s="1" t="s">
-        <v>4017</v>
-      </c>
-      <c r="BC107" s="1" t="s">
-        <v>4018</v>
       </c>
     </row>
     <row r="108" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH108" s="2" t="s">
-        <v>4586</v>
+        <v>4582</v>
       </c>
       <c r="AI108" s="2" t="s">
-        <v>4587</v>
+        <v>4583</v>
       </c>
       <c r="AJ108" s="1" t="s">
-        <v>2989</v>
+        <v>2985</v>
       </c>
       <c r="AK108" s="1" t="s">
-        <v>2990</v>
+        <v>2986</v>
       </c>
       <c r="AL108" s="1" t="s">
+        <v>4015</v>
+      </c>
+      <c r="AM108" s="1" t="s">
+        <v>4016</v>
+      </c>
+      <c r="AN108" s="1" t="s">
+        <v>4017</v>
+      </c>
+      <c r="AO108" s="1" t="s">
+        <v>4018</v>
+      </c>
+      <c r="AP108" s="1" t="s">
         <v>4019</v>
       </c>
-      <c r="AM108" s="1" t="s">
+      <c r="AQ108" s="1" t="s">
         <v>4020</v>
       </c>
-      <c r="AN108" s="1" t="s">
+      <c r="AR108" s="1" t="s">
         <v>4021</v>
       </c>
-      <c r="AO108" s="1" t="s">
+      <c r="AS108" s="1" t="s">
         <v>4022</v>
       </c>
-      <c r="AP108" s="1" t="s">
+      <c r="AT108" s="1" t="s">
         <v>4023</v>
       </c>
-      <c r="AQ108" s="1" t="s">
+      <c r="AU108" s="1" t="s">
         <v>4024</v>
       </c>
-      <c r="AR108" s="1" t="s">
+      <c r="AV108" s="1" t="s">
         <v>4025</v>
       </c>
-      <c r="AS108" s="1" t="s">
+      <c r="AW108" s="1" t="s">
         <v>4026</v>
       </c>
-      <c r="AT108" s="1" t="s">
+      <c r="AX108" s="1" t="s">
         <v>4027</v>
       </c>
-      <c r="AU108" s="1" t="s">
+      <c r="AY108" s="1" t="s">
         <v>4028</v>
       </c>
-      <c r="AV108" s="1" t="s">
+      <c r="AZ108" s="1" t="s">
         <v>4029</v>
       </c>
-      <c r="AW108" s="1" t="s">
+      <c r="BA108" s="1" t="s">
         <v>4030</v>
       </c>
-      <c r="AX108" s="1" t="s">
+      <c r="BB108" s="1" t="s">
         <v>4031</v>
       </c>
-      <c r="AY108" s="1" t="s">
+      <c r="BC108" s="1" t="s">
         <v>4032</v>
-      </c>
-      <c r="AZ108" s="1" t="s">
-        <v>4033</v>
-      </c>
-      <c r="BA108" s="1" t="s">
-        <v>4034</v>
-      </c>
-      <c r="BB108" s="1" t="s">
-        <v>4035</v>
-      </c>
-      <c r="BC108" s="1" t="s">
-        <v>4036</v>
       </c>
     </row>
     <row r="109" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH109" s="2" t="s">
-        <v>4588</v>
+        <v>4584</v>
       </c>
       <c r="AI109" s="2" t="s">
-        <v>4589</v>
+        <v>4585</v>
       </c>
       <c r="AJ109" s="1" t="s">
-        <v>2991</v>
+        <v>2987</v>
       </c>
       <c r="AK109" s="1" t="s">
-        <v>2992</v>
+        <v>2988</v>
       </c>
       <c r="AL109" s="1" t="s">
+        <v>4033</v>
+      </c>
+      <c r="AM109" s="1" t="s">
+        <v>4034</v>
+      </c>
+      <c r="AN109" s="1" t="s">
+        <v>4035</v>
+      </c>
+      <c r="AO109" s="1" t="s">
+        <v>4036</v>
+      </c>
+      <c r="AP109" s="1" t="s">
         <v>4037</v>
       </c>
-      <c r="AM109" s="1" t="s">
+      <c r="AQ109" s="1" t="s">
         <v>4038</v>
       </c>
-      <c r="AN109" s="1" t="s">
+      <c r="AR109" s="1" t="s">
         <v>4039</v>
       </c>
-      <c r="AO109" s="1" t="s">
+      <c r="AS109" s="1" t="s">
         <v>4040</v>
       </c>
-      <c r="AP109" s="1" t="s">
+      <c r="AT109" s="1" t="s">
         <v>4041</v>
       </c>
-      <c r="AQ109" s="1" t="s">
+      <c r="AU109" s="1" t="s">
         <v>4042</v>
       </c>
-      <c r="AR109" s="1" t="s">
+      <c r="AV109" s="1" t="s">
         <v>4043</v>
       </c>
-      <c r="AS109" s="1" t="s">
+      <c r="AW109" s="1" t="s">
         <v>4044</v>
       </c>
-      <c r="AT109" s="1" t="s">
+      <c r="AX109" s="1" t="s">
         <v>4045</v>
       </c>
-      <c r="AU109" s="1" t="s">
+      <c r="AY109" s="1" t="s">
         <v>4046</v>
       </c>
-      <c r="AV109" s="1" t="s">
+      <c r="AZ109" s="1" t="s">
         <v>4047</v>
       </c>
-      <c r="AW109" s="1" t="s">
+      <c r="BA109" s="1" t="s">
         <v>4048</v>
       </c>
-      <c r="AX109" s="1" t="s">
+      <c r="BB109" s="1" t="s">
         <v>4049</v>
       </c>
-      <c r="AY109" s="1" t="s">
+      <c r="BC109" s="1" t="s">
         <v>4050</v>
-      </c>
-      <c r="AZ109" s="1" t="s">
-        <v>4051</v>
-      </c>
-      <c r="BA109" s="1" t="s">
-        <v>4052</v>
-      </c>
-      <c r="BB109" s="1" t="s">
-        <v>4053</v>
-      </c>
-      <c r="BC109" s="1" t="s">
-        <v>4054</v>
       </c>
     </row>
     <row r="110" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH110" s="2" t="s">
-        <v>4590</v>
+        <v>4586</v>
       </c>
       <c r="AI110" s="2" t="s">
-        <v>4591</v>
+        <v>4587</v>
       </c>
       <c r="AJ110" s="1" t="s">
-        <v>2993</v>
+        <v>2989</v>
       </c>
       <c r="AK110" s="1" t="s">
-        <v>2994</v>
+        <v>2990</v>
       </c>
       <c r="AL110" s="1" t="s">
+        <v>4051</v>
+      </c>
+      <c r="AM110" s="1" t="s">
+        <v>4052</v>
+      </c>
+      <c r="AN110" s="1" t="s">
+        <v>4053</v>
+      </c>
+      <c r="AO110" s="1" t="s">
+        <v>4054</v>
+      </c>
+      <c r="AP110" s="1" t="s">
         <v>4055</v>
       </c>
-      <c r="AM110" s="1" t="s">
+      <c r="AQ110" s="1" t="s">
         <v>4056</v>
       </c>
-      <c r="AN110" s="1" t="s">
+      <c r="AR110" s="1" t="s">
         <v>4057</v>
       </c>
-      <c r="AO110" s="1" t="s">
+      <c r="AS110" s="1" t="s">
         <v>4058</v>
       </c>
-      <c r="AP110" s="1" t="s">
+      <c r="AT110" s="1" t="s">
         <v>4059</v>
       </c>
-      <c r="AQ110" s="1" t="s">
+      <c r="AU110" s="1" t="s">
         <v>4060</v>
       </c>
-      <c r="AR110" s="1" t="s">
+      <c r="AV110" s="1" t="s">
         <v>4061</v>
       </c>
-      <c r="AS110" s="1" t="s">
+      <c r="AW110" s="1" t="s">
         <v>4062</v>
       </c>
-      <c r="AT110" s="1" t="s">
+      <c r="AX110" s="1" t="s">
         <v>4063</v>
       </c>
-      <c r="AU110" s="1" t="s">
+      <c r="AY110" s="1" t="s">
         <v>4064</v>
       </c>
-      <c r="AV110" s="1" t="s">
+      <c r="AZ110" s="1" t="s">
         <v>4065</v>
       </c>
-      <c r="AW110" s="1" t="s">
+      <c r="BA110" s="1" t="s">
         <v>4066</v>
       </c>
-      <c r="AX110" s="1" t="s">
+      <c r="BB110" s="1" t="s">
         <v>4067</v>
       </c>
-      <c r="AY110" s="1" t="s">
+      <c r="BC110" s="1" t="s">
         <v>4068</v>
-      </c>
-      <c r="AZ110" s="1" t="s">
-        <v>4069</v>
-      </c>
-      <c r="BA110" s="1" t="s">
-        <v>4070</v>
-      </c>
-      <c r="BB110" s="1" t="s">
-        <v>4071</v>
-      </c>
-      <c r="BC110" s="1" t="s">
-        <v>4072</v>
       </c>
     </row>
     <row r="111" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH111" s="2" t="s">
-        <v>4592</v>
+        <v>4588</v>
       </c>
       <c r="AI111" s="2" t="s">
-        <v>4593</v>
+        <v>4589</v>
       </c>
       <c r="AJ111" s="1" t="s">
-        <v>2995</v>
+        <v>2991</v>
       </c>
       <c r="AK111" s="1" t="s">
-        <v>2996</v>
+        <v>2992</v>
       </c>
       <c r="AL111" s="1" t="s">
+        <v>4069</v>
+      </c>
+      <c r="AM111" s="1" t="s">
+        <v>4070</v>
+      </c>
+      <c r="AN111" s="1" t="s">
+        <v>4071</v>
+      </c>
+      <c r="AO111" s="1" t="s">
+        <v>4072</v>
+      </c>
+      <c r="AP111" s="1" t="s">
         <v>4073</v>
       </c>
-      <c r="AM111" s="1" t="s">
+      <c r="AQ111" s="1" t="s">
         <v>4074</v>
       </c>
-      <c r="AN111" s="1" t="s">
+      <c r="AR111" s="1" t="s">
         <v>4075</v>
       </c>
-      <c r="AO111" s="1" t="s">
+      <c r="AS111" s="1" t="s">
         <v>4076</v>
       </c>
-      <c r="AP111" s="1" t="s">
+      <c r="AT111" s="1" t="s">
         <v>4077</v>
       </c>
-      <c r="AQ111" s="1" t="s">
+      <c r="AU111" s="1" t="s">
         <v>4078</v>
       </c>
-      <c r="AR111" s="1" t="s">
+      <c r="AV111" s="1" t="s">
         <v>4079</v>
       </c>
-      <c r="AS111" s="1" t="s">
+      <c r="AW111" s="1" t="s">
         <v>4080</v>
       </c>
-      <c r="AT111" s="1" t="s">
+      <c r="AX111" s="1" t="s">
         <v>4081</v>
       </c>
-      <c r="AU111" s="1" t="s">
+      <c r="AY111" s="1" t="s">
         <v>4082</v>
       </c>
-      <c r="AV111" s="1" t="s">
+      <c r="AZ111" s="1" t="s">
         <v>4083</v>
       </c>
-      <c r="AW111" s="1" t="s">
+      <c r="BA111" s="1" t="s">
         <v>4084</v>
       </c>
-      <c r="AX111" s="1" t="s">
+      <c r="BB111" s="1" t="s">
         <v>4085</v>
       </c>
-      <c r="AY111" s="1" t="s">
+      <c r="BC111" s="1" t="s">
         <v>4086</v>
-      </c>
-      <c r="AZ111" s="1" t="s">
-        <v>4087</v>
-      </c>
-      <c r="BA111" s="1" t="s">
-        <v>4088</v>
-      </c>
-      <c r="BB111" s="1" t="s">
-        <v>4089</v>
-      </c>
-      <c r="BC111" s="1" t="s">
-        <v>4090</v>
       </c>
     </row>
     <row r="112" spans="34:58" x14ac:dyDescent="0.25">
       <c r="AH112" s="2" t="s">
-        <v>4594</v>
+        <v>4590</v>
       </c>
       <c r="AI112" s="2" t="s">
-        <v>4595</v>
+        <v>4591</v>
       </c>
       <c r="AJ112" s="1" t="s">
-        <v>2997</v>
+        <v>2993</v>
       </c>
       <c r="AK112" s="1" t="s">
-        <v>2998</v>
+        <v>2994</v>
       </c>
       <c r="AL112" s="1" t="s">
+        <v>4087</v>
+      </c>
+      <c r="AM112" s="1" t="s">
+        <v>4088</v>
+      </c>
+      <c r="AN112" s="1" t="s">
+        <v>4089</v>
+      </c>
+      <c r="AO112" s="1" t="s">
+        <v>4090</v>
+      </c>
+      <c r="AP112" s="1" t="s">
         <v>4091</v>
       </c>
-      <c r="AM112" s="1" t="s">
+      <c r="AQ112" s="1" t="s">
         <v>4092</v>
       </c>
-      <c r="AN112" s="1" t="s">
+      <c r="AR112" s="1" t="s">
         <v>4093</v>
       </c>
-      <c r="AO112" s="1" t="s">
+      <c r="AS112" s="1" t="s">
         <v>4094</v>
       </c>
-      <c r="AP112" s="1" t="s">
+      <c r="AT112" s="1" t="s">
         <v>4095</v>
       </c>
-      <c r="AQ112" s="1" t="s">
+      <c r="AU112" s="1" t="s">
         <v>4096</v>
       </c>
-      <c r="AR112" s="1" t="s">
+      <c r="AV112" s="1" t="s">
         <v>4097</v>
       </c>
-      <c r="AS112" s="1" t="s">
+      <c r="AW112" s="1" t="s">
         <v>4098</v>
       </c>
-      <c r="AT112" s="1" t="s">
+      <c r="AX112" s="1" t="s">
         <v>4099</v>
       </c>
-      <c r="AU112" s="1" t="s">
+      <c r="AY112" s="1" t="s">
         <v>4100</v>
       </c>
-      <c r="AV112" s="1" t="s">
+      <c r="AZ112" s="1" t="s">
         <v>4101</v>
       </c>
-      <c r="AW112" s="1" t="s">
+      <c r="BA112" s="1" t="s">
         <v>4102</v>
       </c>
-      <c r="AX112" s="1" t="s">
+      <c r="BB112" s="1" t="s">
         <v>4103</v>
       </c>
-      <c r="AY112" s="1" t="s">
+      <c r="BC112" s="1" t="s">
         <v>4104</v>
-      </c>
-      <c r="AZ112" s="1" t="s">
-        <v>4105</v>
-      </c>
-      <c r="BA112" s="1" t="s">
-        <v>4106</v>
-      </c>
-      <c r="BB112" s="1" t="s">
-        <v>4107</v>
-      </c>
-      <c r="BC112" s="1" t="s">
-        <v>4108</v>
       </c>
     </row>
     <row r="113" spans="34:55" x14ac:dyDescent="0.25">
       <c r="AH113" s="2" t="s">
-        <v>4596</v>
+        <v>4592</v>
       </c>
       <c r="AI113" s="2" t="s">
-        <v>4597</v>
+        <v>4593</v>
       </c>
       <c r="AJ113" s="1" t="s">
-        <v>2999</v>
+        <v>2995</v>
       </c>
       <c r="AK113" s="1" t="s">
-        <v>3000</v>
+        <v>2996</v>
       </c>
       <c r="AL113" s="1" t="s">
+        <v>4105</v>
+      </c>
+      <c r="AM113" s="1" t="s">
+        <v>4106</v>
+      </c>
+      <c r="AN113" s="1" t="s">
+        <v>4107</v>
+      </c>
+      <c r="AO113" s="1" t="s">
+        <v>4108</v>
+      </c>
+      <c r="AP113" s="1" t="s">
         <v>4109</v>
       </c>
-      <c r="AM113" s="1" t="s">
+      <c r="AQ113" s="1" t="s">
         <v>4110</v>
       </c>
-      <c r="AN113" s="1" t="s">
+      <c r="AR113" s="1" t="s">
         <v>4111</v>
       </c>
-      <c r="AO113" s="1" t="s">
+      <c r="AS113" s="1" t="s">
         <v>4112</v>
       </c>
-      <c r="AP113" s="1" t="s">
+      <c r="AT113" s="1" t="s">
         <v>4113</v>
       </c>
-      <c r="AQ113" s="1" t="s">
+      <c r="AU113" s="1" t="s">
         <v>4114</v>
       </c>
-      <c r="AR113" s="1" t="s">
+      <c r="AV113" s="1" t="s">
         <v>4115</v>
       </c>
-      <c r="AS113" s="1" t="s">
+      <c r="AW113" s="1" t="s">
         <v>4116</v>
       </c>
-      <c r="AT113" s="1" t="s">
+      <c r="AX113" s="1" t="s">
         <v>4117</v>
       </c>
-      <c r="AU113" s="1" t="s">
+      <c r="AY113" s="1" t="s">
         <v>4118</v>
       </c>
-      <c r="AV113" s="1" t="s">
+      <c r="AZ113" s="1" t="s">
         <v>4119</v>
       </c>
-      <c r="AW113" s="1" t="s">
+      <c r="BA113" s="1" t="s">
         <v>4120</v>
       </c>
-      <c r="AX113" s="1" t="s">
+      <c r="BB113" s="1" t="s">
         <v>4121</v>
       </c>
-      <c r="AY113" s="1" t="s">
+      <c r="BC113" s="1" t="s">
         <v>4122</v>
-      </c>
-      <c r="AZ113" s="1" t="s">
-        <v>4123</v>
-      </c>
-      <c r="BA113" s="1" t="s">
-        <v>4124</v>
-      </c>
-      <c r="BB113" s="1" t="s">
-        <v>4125</v>
-      </c>
-      <c r="BC113" s="1" t="s">
-        <v>4126</v>
       </c>
     </row>
     <row r="114" spans="34:55" x14ac:dyDescent="0.25">
       <c r="AH114" s="2" t="s">
-        <v>4598</v>
+        <v>4594</v>
       </c>
       <c r="AI114" s="2" t="s">
-        <v>4599</v>
+        <v>4595</v>
       </c>
       <c r="AJ114" s="1" t="s">
-        <v>3001</v>
+        <v>2997</v>
       </c>
       <c r="AK114" s="1" t="s">
-        <v>3002</v>
+        <v>2998</v>
       </c>
       <c r="AL114" s="1" t="s">
+        <v>4123</v>
+      </c>
+      <c r="AM114" s="1" t="s">
+        <v>4124</v>
+      </c>
+      <c r="AN114" s="1" t="s">
+        <v>4125</v>
+      </c>
+      <c r="AO114" s="1" t="s">
+        <v>4126</v>
+      </c>
+      <c r="AP114" s="1" t="s">
         <v>4127</v>
       </c>
-      <c r="AM114" s="1" t="s">
+      <c r="AQ114" s="1" t="s">
         <v>4128</v>
       </c>
-      <c r="AN114" s="1" t="s">
+      <c r="AR114" s="1" t="s">
         <v>4129</v>
       </c>
-      <c r="AO114" s="1" t="s">
+      <c r="AS114" s="1" t="s">
         <v>4130</v>
       </c>
-      <c r="AP114" s="1" t="s">
+      <c r="AT114" s="1" t="s">
         <v>4131</v>
       </c>
-      <c r="AQ114" s="1" t="s">
+      <c r="AU114" s="1" t="s">
         <v>4132</v>
       </c>
-      <c r="AR114" s="1" t="s">
+      <c r="AV114" s="1" t="s">
         <v>4133</v>
       </c>
-      <c r="AS114" s="1" t="s">
+      <c r="AW114" s="1" t="s">
         <v>4134</v>
       </c>
-      <c r="AT114" s="1" t="s">
+      <c r="AX114" s="1" t="s">
         <v>4135</v>
       </c>
-      <c r="AU114" s="1" t="s">
+      <c r="AY114" s="1" t="s">
         <v>4136</v>
       </c>
-      <c r="AV114" s="1" t="s">
+      <c r="AZ114" s="1" t="s">
         <v>4137</v>
       </c>
-      <c r="AW114" s="1" t="s">
+      <c r="BA114" s="1" t="s">
         <v>4138</v>
       </c>
-      <c r="AX114" s="1" t="s">
+      <c r="BB114" s="1" t="s">
         <v>4139</v>
       </c>
-      <c r="AY114" s="1" t="s">
+      <c r="BC114" s="1" t="s">
         <v>4140</v>
-      </c>
-      <c r="AZ114" s="1" t="s">
-        <v>4141</v>
-      </c>
-      <c r="BA114" s="1" t="s">
-        <v>4142</v>
-      </c>
-      <c r="BB114" s="1" t="s">
-        <v>4143</v>
-      </c>
-      <c r="BC114" s="1" t="s">
-        <v>4144</v>
       </c>
     </row>
     <row r="115" spans="34:55" x14ac:dyDescent="0.25">
       <c r="AH115" s="2" t="s">
-        <v>4600</v>
+        <v>4596</v>
       </c>
       <c r="AI115" s="2" t="s">
-        <v>4601</v>
+        <v>4597</v>
       </c>
       <c r="AJ115" s="1" t="s">
-        <v>3003</v>
+        <v>2999</v>
       </c>
       <c r="AK115" s="1" t="s">
-        <v>3004</v>
+        <v>3000</v>
       </c>
       <c r="AL115" s="1" t="s">
+        <v>4141</v>
+      </c>
+      <c r="AM115" s="1" t="s">
+        <v>4142</v>
+      </c>
+      <c r="AN115" s="1" t="s">
+        <v>4143</v>
+      </c>
+      <c r="AO115" s="1" t="s">
+        <v>4144</v>
+      </c>
+      <c r="AP115" s="1" t="s">
         <v>4145</v>
       </c>
-      <c r="AM115" s="1" t="s">
+      <c r="AQ115" s="1" t="s">
         <v>4146</v>
       </c>
-      <c r="AN115" s="1" t="s">
+      <c r="AR115" s="1" t="s">
         <v>4147</v>
       </c>
-      <c r="AO115" s="1" t="s">
+      <c r="AS115" s="1" t="s">
         <v>4148</v>
       </c>
-      <c r="AP115" s="1" t="s">
+      <c r="AT115" s="1" t="s">
         <v>4149</v>
       </c>
-      <c r="AQ115" s="1" t="s">
+      <c r="AU115" s="1" t="s">
         <v>4150</v>
       </c>
-      <c r="AR115" s="1" t="s">
+      <c r="AV115" s="1" t="s">
         <v>4151</v>
       </c>
-      <c r="AS115" s="1" t="s">
+      <c r="AW115" s="1" t="s">
         <v>4152</v>
       </c>
-      <c r="AT115" s="1" t="s">
+      <c r="AX115" s="1" t="s">
         <v>4153</v>
       </c>
-      <c r="AU115" s="1" t="s">
+      <c r="AY115" s="1" t="s">
         <v>4154</v>
       </c>
-      <c r="AV115" s="1" t="s">
+      <c r="AZ115" s="1" t="s">
         <v>4155</v>
       </c>
-      <c r="AW115" s="1" t="s">
+      <c r="BA115" s="1" t="s">
         <v>4156</v>
       </c>
-      <c r="AX115" s="1" t="s">
+      <c r="BB115" s="1" t="s">
         <v>4157</v>
       </c>
-      <c r="AY115" s="1" t="s">
+      <c r="BC115" s="1" t="s">
         <v>4158</v>
-      </c>
-      <c r="AZ115" s="1" t="s">
-        <v>4159</v>
-      </c>
-      <c r="BA115" s="1" t="s">
-        <v>4160</v>
-      </c>
-      <c r="BB115" s="1" t="s">
-        <v>4161</v>
-      </c>
-      <c r="BC115" s="1" t="s">
-        <v>4162</v>
       </c>
     </row>
     <row r="116" spans="34:55" x14ac:dyDescent="0.25">
       <c r="AH116" s="2" t="s">
-        <v>4602</v>
+        <v>4598</v>
       </c>
       <c r="AI116" s="2" t="s">
-        <v>4603</v>
+        <v>4599</v>
       </c>
       <c r="AJ116" s="1" t="s">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="AK116" s="1" t="s">
-        <v>3006</v>
+        <v>3002</v>
       </c>
       <c r="AL116" s="1" t="s">
+        <v>4159</v>
+      </c>
+      <c r="AM116" s="1" t="s">
+        <v>4160</v>
+      </c>
+      <c r="AN116" s="1" t="s">
+        <v>4161</v>
+      </c>
+      <c r="AO116" s="1" t="s">
+        <v>4162</v>
+      </c>
+      <c r="AP116" s="1" t="s">
         <v>4163</v>
       </c>
-      <c r="AM116" s="1" t="s">
+      <c r="AQ116" s="1" t="s">
         <v>4164</v>
       </c>
-      <c r="AN116" s="1" t="s">
+      <c r="AR116" s="1" t="s">
         <v>4165</v>
       </c>
-      <c r="AO116" s="1" t="s">
+      <c r="AS116" s="1" t="s">
         <v>4166</v>
       </c>
-      <c r="AP116" s="1" t="s">
+      <c r="AT116" s="1" t="s">
         <v>4167</v>
       </c>
-      <c r="AQ116" s="1" t="s">
+      <c r="AU116" s="1" t="s">
         <v>4168</v>
       </c>
-      <c r="AR116" s="1" t="s">
+      <c r="AV116" s="1" t="s">
         <v>4169</v>
       </c>
-      <c r="AS116" s="1" t="s">
+      <c r="AW116" s="1" t="s">
         <v>4170</v>
       </c>
-      <c r="AT116" s="1" t="s">
+      <c r="AX116" s="1" t="s">
         <v>4171</v>
       </c>
-      <c r="AU116" s="1" t="s">
+      <c r="AY116" s="1" t="s">
         <v>4172</v>
       </c>
-      <c r="AV116" s="1" t="s">
+      <c r="AZ116" s="1" t="s">
         <v>4173</v>
       </c>
-      <c r="AW116" s="1" t="s">
+      <c r="BA116" s="1" t="s">
         <v>4174</v>
       </c>
-      <c r="AX116" s="1" t="s">
+      <c r="BB116" s="1" t="s">
         <v>4175</v>
       </c>
-      <c r="AY116" s="1" t="s">
+      <c r="BC116" s="1" t="s">
         <v>4176</v>
-      </c>
-      <c r="AZ116" s="1" t="s">
-        <v>4177</v>
-      </c>
-      <c r="BA116" s="1" t="s">
-        <v>4178</v>
-      </c>
-      <c r="BB116" s="1" t="s">
-        <v>4179</v>
-      </c>
-      <c r="BC116" s="1" t="s">
-        <v>4180</v>
       </c>
     </row>
     <row r="117" spans="34:55" x14ac:dyDescent="0.25">
       <c r="AH117" s="2" t="s">
-        <v>4604</v>
+        <v>4600</v>
       </c>
       <c r="AI117" s="2" t="s">
-        <v>4605</v>
+        <v>4601</v>
       </c>
       <c r="AJ117" s="1" t="s">
-        <v>3007</v>
+        <v>3003</v>
       </c>
       <c r="AK117" s="1" t="s">
-        <v>3008</v>
+        <v>3004</v>
       </c>
       <c r="AL117" s="1" t="s">
+        <v>4177</v>
+      </c>
+      <c r="AM117" s="1" t="s">
+        <v>4178</v>
+      </c>
+      <c r="AN117" s="1" t="s">
+        <v>4179</v>
+      </c>
+      <c r="AO117" s="1" t="s">
+        <v>4180</v>
+      </c>
+      <c r="AP117" s="1" t="s">
         <v>4181</v>
       </c>
-      <c r="AM117" s="1" t="s">
+      <c r="AQ117" s="1" t="s">
         <v>4182</v>
       </c>
-      <c r="AN117" s="1" t="s">
+      <c r="AR117" s="1" t="s">
         <v>4183</v>
       </c>
-      <c r="AO117" s="1" t="s">
+      <c r="AS117" s="1" t="s">
         <v>4184</v>
       </c>
-      <c r="AP117" s="1" t="s">
+      <c r="AT117" s="1" t="s">
         <v>4185</v>
       </c>
-      <c r="AQ117" s="1" t="s">
+      <c r="AU117" s="1" t="s">
         <v>4186</v>
       </c>
-      <c r="AR117" s="1" t="s">
+      <c r="AV117" s="1" t="s">
         <v>4187</v>
       </c>
-      <c r="AS117" s="1" t="s">
+      <c r="AW117" s="1" t="s">
         <v>4188</v>
       </c>
-      <c r="AT117" s="1" t="s">
+      <c r="AX117" s="1" t="s">
         <v>4189</v>
       </c>
-      <c r="AU117" s="1" t="s">
+      <c r="AY117" s="1" t="s">
         <v>4190</v>
       </c>
-      <c r="AV117" s="1" t="s">
+      <c r="AZ117" s="1" t="s">
         <v>4191</v>
       </c>
-      <c r="AW117" s="1" t="s">
+      <c r="BA117" s="1" t="s">
         <v>4192</v>
       </c>
-      <c r="AX117" s="1" t="s">
+      <c r="BB117" s="1" t="s">
         <v>4193</v>
       </c>
-      <c r="AY117" s="1" t="s">
+      <c r="BC117" s="1" t="s">
         <v>4194</v>
-      </c>
-      <c r="AZ117" s="1" t="s">
-        <v>4195</v>
-      </c>
-      <c r="BA117" s="1" t="s">
-        <v>4196</v>
-      </c>
-      <c r="BB117" s="1" t="s">
-        <v>4197</v>
-      </c>
-      <c r="BC117" s="1" t="s">
-        <v>4198</v>
       </c>
     </row>
     <row r="118" spans="34:55" x14ac:dyDescent="0.25">
       <c r="AH118" s="2" t="s">
-        <v>4606</v>
+        <v>4602</v>
       </c>
       <c r="AI118" s="2" t="s">
-        <v>4607</v>
+        <v>4603</v>
       </c>
       <c r="AJ118" s="1" t="s">
-        <v>3009</v>
+        <v>3005</v>
       </c>
       <c r="AK118" s="1" t="s">
-        <v>3010</v>
+        <v>3006</v>
       </c>
       <c r="AL118" s="1" t="s">
+        <v>4195</v>
+      </c>
+      <c r="AM118" s="1" t="s">
+        <v>4196</v>
+      </c>
+      <c r="AN118" s="1" t="s">
+        <v>4197</v>
+      </c>
+      <c r="AO118" s="1" t="s">
+        <v>4198</v>
+      </c>
+      <c r="AP118" s="1" t="s">
         <v>4199</v>
       </c>
-      <c r="AM118" s="1" t="s">
+      <c r="AQ118" s="1" t="s">
         <v>4200</v>
       </c>
-      <c r="AN118" s="1" t="s">
+      <c r="AR118" s="1" t="s">
         <v>4201</v>
       </c>
-      <c r="AO118" s="1" t="s">
+      <c r="AS118" s="1" t="s">
         <v>4202</v>
       </c>
-      <c r="AP118" s="1" t="s">
+      <c r="AT118" s="1" t="s">
         <v>4203</v>
       </c>
-      <c r="AQ118" s="1" t="s">
+      <c r="AU118" s="1" t="s">
         <v>4204</v>
       </c>
-      <c r="AR118" s="1" t="s">
+      <c r="AV118" s="1" t="s">
         <v>4205</v>
       </c>
-      <c r="AS118" s="1" t="s">
+      <c r="AW118" s="1" t="s">
         <v>4206</v>
       </c>
-      <c r="AT118" s="1" t="s">
+      <c r="AX118" s="1" t="s">
         <v>4207</v>
       </c>
-      <c r="AU118" s="1" t="s">
+      <c r="AY118" s="1" t="s">
         <v>4208</v>
       </c>
-      <c r="AV118" s="1" t="s">
+      <c r="AZ118" s="1" t="s">
         <v>4209</v>
       </c>
-      <c r="AW118" s="1" t="s">
+      <c r="BA118" s="1" t="s">
         <v>4210</v>
       </c>
-      <c r="AX118" s="1" t="s">
+      <c r="BB118" s="1" t="s">
         <v>4211</v>
       </c>
-      <c r="AY118" s="1" t="s">
+      <c r="BC118" s="1" t="s">
         <v>4212</v>
-      </c>
-      <c r="AZ118" s="1" t="s">
-        <v>4213</v>
-      </c>
-      <c r="BA118" s="1" t="s">
-        <v>4214</v>
-      </c>
-      <c r="BB118" s="1" t="s">
-        <v>4215</v>
-      </c>
-      <c r="BC118" s="1" t="s">
-        <v>4216</v>
       </c>
     </row>
     <row r="119" spans="34:55" x14ac:dyDescent="0.25">
       <c r="AH119" s="2" t="s">
-        <v>4608</v>
+        <v>4604</v>
       </c>
       <c r="AI119" s="2" t="s">
-        <v>4609</v>
+        <v>4605</v>
       </c>
       <c r="AJ119" s="1" t="s">
-        <v>3011</v>
+        <v>3007</v>
       </c>
       <c r="AK119" s="1" t="s">
-        <v>3012</v>
+        <v>3008</v>
       </c>
       <c r="AL119" s="1" t="s">
+        <v>4213</v>
+      </c>
+      <c r="AM119" s="1" t="s">
+        <v>4214</v>
+      </c>
+      <c r="AN119" s="1" t="s">
+        <v>4215</v>
+      </c>
+      <c r="AO119" s="1" t="s">
+        <v>4216</v>
+      </c>
+      <c r="AP119" s="1" t="s">
         <v>4217</v>
       </c>
-      <c r="AM119" s="1" t="s">
+      <c r="AQ119" s="1" t="s">
         <v>4218</v>
       </c>
-      <c r="AN119" s="1" t="s">
+      <c r="AR119" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="AO119" s="1" t="s">
+      <c r="AS119" s="1" t="s">
         <v>4220</v>
       </c>
-      <c r="AP119" s="1" t="s">
+      <c r="AT119" s="1" t="s">
         <v>4221</v>
       </c>
-      <c r="AQ119" s="1" t="s">
+      <c r="AU119" s="1" t="s">
         <v>4222</v>
       </c>
-      <c r="AR119" s="1" t="s">
+      <c r="AV119" s="1" t="s">
         <v>4223</v>
       </c>
-      <c r="AS119" s="1" t="s">
+      <c r="AW119" s="1" t="s">
         <v>4224</v>
       </c>
-      <c r="AT119" s="1" t="s">
+      <c r="AX119" s="1" t="s">
         <v>4225</v>
       </c>
-      <c r="AU119" s="1" t="s">
+      <c r="AY119" s="1" t="s">
         <v>4226</v>
       </c>
-      <c r="AV119" s="1" t="s">
+      <c r="AZ119" s="1" t="s">
         <v>4227</v>
       </c>
-      <c r="AW119" s="1" t="s">
+      <c r="BA119" s="1" t="s">
         <v>4228</v>
       </c>
-      <c r="AX119" s="1" t="s">
+      <c r="BB119" s="1" t="s">
         <v>4229</v>
       </c>
-      <c r="AY119" s="1" t="s">
+      <c r="BC119" s="1" t="s">
         <v>4230</v>
-      </c>
-      <c r="AZ119" s="1" t="s">
-        <v>4231</v>
-      </c>
-      <c r="BA119" s="1" t="s">
-        <v>4232</v>
-      </c>
-      <c r="BB119" s="1" t="s">
-        <v>4233</v>
-      </c>
-      <c r="BC119" s="1" t="s">
-        <v>4234</v>
       </c>
     </row>
     <row r="120" spans="34:55" x14ac:dyDescent="0.25">
       <c r="AH120" s="2" t="s">
-        <v>4610</v>
+        <v>4606</v>
       </c>
       <c r="AI120" s="2" t="s">
-        <v>4611</v>
+        <v>4607</v>
       </c>
       <c r="AJ120" s="1" t="s">
-        <v>3013</v>
+        <v>3009</v>
       </c>
       <c r="AK120" s="1" t="s">
-        <v>3014</v>
+        <v>3010</v>
       </c>
       <c r="AL120" s="1" t="s">
+        <v>4231</v>
+      </c>
+      <c r="AM120" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="AN120" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="AO120" s="1" t="s">
+        <v>4234</v>
+      </c>
+      <c r="AP120" s="1" t="s">
         <v>4235</v>
       </c>
-      <c r="AM120" s="1" t="s">
+      <c r="AQ120" s="1" t="s">
         <v>4236</v>
       </c>
-      <c r="AN120" s="1" t="s">
+      <c r="AR120" s="1" t="s">
         <v>4237</v>
       </c>
-      <c r="AO120" s="1" t="s">
+      <c r="AS120" s="1" t="s">
         <v>4238</v>
       </c>
-      <c r="AP120" s="1" t="s">
+      <c r="AT120" s="1" t="s">
         <v>4239</v>
       </c>
-      <c r="AQ120" s="1" t="s">
+      <c r="AU120" s="1" t="s">
         <v>4240</v>
       </c>
-      <c r="AR120" s="1" t="s">
+      <c r="AV120" s="1" t="s">
         <v>4241</v>
       </c>
-      <c r="AS120" s="1" t="s">
+      <c r="AW120" s="1" t="s">
         <v>4242</v>
       </c>
-      <c r="AT120" s="1" t="s">
+      <c r="AX120" s="1" t="s">
         <v>4243</v>
       </c>
-      <c r="AU120" s="1" t="s">
+      <c r="AY120" s="1" t="s">
         <v>4244</v>
       </c>
-      <c r="AV120" s="1" t="s">
+      <c r="AZ120" s="1" t="s">
         <v>4245</v>
       </c>
-      <c r="AW120" s="1" t="s">
+      <c r="BA120" s="1" t="s">
         <v>4246</v>
       </c>
-      <c r="AX120" s="1" t="s">
+      <c r="BB120" s="1" t="s">
         <v>4247</v>
       </c>
-      <c r="AY120" s="1" t="s">
+      <c r="BC120" s="1" t="s">
         <v>4248</v>
-      </c>
-      <c r="AZ120" s="1" t="s">
-        <v>4249</v>
-      </c>
-      <c r="BA120" s="1" t="s">
-        <v>4250</v>
-      </c>
-      <c r="BB120" s="1" t="s">
-        <v>4251</v>
-      </c>
-      <c r="BC120" s="1" t="s">
-        <v>4252</v>
       </c>
     </row>
     <row r="121" spans="34:55" x14ac:dyDescent="0.25">
       <c r="AH121" s="2" t="s">
-        <v>4612</v>
+        <v>4608</v>
       </c>
       <c r="AI121" s="2" t="s">
-        <v>4613</v>
+        <v>4609</v>
       </c>
       <c r="AJ121" s="1" t="s">
-        <v>3015</v>
+        <v>3011</v>
       </c>
       <c r="AK121" s="1" t="s">
-        <v>3016</v>
+        <v>3012</v>
       </c>
       <c r="AL121" s="1" t="s">
+        <v>4249</v>
+      </c>
+      <c r="AM121" s="1" t="s">
+        <v>4250</v>
+      </c>
+      <c r="AN121" s="1" t="s">
+        <v>4251</v>
+      </c>
+      <c r="AO121" s="1" t="s">
+        <v>4252</v>
+      </c>
+      <c r="AP121" s="1" t="s">
         <v>4253</v>
       </c>
-      <c r="AM121" s="1" t="s">
+      <c r="AQ121" s="1" t="s">
         <v>4254</v>
       </c>
-      <c r="AN121" s="1" t="s">
+      <c r="AR121" s="1" t="s">
         <v>4255</v>
       </c>
-      <c r="AO121" s="1" t="s">
+      <c r="AS121" s="1" t="s">
         <v>4256</v>
       </c>
-      <c r="AP121" s="1" t="s">
+      <c r="AT121" s="1" t="s">
         <v>4257</v>
       </c>
-      <c r="AQ121" s="1" t="s">
+      <c r="AU121" s="1" t="s">
         <v>4258</v>
       </c>
-      <c r="AR121" s="1" t="s">
+      <c r="AV121" s="1" t="s">
         <v>4259</v>
       </c>
-      <c r="AS121" s="1" t="s">
+      <c r="AW121" s="1" t="s">
         <v>4260</v>
       </c>
-      <c r="AT121" s="1" t="s">
+      <c r="AX121" s="1" t="s">
         <v>4261</v>
       </c>
-      <c r="AU121" s="1" t="s">
+      <c r="AY121" s="1" t="s">
         <v>4262</v>
       </c>
-      <c r="AV121" s="1" t="s">
+      <c r="AZ121" s="1" t="s">
         <v>4263</v>
       </c>
-      <c r="AW121" s="1" t="s">
+      <c r="BA121" s="1" t="s">
         <v>4264</v>
       </c>
-      <c r="AX121" s="1" t="s">
+      <c r="BB121" s="1" t="s">
         <v>4265</v>
       </c>
-      <c r="AY121" s="1" t="s">
+      <c r="BC121" s="1" t="s">
         <v>4266</v>
-      </c>
-      <c r="AZ121" s="1" t="s">
-        <v>4267</v>
-      </c>
-      <c r="BA121" s="1" t="s">
-        <v>4268</v>
-      </c>
-      <c r="BB121" s="1" t="s">
-        <v>4269</v>
-      </c>
-      <c r="BC121" s="1" t="s">
-        <v>4270</v>
       </c>
     </row>
     <row r="122" spans="34:55" x14ac:dyDescent="0.25">
       <c r="AH122" s="2" t="s">
-        <v>4614</v>
+        <v>4610</v>
       </c>
       <c r="AI122" s="2" t="s">
-        <v>4615</v>
+        <v>4611</v>
       </c>
       <c r="AJ122" s="1" t="s">
-        <v>3017</v>
+        <v>3013</v>
       </c>
       <c r="AK122" s="1" t="s">
-        <v>3018</v>
+        <v>3014</v>
       </c>
       <c r="AL122" s="1" t="s">
+        <v>4267</v>
+      </c>
+      <c r="AM122" s="1" t="s">
+        <v>4268</v>
+      </c>
+      <c r="AN122" s="1" t="s">
+        <v>4269</v>
+      </c>
+      <c r="AO122" s="1" t="s">
+        <v>4270</v>
+      </c>
+      <c r="AP122" s="1" t="s">
         <v>4271</v>
       </c>
-      <c r="AM122" s="1" t="s">
+      <c r="AQ122" s="1" t="s">
         <v>4272</v>
       </c>
-      <c r="AN122" s="1" t="s">
+      <c r="AR122" s="1" t="s">
         <v>4273</v>
       </c>
-      <c r="AO122" s="1" t="s">
+      <c r="AS122" s="1" t="s">
         <v>4274</v>
       </c>
-      <c r="AP122" s="1" t="s">
+      <c r="AT122" s="1" t="s">
         <v>4275</v>
       </c>
-      <c r="AQ122" s="1" t="s">
+      <c r="AU122" s="1" t="s">
         <v>4276</v>
       </c>
-      <c r="AR122" s="1" t="s">
+      <c r="AV122" s="1" t="s">
         <v>4277</v>
       </c>
-      <c r="AS122" s="1" t="s">
+      <c r="AW122" s="1" t="s">
         <v>4278</v>
       </c>
-      <c r="AT122" s="1" t="s">
+      <c r="AX122" s="1" t="s">
         <v>4279</v>
       </c>
-      <c r="AU122" s="1" t="s">
+      <c r="AY122" s="1" t="s">
         <v>4280</v>
       </c>
-      <c r="AV122" s="1" t="s">
+      <c r="AZ122" s="1" t="s">
         <v>4281</v>
       </c>
-      <c r="AW122" s="1" t="s">
+      <c r="BA122" s="1" t="s">
         <v>4282</v>
       </c>
-      <c r="AX122" s="1" t="s">
+      <c r="BB122" s="1" t="s">
         <v>4283</v>
       </c>
-      <c r="AY122" s="1" t="s">
+      <c r="BC122" s="1" t="s">
         <v>4284</v>
-      </c>
-      <c r="AZ122" s="1" t="s">
-        <v>4285</v>
-      </c>
-      <c r="BA122" s="1" t="s">
-        <v>4286</v>
-      </c>
-      <c r="BB122" s="1" t="s">
-        <v>4287</v>
-      </c>
-      <c r="BC122" s="1" t="s">
-        <v>4288</v>
       </c>
     </row>
     <row r="123" spans="34:55" x14ac:dyDescent="0.25">
       <c r="AH123" s="2" t="s">
-        <v>4616</v>
+        <v>4612</v>
       </c>
       <c r="AI123" s="2" t="s">
-        <v>4617</v>
+        <v>4613</v>
       </c>
       <c r="AJ123" s="1" t="s">
-        <v>3019</v>
+        <v>3015</v>
       </c>
       <c r="AK123" s="1" t="s">
-        <v>3020</v>
+        <v>3016</v>
       </c>
       <c r="AL123" s="1" t="s">
+        <v>4285</v>
+      </c>
+      <c r="AM123" s="1" t="s">
+        <v>4286</v>
+      </c>
+      <c r="AN123" s="1" t="s">
+        <v>4287</v>
+      </c>
+      <c r="AO123" s="1" t="s">
+        <v>4288</v>
+      </c>
+      <c r="AP123" s="1" t="s">
         <v>4289</v>
       </c>
-      <c r="AM123" s="1" t="s">
+      <c r="AQ123" s="1" t="s">
         <v>4290</v>
       </c>
-      <c r="AN123" s="1" t="s">
+      <c r="AR123" s="1" t="s">
         <v>4291</v>
       </c>
-      <c r="AO123" s="1" t="s">
+      <c r="AS123" s="1" t="s">
         <v>4292</v>
       </c>
-      <c r="AP123" s="1" t="s">
+      <c r="AT123" s="1" t="s">
         <v>4293</v>
       </c>
-      <c r="AQ123" s="1" t="s">
+      <c r="AU123" s="1" t="s">
         <v>4294</v>
       </c>
-      <c r="AR123" s="1" t="s">
+      <c r="AV123" s="1" t="s">
         <v>4295</v>
       </c>
-      <c r="AS123" s="1" t="s">
+      <c r="AW123" s="1" t="s">
         <v>4296</v>
       </c>
-      <c r="AT123" s="1" t="s">
+      <c r="AX123" s="1" t="s">
         <v>4297</v>
       </c>
-      <c r="AU123" s="1" t="s">
+      <c r="AY123" s="1" t="s">
         <v>4298</v>
       </c>
-      <c r="AV123" s="1" t="s">
+      <c r="AZ123" s="1" t="s">
         <v>4299</v>
       </c>
-      <c r="AW123" s="1" t="s">
+      <c r="BA123" s="1" t="s">
         <v>4300</v>
       </c>
-      <c r="AX123" s="1" t="s">
+      <c r="BB123" s="1" t="s">
         <v>4301</v>
       </c>
-      <c r="AY123" s="1" t="s">
+      <c r="BC123" s="1" t="s">
         <v>4302</v>
-      </c>
-      <c r="AZ123" s="1" t="s">
-        <v>4303</v>
-      </c>
-      <c r="BA123" s="1" t="s">
-        <v>4304</v>
-      </c>
-      <c r="BB123" s="1" t="s">
-        <v>4305</v>
-      </c>
-      <c r="BC123" s="1" t="s">
-        <v>4306</v>
       </c>
     </row>
     <row r="124" spans="34:55" x14ac:dyDescent="0.25">
       <c r="AH124" s="2" t="s">
-        <v>4618</v>
+        <v>4614</v>
       </c>
       <c r="AI124" s="2" t="s">
-        <v>4619</v>
+        <v>4615</v>
       </c>
       <c r="AJ124" s="1" t="s">
-        <v>3021</v>
+        <v>3017</v>
       </c>
       <c r="AK124" s="1" t="s">
-        <v>3022</v>
+        <v>3018</v>
       </c>
       <c r="AL124" s="1" t="s">
+        <v>4303</v>
+      </c>
+      <c r="AM124" s="1" t="s">
+        <v>4304</v>
+      </c>
+      <c r="AN124" s="1" t="s">
+        <v>4305</v>
+      </c>
+      <c r="AO124" s="1" t="s">
+        <v>4306</v>
+      </c>
+      <c r="AP124" s="1" t="s">
         <v>4307</v>
       </c>
-      <c r="AM124" s="1" t="s">
+      <c r="AQ124" s="1" t="s">
         <v>4308</v>
       </c>
-      <c r="AN124" s="1" t="s">
+      <c r="AR124" s="1" t="s">
         <v>4309</v>
       </c>
-      <c r="AO124" s="1" t="s">
+      <c r="AS124" s="1" t="s">
         <v>4310</v>
       </c>
-      <c r="AP124" s="1" t="s">
+      <c r="AT124" s="1" t="s">
         <v>4311</v>
       </c>
-      <c r="AQ124" s="1" t="s">
+      <c r="AU124" s="1" t="s">
         <v>4312</v>
       </c>
-      <c r="AR124" s="1" t="s">
+      <c r="AV124" s="1" t="s">
         <v>4313</v>
       </c>
-      <c r="AS124" s="1" t="s">
+      <c r="AW124" s="1" t="s">
         <v>4314</v>
       </c>
-      <c r="AT124" s="1" t="s">
+      <c r="AX124" s="1" t="s">
         <v>4315</v>
       </c>
-      <c r="AU124" s="1" t="s">
+      <c r="AY124" s="1" t="s">
         <v>4316</v>
       </c>
-      <c r="AV124" s="1" t="s">
+      <c r="AZ124" s="1" t="s">
         <v>4317</v>
       </c>
-      <c r="AW124" s="1" t="s">
+      <c r="BA124" s="1" t="s">
         <v>4318</v>
       </c>
-      <c r="AX124" s="1" t="s">
+      <c r="BB124" s="1" t="s">
         <v>4319</v>
       </c>
-      <c r="AY124" s="1" t="s">
+      <c r="BC124" s="1" t="s">
         <v>4320</v>
-      </c>
-      <c r="AZ124" s="1" t="s">
-        <v>4321</v>
-      </c>
-      <c r="BA124" s="1" t="s">
-        <v>4322</v>
-      </c>
-      <c r="BB124" s="1" t="s">
-        <v>4323</v>
-      </c>
-      <c r="BC124" s="1" t="s">
-        <v>4324</v>
       </c>
     </row>
     <row r="125" spans="34:55" x14ac:dyDescent="0.25">
       <c r="AH125" s="2" t="s">
-        <v>4620</v>
+        <v>4616</v>
       </c>
       <c r="AI125" s="2" t="s">
-        <v>4621</v>
+        <v>4617</v>
       </c>
       <c r="AJ125" s="1" t="s">
-        <v>3023</v>
+        <v>3019</v>
       </c>
       <c r="AK125" s="1" t="s">
-        <v>3024</v>
+        <v>3020</v>
       </c>
       <c r="AL125" s="1" t="s">
+        <v>4321</v>
+      </c>
+      <c r="AM125" s="1" t="s">
+        <v>4322</v>
+      </c>
+      <c r="AN125" s="1" t="s">
+        <v>4323</v>
+      </c>
+      <c r="AO125" s="1" t="s">
+        <v>4324</v>
+      </c>
+      <c r="AP125" s="1" t="s">
         <v>4325</v>
       </c>
-      <c r="AM125" s="1" t="s">
+      <c r="AQ125" s="1" t="s">
         <v>4326</v>
       </c>
-      <c r="AN125" s="1" t="s">
+      <c r="AR125" s="1" t="s">
         <v>4327</v>
       </c>
-      <c r="AO125" s="1" t="s">
+      <c r="AS125" s="1" t="s">
         <v>4328</v>
       </c>
-      <c r="AP125" s="1" t="s">
+      <c r="AT125" s="1" t="s">
         <v>4329</v>
       </c>
-      <c r="AQ125" s="1" t="s">
+      <c r="AU125" s="1" t="s">
         <v>4330</v>
       </c>
-      <c r="AR125" s="1" t="s">
+      <c r="AV125" s="1" t="s">
         <v>4331</v>
       </c>
-      <c r="AS125" s="1" t="s">
+      <c r="AW125" s="1" t="s">
         <v>4332</v>
       </c>
-      <c r="AT125" s="1" t="s">
+      <c r="AX125" s="1" t="s">
         <v>4333</v>
       </c>
-      <c r="AU125" s="1" t="s">
+      <c r="AY125" s="1" t="s">
         <v>4334</v>
       </c>
-      <c r="AV125" s="1" t="s">
+      <c r="AZ125" s="1" t="s">
         <v>4335</v>
       </c>
-      <c r="AW125" s="1" t="s">
+      <c r="BA125" s="1" t="s">
         <v>4336</v>
       </c>
-      <c r="AX125" s="1" t="s">
+      <c r="BB125" s="1" t="s">
         <v>4337</v>
       </c>
-      <c r="AY125" s="1" t="s">
+      <c r="BC125" s="1" t="s">
         <v>4338</v>
-      </c>
-      <c r="AZ125" s="1" t="s">
-        <v>4339</v>
-      </c>
-      <c r="BA125" s="1" t="s">
-        <v>4340</v>
-      </c>
-      <c r="BB125" s="1" t="s">
-        <v>4341</v>
-      </c>
-      <c r="BC125" s="1" t="s">
-        <v>4342</v>
       </c>
     </row>
     <row r="126" spans="34:55" x14ac:dyDescent="0.25">
       <c r="AH126" s="2" t="s">
-        <v>4622</v>
+        <v>4618</v>
       </c>
       <c r="AI126" s="2" t="s">
-        <v>4623</v>
+        <v>4619</v>
       </c>
       <c r="AJ126" s="1" t="s">
-        <v>3025</v>
+        <v>3021</v>
       </c>
       <c r="AK126" s="1" t="s">
-        <v>3026</v>
+        <v>3022</v>
       </c>
       <c r="AL126" s="1" t="s">
+        <v>4339</v>
+      </c>
+      <c r="AM126" s="1" t="s">
+        <v>4340</v>
+      </c>
+      <c r="AN126" s="1" t="s">
+        <v>4341</v>
+      </c>
+      <c r="AO126" s="1" t="s">
+        <v>4342</v>
+      </c>
+      <c r="AP126" s="1" t="s">
         <v>4343</v>
       </c>
-      <c r="AM126" s="1" t="s">
+      <c r="AQ126" s="1" t="s">
         <v>4344</v>
       </c>
-      <c r="AN126" s="1" t="s">
+      <c r="AR126" s="1" t="s">
         <v>4345</v>
       </c>
-      <c r="AO126" s="1" t="s">
+      <c r="AS126" s="1" t="s">
         <v>4346</v>
       </c>
-      <c r="AP126" s="1" t="s">
+      <c r="AT126" s="1" t="s">
         <v>4347</v>
       </c>
-      <c r="AQ126" s="1" t="s">
+      <c r="AU126" s="1" t="s">
         <v>4348</v>
       </c>
-      <c r="AR126" s="1" t="s">
+      <c r="AV126" s="1" t="s">
         <v>4349</v>
       </c>
-      <c r="AS126" s="1" t="s">
+      <c r="AW126" s="1" t="s">
         <v>4350</v>
       </c>
-      <c r="AT126" s="1" t="s">
+      <c r="AX126" s="1" t="s">
         <v>4351</v>
       </c>
-      <c r="AU126" s="1" t="s">
+      <c r="AY126" s="1" t="s">
         <v>4352</v>
       </c>
-      <c r="AV126" s="1" t="s">
+      <c r="AZ126" s="1" t="s">
         <v>4353</v>
       </c>
-      <c r="AW126" s="1" t="s">
+      <c r="BA126" s="1" t="s">
         <v>4354</v>
       </c>
-      <c r="AX126" s="1" t="s">
+      <c r="BB126" s="1" t="s">
         <v>4355</v>
       </c>
-      <c r="AY126" s="1" t="s">
+      <c r="BC126" s="1" t="s">
         <v>4356</v>
-      </c>
-      <c r="AZ126" s="1" t="s">
-        <v>4357</v>
-      </c>
-      <c r="BA126" s="1" t="s">
-        <v>4358</v>
-      </c>
-      <c r="BB126" s="1" t="s">
-        <v>4359</v>
-      </c>
-      <c r="BC126" s="1" t="s">
-        <v>4360</v>
       </c>
     </row>
     <row r="127" spans="34:55" x14ac:dyDescent="0.25">
       <c r="AH127" s="2" t="s">
-        <v>4624</v>
+        <v>4620</v>
       </c>
       <c r="AI127" s="2" t="s">
-        <v>4625</v>
+        <v>4621</v>
       </c>
       <c r="AJ127" s="1" t="s">
-        <v>3027</v>
+        <v>3023</v>
       </c>
       <c r="AK127" s="1" t="s">
-        <v>3028</v>
+        <v>3024</v>
       </c>
       <c r="AL127" s="1" t="s">
+        <v>4357</v>
+      </c>
+      <c r="AM127" s="1" t="s">
+        <v>4358</v>
+      </c>
+      <c r="AN127" s="1" t="s">
+        <v>4359</v>
+      </c>
+      <c r="AO127" s="1" t="s">
+        <v>4360</v>
+      </c>
+      <c r="AP127" s="1" t="s">
         <v>4361</v>
       </c>
-      <c r="AM127" s="1" t="s">
+      <c r="AQ127" s="1" t="s">
         <v>4362</v>
       </c>
-      <c r="AN127" s="1" t="s">
+      <c r="AR127" s="1" t="s">
         <v>4363</v>
       </c>
-      <c r="AO127" s="1" t="s">
+      <c r="AS127" s="1" t="s">
         <v>4364</v>
       </c>
-      <c r="AP127" s="1" t="s">
+      <c r="AT127" s="1" t="s">
         <v>4365</v>
       </c>
-      <c r="AQ127" s="1" t="s">
+      <c r="AU127" s="1" t="s">
         <v>4366</v>
       </c>
-      <c r="AR127" s="1" t="s">
+      <c r="AV127" s="1" t="s">
         <v>4367</v>
       </c>
-      <c r="AS127" s="1" t="s">
+      <c r="AW127" s="1" t="s">
         <v>4368</v>
       </c>
-      <c r="AT127" s="1" t="s">
+      <c r="AX127" s="1" t="s">
         <v>4369</v>
       </c>
-      <c r="AU127" s="1" t="s">
+      <c r="AY127" s="1" t="s">
         <v>4370</v>
       </c>
-      <c r="AV127" s="1" t="s">
+      <c r="AZ127" s="1" t="s">
         <v>4371</v>
       </c>
-      <c r="AW127" s="1" t="s">
+      <c r="BA127" s="1" t="s">
         <v>4372</v>
       </c>
-      <c r="AX127" s="1" t="s">
+      <c r="BB127" s="1" t="s">
         <v>4373</v>
       </c>
-      <c r="AY127" s="1" t="s">
+      <c r="BC127" s="1" t="s">
         <v>4374</v>
-      </c>
-      <c r="AZ127" s="1" t="s">
-        <v>4375</v>
-      </c>
-      <c r="BA127" s="1" t="s">
-        <v>4376</v>
-      </c>
-      <c r="BB127" s="1" t="s">
-        <v>4377</v>
-      </c>
-      <c r="BC127" s="1" t="s">
-        <v>4378</v>
       </c>
     </row>
   </sheetData>
@@ -29850,8 +29850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22E7869-211A-40F2-A2E2-AA65F8248AC1}">
   <dimension ref="A1:BD5"/>
   <sheetViews>
-    <sheetView topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BD1" sqref="BD1"/>
+    <sheetView topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:BD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29896,166 +29896,166 @@
         <v>2805</v>
       </c>
       <c r="C1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="D1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="E1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="F1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="G1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="H1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="I1" t="s">
-        <v>2818</v>
+        <v>4751</v>
       </c>
       <c r="J1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="K1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="L1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="M1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="N1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="O1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="P1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="Q1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="R1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="S1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="T1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="U1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="V1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="W1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="X1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="Y1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="Z1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="AA1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="AB1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="AC1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="AD1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="AE1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="AF1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="AG1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="AH1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="AI1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="AJ1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="AK1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="AL1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="AM1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="AN1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="AO1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="AP1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="AQ1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="AR1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="AS1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="AT1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="AU1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="AV1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="AW1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="AX1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="AY1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="AZ1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="BA1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="BB1" t="s">
-        <v>2806</v>
+        <v>4751</v>
       </c>
       <c r="BC1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
       <c r="BD1" t="s">
-        <v>2807</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
@@ -30400,7 +30400,7 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="B4">
         <v>9000</v>
@@ -30570,7 +30570,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B5" t="str">
         <f>B1&amp;"."&amp;B2&amp;"."&amp;B3&amp;"."&amp;B4</f>
@@ -30578,222 +30578,223 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ref="C5:BD5" si="0">C1&amp;"."&amp;C2&amp;"."&amp;C3&amp;"."&amp;C4</f>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig:.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="R5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="S5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="X5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="Z5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="AC5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="AD5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="AE5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="AF5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="AG5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="AH5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="AI5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="AJ5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="AK5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="AL5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="AM5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="AN5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="AO5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="AP5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="AQ5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="AR5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="AS5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="AT5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="AU5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="AV5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="AW5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="AX5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="AY5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="AZ5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="BA5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="BB5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleZig.1.6.9000</v>
+        <v>AisleReverseUPick3.1.6.9000</v>
       </c>
       <c r="BC5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
       <c r="BD5" t="str">
         <f t="shared" si="0"/>
-        <v>AisleReverseZig.1.6.9000</v>
+        <v>AisleUPick3.1.6.9000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -30802,8 +30803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEB32EA-3168-4C84-A276-945E883034DE}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30854,18 +30855,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4750</v>
+        <v>4746</v>
       </c>
       <c r="B6" t="s">
-        <v>4751</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4753</v>
+        <v>4749</v>
       </c>
       <c r="B7" t="s">
-        <v>4752</v>
+        <v>4748</v>
       </c>
     </row>
   </sheetData>
